--- a/fcst_results/orig_series_HOU-Int_results.xlsx
+++ b/fcst_results/orig_series_HOU-Int_results.xlsx
@@ -58,6 +58,7 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -74,74 +75,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -434,7 +367,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,20 +383,25 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>lstm_reg</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>lstm</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>arima</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>prophet</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>weighted_ensemble</t>
         </is>
@@ -474,16 +412,19 @@
         <v>44470</v>
       </c>
       <c r="B2" t="n">
-        <v>33470.36064434052</v>
+        <v>38768.93845152855</v>
       </c>
       <c r="C2" t="n">
-        <v>28821.40504053046</v>
+        <v>32501.18805217743</v>
       </c>
       <c r="D2" t="n">
-        <v>19528.73090641264</v>
+        <v>28821.40616691012</v>
       </c>
       <c r="E2" t="n">
-        <v>25775.66473381158</v>
+        <v>19528.73090641263</v>
+      </c>
+      <c r="F2" t="n">
+        <v>26378.67128622435</v>
       </c>
     </row>
     <row r="3">
@@ -491,16 +432,19 @@
         <v>44501</v>
       </c>
       <c r="B3" t="n">
-        <v>31485.73293089867</v>
+        <v>36586.27871775627</v>
       </c>
       <c r="C3" t="n">
-        <v>32369.65498197662</v>
+        <v>31670.55708694458</v>
       </c>
       <c r="D3" t="n">
+        <v>32369.65671807975</v>
+      </c>
+      <c r="E3" t="n">
         <v>23129.51227480709</v>
       </c>
-      <c r="E3" t="n">
-        <v>29044.99725297637</v>
+      <c r="F3" t="n">
+        <v>29341.35758694849</v>
       </c>
     </row>
     <row r="4">
@@ -508,16 +452,19 @@
         <v>44531</v>
       </c>
       <c r="B4" t="n">
-        <v>30959.60133552551</v>
+        <v>35650.7205183506</v>
       </c>
       <c r="C4" t="n">
-        <v>36742.89039458219</v>
+        <v>31317.13155245781</v>
       </c>
       <c r="D4" t="n">
-        <v>28141.42346625904</v>
+        <v>36742.88505581577</v>
       </c>
       <c r="E4" t="n">
-        <v>33381.26709424666</v>
+        <v>28141.42346625903</v>
+      </c>
+      <c r="F4" t="n">
+        <v>33325.33746280208</v>
       </c>
     </row>
     <row r="5">
@@ -525,16 +472,19 @@
         <v>44562</v>
       </c>
       <c r="B5" t="n">
-        <v>30878.31212186813</v>
+        <v>36679.58633160591</v>
       </c>
       <c r="C5" t="n">
-        <v>32394.59301656722</v>
+        <v>31493.18255138397</v>
       </c>
       <c r="D5" t="n">
-        <v>19907.21823224366</v>
+        <v>32394.68384174535</v>
       </c>
       <c r="E5" t="n">
-        <v>27884.26027205453</v>
+        <v>19907.21823224365</v>
+      </c>
+      <c r="F5" t="n">
+        <v>28236.87182104962</v>
       </c>
     </row>
     <row r="6">
@@ -542,16 +492,19 @@
         <v>44593</v>
       </c>
       <c r="B6" t="n">
-        <v>33799.30934548378</v>
+        <v>37576.58664298058</v>
       </c>
       <c r="C6" t="n">
-        <v>29450.34034542029</v>
+        <v>33239.75930953026</v>
       </c>
       <c r="D6" t="n">
-        <v>17204.30476352941</v>
+        <v>29450.43687876184</v>
       </c>
       <c r="E6" t="n">
-        <v>25341.02397918734</v>
+        <v>17204.3047635294</v>
+      </c>
+      <c r="F6" t="n">
+        <v>25911.01865463601</v>
       </c>
     </row>
     <row r="7">
@@ -559,16 +512,19 @@
         <v>44621</v>
       </c>
       <c r="B7" t="n">
-        <v>34026.78919649124</v>
+        <v>38562.30172419548</v>
       </c>
       <c r="C7" t="n">
-        <v>34321.79295254266</v>
+        <v>34193.84702181816</v>
       </c>
       <c r="D7" t="n">
+        <v>34321.88112153274</v>
+      </c>
+      <c r="E7" t="n">
         <v>22264.59026738248</v>
       </c>
-      <c r="E7" t="n">
-        <v>30029.70375456051</v>
+      <c r="F7" t="n">
+        <v>30367.56866665284</v>
       </c>
     </row>
     <row r="8">
@@ -576,16 +532,19 @@
         <v>44652</v>
       </c>
       <c r="B8" t="n">
-        <v>33966.64562916756</v>
+        <v>38413.35400533676</v>
       </c>
       <c r="C8" t="n">
-        <v>27408.96924065984</v>
+        <v>33911.96122074127</v>
       </c>
       <c r="D8" t="n">
-        <v>14683.00488414149</v>
+        <v>27409.05898499533</v>
       </c>
       <c r="E8" t="n">
-        <v>23248.22100572758</v>
+        <v>14683.0048841415</v>
+      </c>
+      <c r="F8" t="n">
+        <v>24045.90826233962</v>
       </c>
     </row>
     <row r="9">
@@ -593,16 +552,19 @@
         <v>44682</v>
       </c>
       <c r="B9" t="n">
-        <v>33004.0013384819</v>
+        <v>38639.197483778</v>
       </c>
       <c r="C9" t="n">
-        <v>31403.73608336944</v>
+        <v>34078.79559183121</v>
       </c>
       <c r="D9" t="n">
-        <v>18388.23141479356</v>
+        <v>31403.80315051353</v>
       </c>
       <c r="E9" t="n">
-        <v>26873.69834635581</v>
+        <v>18388.23141479355</v>
+      </c>
+      <c r="F9" t="n">
+        <v>27473.42269905955</v>
       </c>
     </row>
     <row r="10">
@@ -610,16 +572,19 @@
         <v>44713</v>
       </c>
       <c r="B10" t="n">
-        <v>32804.64921927452</v>
+        <v>39106.69812512398</v>
       </c>
       <c r="C10" t="n">
-        <v>36122.06155423502</v>
+        <v>33490.95624947548</v>
       </c>
       <c r="D10" t="n">
+        <v>36122.11661765883</v>
+      </c>
+      <c r="E10" t="n">
         <v>24411.43665927032</v>
       </c>
-      <c r="E10" t="n">
-        <v>31790.35037899422</v>
+      <c r="F10" t="n">
+        <v>32039.91130542334</v>
       </c>
     </row>
     <row r="11">
@@ -627,16 +592,19 @@
         <v>44743</v>
       </c>
       <c r="B11" t="n">
-        <v>34207.50867009163</v>
+        <v>39364.10365509987</v>
       </c>
       <c r="C11" t="n">
-        <v>40255.90661725717</v>
+        <v>33365.69467973709</v>
       </c>
       <c r="D11" t="n">
+        <v>40255.94898240862</v>
+      </c>
+      <c r="E11" t="n">
         <v>28095.39572557426</v>
       </c>
-      <c r="E11" t="n">
-        <v>35617.77070791724</v>
+      <c r="F11" t="n">
+        <v>35514.00725389567</v>
       </c>
     </row>
     <row r="12">
@@ -644,16 +612,19 @@
         <v>44774</v>
       </c>
       <c r="B12" t="n">
-        <v>31733.96652388573</v>
+        <v>38157.16200375557</v>
       </c>
       <c r="C12" t="n">
-        <v>33267.57036497068</v>
+        <v>31974.74018311501</v>
       </c>
       <c r="D12" t="n">
+        <v>33267.59357495913</v>
+      </c>
+      <c r="E12" t="n">
         <v>18353.19117831365</v>
       </c>
-      <c r="E12" t="n">
-        <v>27895.54123656278</v>
+      <c r="F12" t="n">
+        <v>28274.56877818644</v>
       </c>
     </row>
     <row r="13">
@@ -661,16 +632,19 @@
         <v>44805</v>
       </c>
       <c r="B13" t="n">
-        <v>31809.88252258301</v>
+        <v>38820.74889469147</v>
       </c>
       <c r="C13" t="n">
-        <v>27276.97714991415</v>
+        <v>33071.90736222267</v>
       </c>
       <c r="D13" t="n">
+        <v>27277.01229299077</v>
+      </c>
+      <c r="E13" t="n">
         <v>10506.09552529317</v>
       </c>
-      <c r="E13" t="n">
-        <v>21572.76430726756</v>
+      <c r="F13" t="n">
+        <v>22495.01181992888</v>
       </c>
     </row>
     <row r="14">
@@ -678,16 +652,19 @@
         <v>44835</v>
       </c>
       <c r="B14" t="n">
-        <v>31086.51646661758</v>
+        <v>37884.90192365646</v>
       </c>
       <c r="C14" t="n">
-        <v>31657.3821904446</v>
+        <v>32078.78047585487</v>
       </c>
       <c r="D14" t="n">
+        <v>31657.41845990089</v>
+      </c>
+      <c r="E14" t="n">
         <v>15637.361206851</v>
       </c>
-      <c r="E14" t="n">
-        <v>25944.99892978737</v>
+      <c r="F14" t="n">
+        <v>26476.25921596823</v>
       </c>
     </row>
     <row r="15">
@@ -695,16 +672,19 @@
         <v>44866</v>
       </c>
       <c r="B15" t="n">
-        <v>31059.31005382538</v>
+        <v>36758.17690563202</v>
       </c>
       <c r="C15" t="n">
-        <v>35205.63213189076</v>
+        <v>31669.67358326912</v>
       </c>
       <c r="D15" t="n">
-        <v>21822.9740446377</v>
+        <v>35205.66901107052</v>
       </c>
       <c r="E15" t="n">
-        <v>30236.33803104652</v>
+        <v>21822.97404463771</v>
+      </c>
+      <c r="F15" t="n">
+        <v>30411.20119391005</v>
       </c>
     </row>
     <row r="16">
@@ -712,16 +692,19 @@
         <v>44896</v>
       </c>
       <c r="B16" t="n">
-        <v>30751.93671870232</v>
+        <v>34136.74243211746</v>
       </c>
       <c r="C16" t="n">
-        <v>39578.86754449634</v>
+        <v>31133.6068687439</v>
       </c>
       <c r="D16" t="n">
+        <v>39578.89734880653</v>
+      </c>
+      <c r="E16" t="n">
         <v>26784.80634910359</v>
       </c>
-      <c r="E16" t="n">
-        <v>34566.61125305141</v>
+      <c r="F16" t="n">
+        <v>34282.6732339341</v>
       </c>
     </row>
     <row r="17">
@@ -729,16 +712,19 @@
         <v>44927</v>
       </c>
       <c r="B17" t="n">
-        <v>28493.04643142223</v>
+        <v>33626.13574957848</v>
       </c>
       <c r="C17" t="n">
-        <v>35230.57016648137</v>
+        <v>28312.12413012981</v>
       </c>
       <c r="D17" t="n">
+        <v>35230.69613473611</v>
+      </c>
+      <c r="E17" t="n">
         <v>14879.81879972061</v>
       </c>
-      <c r="E17" t="n">
-        <v>27650.61212252132</v>
+      <c r="F17" t="n">
+        <v>27632.94882322379</v>
       </c>
     </row>
     <row r="18">
@@ -746,16 +732,19 @@
         <v>44958</v>
       </c>
       <c r="B18" t="n">
-        <v>30270.1109418869</v>
+        <v>34779.33493804932</v>
       </c>
       <c r="C18" t="n">
-        <v>32286.31749533443</v>
+        <v>30082.46094918251</v>
       </c>
       <c r="D18" t="n">
+        <v>32286.4491717526</v>
+      </c>
+      <c r="E18" t="n">
         <v>11361.82956669037</v>
       </c>
-      <c r="E18" t="n">
-        <v>24756.7812544226</v>
+      <c r="F18" t="n">
+        <v>25040.7211407187</v>
       </c>
     </row>
     <row r="19">
@@ -763,16 +752,19 @@
         <v>44986</v>
       </c>
       <c r="B19" t="n">
-        <v>27467.31585299969</v>
+        <v>34013.94229674339</v>
       </c>
       <c r="C19" t="n">
-        <v>37157.77010245681</v>
+        <v>28276.30957257748</v>
       </c>
       <c r="D19" t="n">
+        <v>37157.8934145235</v>
+      </c>
+      <c r="E19" t="n">
         <v>19550.02222848214</v>
       </c>
-      <c r="E19" t="n">
-        <v>30391.84618980582</v>
+      <c r="F19" t="n">
+        <v>30283.58529770936</v>
       </c>
     </row>
     <row r="20">
@@ -780,16 +772,19 @@
         <v>45017</v>
       </c>
       <c r="B20" t="n">
-        <v>27023.30540859699</v>
+        <v>30946.58598566055</v>
       </c>
       <c r="C20" t="n">
-        <v>30244.94639057399</v>
+        <v>27640.15942418575</v>
       </c>
       <c r="D20" t="n">
+        <v>30245.07127798609</v>
+      </c>
+      <c r="E20" t="n">
         <v>11451.98723247274</v>
       </c>
-      <c r="E20" t="n">
-        <v>23406.55502067563</v>
+      <c r="F20" t="n">
+        <v>23616.40113281348</v>
       </c>
     </row>
     <row r="21">
@@ -797,16 +792,19 @@
         <v>45047</v>
       </c>
       <c r="B21" t="n">
-        <v>27201.52047586441</v>
+        <v>31886.84016180038</v>
       </c>
       <c r="C21" t="n">
-        <v>34239.71323328358</v>
+        <v>26889.04207086563</v>
       </c>
       <c r="D21" t="n">
+        <v>34239.81544350429</v>
+      </c>
+      <c r="E21" t="n">
         <v>14844.27278357647</v>
       </c>
-      <c r="E21" t="n">
-        <v>26982.39765584076</v>
+      <c r="F21" t="n">
+        <v>26902.46656271205</v>
       </c>
     </row>
     <row r="22">
@@ -814,16 +812,19 @@
         <v>45078</v>
       </c>
       <c r="B22" t="n">
-        <v>25789.20203530788</v>
+        <v>29401.36899709702</v>
       </c>
       <c r="C22" t="n">
-        <v>38958.03870414916</v>
+        <v>25948.52146852016</v>
       </c>
       <c r="D22" t="n">
+        <v>38958.1289106496</v>
+      </c>
+      <c r="E22" t="n">
         <v>21971.39779665363</v>
       </c>
-      <c r="E22" t="n">
-        <v>32225.33625723212</v>
+      <c r="F22" t="n">
+        <v>31679.6178942977</v>
       </c>
     </row>
     <row r="23">
@@ -831,16 +832,19 @@
         <v>45108</v>
       </c>
       <c r="B23" t="n">
-        <v>26560.02289569378</v>
+        <v>31508.07835459709</v>
       </c>
       <c r="C23" t="n">
-        <v>43091.88376717131</v>
+        <v>24976.46459782124</v>
       </c>
       <c r="D23" t="n">
+        <v>43091.96127539939</v>
+      </c>
+      <c r="E23" t="n">
         <v>25009.29998463495</v>
       </c>
-      <c r="E23" t="n">
-        <v>35789.63523909407</v>
+      <c r="F23" t="n">
+        <v>34957.88162412662</v>
       </c>
     </row>
     <row r="24">
@@ -848,16 +852,19 @@
         <v>45139</v>
       </c>
       <c r="B24" t="n">
-        <v>25869.87760925293</v>
+        <v>27815.05877435207</v>
       </c>
       <c r="C24" t="n">
-        <v>36103.54751488482</v>
+        <v>24986.07313001156</v>
       </c>
       <c r="D24" t="n">
+        <v>36103.6058679499</v>
+      </c>
+      <c r="E24" t="n">
         <v>13950.16181842284</v>
       </c>
-      <c r="E24" t="n">
-        <v>27696.24814487427</v>
+      <c r="F24" t="n">
+        <v>27248.97939824118</v>
       </c>
     </row>
     <row r="25">
@@ -865,16 +872,19 @@
         <v>45170</v>
       </c>
       <c r="B25" t="n">
-        <v>26070.61686360836</v>
+        <v>29494.2675178051</v>
       </c>
       <c r="C25" t="n">
-        <v>30112.95429982829</v>
+        <v>26682.0220335722</v>
       </c>
       <c r="D25" t="n">
+        <v>30113.02458598153</v>
+      </c>
+      <c r="E25" t="n">
         <v>4576.7507934482</v>
       </c>
-      <c r="E25" t="n">
-        <v>20838.85883619728</v>
+      <c r="F25" t="n">
+        <v>21037.83517011546</v>
       </c>
     </row>
     <row r="26">
@@ -882,16 +892,19 @@
         <v>45200</v>
       </c>
       <c r="B26" t="n">
-        <v>24961.19236016273</v>
+        <v>25885.98694086075</v>
       </c>
       <c r="C26" t="n">
-        <v>34493.35934035875</v>
+        <v>24794.12078380585</v>
       </c>
       <c r="D26" t="n">
+        <v>34493.43075289165</v>
+      </c>
+      <c r="E26" t="n">
         <v>11826.75426021939</v>
       </c>
-      <c r="E26" t="n">
-        <v>25941.76643975276</v>
+      <c r="F26" t="n">
+        <v>25552.28460551991</v>
       </c>
     </row>
     <row r="27">
@@ -899,16 +912,19 @@
         <v>45231</v>
       </c>
       <c r="B27" t="n">
-        <v>19554.12236428261</v>
+        <v>21809.47176134586</v>
       </c>
       <c r="C27" t="n">
-        <v>38041.60928180491</v>
+        <v>20380.3787831068</v>
       </c>
       <c r="D27" t="n">
+        <v>38041.68130406128</v>
+      </c>
+      <c r="E27" t="n">
         <v>20557.20605378826</v>
       </c>
-      <c r="E27" t="n">
-        <v>30846.34222780606</v>
+      <c r="F27" t="n">
+        <v>29922.12782956495</v>
       </c>
     </row>
     <row r="28">
@@ -916,16 +932,19 @@
         <v>45261</v>
       </c>
       <c r="B28" t="n">
-        <v>17910.86396980286</v>
+        <v>18305.45321249962</v>
       </c>
       <c r="C28" t="n">
-        <v>42414.84469441049</v>
+        <v>16478.17337834835</v>
       </c>
       <c r="D28" t="n">
+        <v>42414.9096417973</v>
+      </c>
+      <c r="E28" t="n">
         <v>25360.21140332133</v>
       </c>
-      <c r="E28" t="n">
-        <v>35048.44414330419</v>
+      <c r="F28" t="n">
+        <v>33445.56209690192</v>
       </c>
     </row>
     <row r="29">
@@ -933,16 +952,19 @@
         <v>45292</v>
       </c>
       <c r="B29" t="n">
-        <v>12579.01812392473</v>
+        <v>14403.12834566832</v>
       </c>
       <c r="C29" t="n">
-        <v>38066.54731639552</v>
+        <v>11369.14492487907</v>
       </c>
       <c r="D29" t="n">
-        <v>9777.931940821163</v>
+        <v>38066.70842772687</v>
       </c>
       <c r="E29" t="n">
-        <v>26662.99343411159</v>
+        <v>9777.93194082117</v>
+      </c>
+      <c r="F29" t="n">
+        <v>25195.46504213236</v>
       </c>
     </row>
     <row r="30">
@@ -950,16 +972,19 @@
         <v>45323</v>
       </c>
       <c r="B30" t="n">
-        <v>9905.117455005646</v>
+        <v>12243.75684058666</v>
       </c>
       <c r="C30" t="n">
-        <v>35122.29464524858</v>
+        <v>11715.85222178698</v>
       </c>
       <c r="D30" t="n">
-        <v>5532.152051144816</v>
+        <v>35122.46146474336</v>
       </c>
       <c r="E30" t="n">
-        <v>23271.67834190992</v>
+        <v>5532.152051144813</v>
+      </c>
+      <c r="F30" t="n">
+        <v>22086.25820827579</v>
       </c>
     </row>
     <row r="31">
@@ -967,16 +992,19 @@
         <v>45352</v>
       </c>
       <c r="B31" t="n">
-        <v>10726.48796099424</v>
+        <v>11695.74907541275</v>
       </c>
       <c r="C31" t="n">
-        <v>39993.74725237095</v>
+        <v>9124.801508426666</v>
       </c>
       <c r="D31" t="n">
+        <v>39993.90570751426</v>
+      </c>
+      <c r="E31" t="n">
         <v>13522.308384706</v>
       </c>
-      <c r="E31" t="n">
-        <v>29031.40859690368</v>
+      <c r="F31" t="n">
+        <v>27213.05173307844</v>
       </c>
     </row>
     <row r="32">
@@ -984,16 +1012,19 @@
         <v>45383</v>
       </c>
       <c r="B32" t="n">
-        <v>9445.624210298061</v>
+        <v>11316.58247226477</v>
       </c>
       <c r="C32" t="n">
-        <v>33080.92354048813</v>
+        <v>8652.973589837551</v>
       </c>
       <c r="D32" t="n">
+        <v>33081.08357097686</v>
+      </c>
+      <c r="E32" t="n">
         <v>6891.437929709256</v>
       </c>
-      <c r="E32" t="n">
-        <v>22521.45958430672</v>
+      <c r="F32" t="n">
+        <v>21193.34007310957</v>
       </c>
     </row>
     <row r="33">
@@ -1001,16 +1032,19 @@
         <v>45413</v>
       </c>
       <c r="B33" t="n">
-        <v>8338.424795389175</v>
+        <v>9494.23496067524</v>
       </c>
       <c r="C33" t="n">
-        <v>37075.69038319773</v>
+        <v>8835.052696526051</v>
       </c>
       <c r="D33" t="n">
+        <v>37075.82773649506</v>
+      </c>
+      <c r="E33" t="n">
         <v>11225.52198028152</v>
       </c>
-      <c r="E33" t="n">
-        <v>26362.19449856602</v>
+      <c r="F33" t="n">
+        <v>24739.22192619902</v>
       </c>
     </row>
     <row r="34">
@@ -1018,16 +1052,19 @@
         <v>45444</v>
       </c>
       <c r="B34" t="n">
-        <v>8652.18118673563</v>
+        <v>10210.31812739372</v>
       </c>
       <c r="C34" t="n">
-        <v>41794.01585406331</v>
+        <v>8653.044923305511</v>
       </c>
       <c r="D34" t="n">
+        <v>41794.14120364036</v>
+      </c>
+      <c r="E34" t="n">
         <v>14991.45784198569</v>
       </c>
-      <c r="E34" t="n">
-        <v>30505.87426518682</v>
+      <c r="F34" t="n">
+        <v>28570.99890112093</v>
       </c>
     </row>
     <row r="35">
@@ -1035,16 +1072,19 @@
         <v>45474</v>
       </c>
       <c r="B35" t="n">
-        <v>9123.891362130642</v>
+        <v>10079.68849933147</v>
       </c>
       <c r="C35" t="n">
-        <v>45927.86091708546</v>
+        <v>9542.146986842155</v>
       </c>
       <c r="D35" t="n">
+        <v>45927.97356839015</v>
+      </c>
+      <c r="E35" t="n">
         <v>19839.62288491453</v>
       </c>
-      <c r="E35" t="n">
-        <v>34696.1179720729</v>
+      <c r="F35" t="n">
+        <v>32502.5447732612</v>
       </c>
     </row>
     <row r="36">
@@ -1052,16 +1092,19 @@
         <v>45505</v>
       </c>
       <c r="B36" t="n">
-        <v>9330.491133570671</v>
+        <v>10364.97853976488</v>
       </c>
       <c r="C36" t="n">
-        <v>38939.52466479897</v>
+        <v>9996.005747020245</v>
       </c>
       <c r="D36" t="n">
+        <v>38939.61816094066</v>
+      </c>
+      <c r="E36" t="n">
         <v>12731.61582631851</v>
       </c>
-      <c r="E36" t="n">
-        <v>28052.26993021665</v>
+      <c r="F36" t="n">
+        <v>26379.45549937796</v>
       </c>
     </row>
     <row r="37">
@@ -1069,16 +1112,19 @@
         <v>45536</v>
       </c>
       <c r="B37" t="n">
-        <v>9548.292837798595</v>
+        <v>12471.04417717457</v>
       </c>
       <c r="C37" t="n">
-        <v>32948.93144974244</v>
+        <v>10988.84472119808</v>
       </c>
       <c r="D37" t="n">
-        <v>8127.890938154369</v>
+        <v>32949.0368789723</v>
       </c>
       <c r="E37" t="n">
-        <v>22887.42178743499</v>
+        <v>8127.890938154365</v>
+      </c>
+      <c r="F37" t="n">
+        <v>21778.40439014497</v>
       </c>
     </row>
     <row r="38">
@@ -1086,16 +1132,19 @@
         <v>45566</v>
       </c>
       <c r="B38" t="n">
-        <v>11364.84858745337</v>
+        <v>12148.15624248981</v>
       </c>
       <c r="C38" t="n">
-        <v>37329.3364902729</v>
+        <v>10973.76585739851</v>
       </c>
       <c r="D38" t="n">
+        <v>37329.44304588242</v>
+      </c>
+      <c r="E38" t="n">
         <v>9212.158812765581</v>
       </c>
-      <c r="E38" t="n">
-        <v>25960.93495379314</v>
+      <c r="F38" t="n">
+        <v>24469.15668811078</v>
       </c>
     </row>
     <row r="39">
@@ -1103,16 +1152,19 @@
         <v>45597</v>
       </c>
       <c r="B39" t="n">
-        <v>14645.3604735136</v>
+        <v>15829.22273993492</v>
       </c>
       <c r="C39" t="n">
-        <v>40877.58643171906</v>
+        <v>14675.28959023952</v>
       </c>
       <c r="D39" t="n">
+        <v>40877.69359705205</v>
+      </c>
+      <c r="E39" t="n">
         <v>10191.64995863509</v>
       </c>
-      <c r="E39" t="n">
-        <v>28583.74682141346</v>
+      <c r="F39" t="n">
+        <v>27151.06697016106</v>
       </c>
     </row>
   </sheetData>
@@ -1126,7 +1178,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG5"/>
+  <dimension ref="A1:AG6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1335,19 +1387,19 @@
         <v>20</v>
       </c>
       <c r="K2" t="n">
-        <v>16416.58245100206</v>
+        <v>16416.58245108072</v>
       </c>
       <c r="L2" t="n">
-        <v>4024.758668031866</v>
+        <v>4024.758668114843</v>
       </c>
       <c r="M2" t="n">
-        <v>15028.63735231806</v>
+        <v>15028.63735235668</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.778086047281888</v>
+        <v>-0.7780860472989279</v>
       </c>
       <c r="O2" t="n">
-        <v>8224.40285616714</v>
+        <v>8224.402857005538</v>
       </c>
       <c r="P2" t="n">
         <v>24441</v>
@@ -1356,19 +1408,19 @@
         <v>0.95</v>
       </c>
       <c r="R2" t="n">
-        <v>13560.31520935664</v>
+        <v>12152.41815087754</v>
       </c>
       <c r="S2" t="n">
-        <v>7080.303663366503</v>
+        <v>7080.301196427463</v>
       </c>
       <c r="T2" t="n">
-        <v>341.2365394302665</v>
+        <v>341.2371677265107</v>
       </c>
       <c r="U2" t="n">
-        <v>5022.367139073601</v>
+        <v>5022.369038343181</v>
       </c>
       <c r="V2" t="n">
-        <v>0.6811251433776213</v>
+        <v>0.6811253655841066</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
@@ -1379,16 +1431,16 @@
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="n">
-        <v>16416.58245100206</v>
+        <v>16416.58245108072</v>
       </c>
       <c r="AD2" t="n">
-        <v>4024.758668031866</v>
+        <v>4024.758668114843</v>
       </c>
       <c r="AE2" t="n">
-        <v>15028.63735231806</v>
+        <v>15028.63735235668</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.778086047281888</v>
+        <v>-0.7780860472989279</v>
       </c>
       <c r="AG2" t="b">
         <v>1</v>
@@ -1426,19 +1478,19 @@
         <v>20</v>
       </c>
       <c r="K3" t="n">
-        <v>16781.05600411746</v>
+        <v>17173.09345468718</v>
       </c>
       <c r="L3" t="n">
-        <v>4399.042941691876</v>
+        <v>4534.645817372109</v>
       </c>
       <c r="M3" t="n">
-        <v>15052.88339935761</v>
+        <v>15282.29609078871</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.857915009054836</v>
+        <v>-0.9457378904598399</v>
       </c>
       <c r="O3" t="n">
-        <v>11046.84820910951</v>
+        <v>12840.990331709</v>
       </c>
       <c r="P3" t="n">
         <v>24441</v>
@@ -1447,19 +1499,19 @@
         <v>0.95</v>
       </c>
       <c r="R3" t="n">
-        <v>8722.93287992313</v>
+        <v>13552.08723987334</v>
       </c>
       <c r="S3" t="n">
-        <v>6008.526242661069</v>
+        <v>6342.621119786222</v>
       </c>
       <c r="T3" t="n">
-        <v>827.5943899572034</v>
+        <v>908.815675365987</v>
       </c>
       <c r="U3" t="n">
-        <v>4502.920746209967</v>
+        <v>4727.626960155379</v>
       </c>
       <c r="V3" t="n">
-        <v>0.807862921244179</v>
+        <v>0.7859019077644902</v>
       </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
@@ -1467,25 +1519,25 @@
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>['arima', 'prophet', 'lstm']</t>
+          <t>['arima', 'prophet', 'lstm', 'lstm_reg']</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>(0.591560380463636, 0.3546614031305788, 0.05377821640578509)</t>
+          <t>(0.5328967752960574, 0.3442073459931468, 0.07445071732024512, 0.048445161390550676)</t>
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>16781.05600411746</v>
+        <v>17173.09345468718</v>
       </c>
       <c r="AD3" t="n">
-        <v>4399.042941691876</v>
+        <v>4534.645817372109</v>
       </c>
       <c r="AE3" t="n">
-        <v>15052.88339935761</v>
+        <v>15282.29609078871</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.857915009054836</v>
+        <v>-0.9457378904598399</v>
       </c>
       <c r="AG3" t="b">
         <v>0</v>
@@ -1537,7 +1589,7 @@
         <v>-0.9386316417146432</v>
       </c>
       <c r="O4" t="n">
-        <v>12264.18400963632</v>
+        <v>12264.18400963631</v>
       </c>
       <c r="P4" t="n">
         <v>24441</v>
@@ -1546,7 +1598,7 @@
         <v>0.95</v>
       </c>
       <c r="R4" t="n">
-        <v>19543.56472923582</v>
+        <v>20203.5996139179</v>
       </c>
       <c r="S4" t="n">
         <v>10099.32788859162</v>
@@ -1555,10 +1607,10 @@
         <v>1101.330755251163</v>
       </c>
       <c r="U4" t="n">
-        <v>8358.022866399386</v>
+        <v>8358.022866399384</v>
       </c>
       <c r="V4" t="n">
-        <v>0.3512140257761155</v>
+        <v>0.3512140257761156</v>
       </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
@@ -1598,7 +1650,7 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'lags': 12, 'epochs': 150, 'validation_split': 0.2, 'shuffle': True, 'hidden_layers_struct': {'lstm': {'units': 72}}, 'verbose': 0, 'random_seed': 1}</t>
+          <t>{'lags': 12, 'epochs': 150, 'validation_split': 0.2, 'shuffle': True, 'hidden_layers_struct': {'lstm': {'units': 72, 'dropout': 0}}, 'verbose': 0, 'random_seed': 1}</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1622,19 +1674,19 @@
         <v>20</v>
       </c>
       <c r="K5" t="n">
-        <v>25255.58719629404</v>
+        <v>25536.61754367016</v>
       </c>
       <c r="L5" t="n">
-        <v>5807.014983271598</v>
+        <v>5932.272191129999</v>
       </c>
       <c r="M5" t="n">
-        <v>21848.27318632752</v>
+        <v>22008.52218046635</v>
       </c>
       <c r="N5" t="n">
-        <v>-3.208256572205004</v>
+        <v>-3.30243198976688</v>
       </c>
       <c r="O5" t="n">
-        <v>34065.55181184411</v>
+        <v>34198.74438020587</v>
       </c>
       <c r="P5" t="n">
         <v>24441</v>
@@ -1643,19 +1695,19 @@
         <v>0.95</v>
       </c>
       <c r="R5" t="n">
-        <v>26289.93462005242</v>
+        <v>29683.82808189859</v>
       </c>
       <c r="S5" t="n">
-        <v>12861.33134295298</v>
+        <v>12726.81100960343</v>
       </c>
       <c r="T5" t="n">
-        <v>1817.374528669963</v>
+        <v>1767.716818164707</v>
       </c>
       <c r="U5" t="n">
-        <v>9274.794873170555</v>
+        <v>9105.085841266173</v>
       </c>
       <c r="V5" t="n">
-        <v>0.1196667350732705</v>
+        <v>0.1379857430496888</v>
       </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
@@ -1666,18 +1718,115 @@
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="n">
-        <v>25255.58719629404</v>
+        <v>25536.61754367016</v>
       </c>
       <c r="AD5" t="n">
-        <v>5807.014983271598</v>
+        <v>5932.272191129999</v>
       </c>
       <c r="AE5" t="n">
-        <v>21848.27318632752</v>
+        <v>22008.52218046635</v>
       </c>
       <c r="AF5" t="n">
-        <v>-3.208256572205004</v>
+        <v>-3.30243198976688</v>
       </c>
       <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>lstm_reg</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>rnn</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>{'lags': 12, 'epochs': 150, 'validation_split': 0.2, 'shuffle': True, 'hidden_layers_struct': {'lstm': {'units': 72, 'dropout': 0.2}}, 'verbose': 0, 'random_seed': 1}</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>69</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>20</v>
+      </c>
+      <c r="K6" t="n">
+        <v>25905.79456061367</v>
+      </c>
+      <c r="L6" t="n">
+        <v>6040.476741581246</v>
+      </c>
+      <c r="M6" t="n">
+        <v>22419.78433661014</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-3.427729733338543</v>
+      </c>
+      <c r="O6" t="n">
+        <v>34899.03310588002</v>
+      </c>
+      <c r="P6" t="n">
+        <v>24441</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="R6" t="n">
+        <v>28858.44528016401</v>
+      </c>
+      <c r="S6" t="n">
+        <v>12685.58176730431</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1779.203636306537</v>
+      </c>
+      <c r="U6" t="n">
+        <v>9170.021207177213</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.1435617867856284</v>
+      </c>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="n">
+        <v>25905.79456061367</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6040.476741581246</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>22419.78433661014</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>-3.427729733338543</v>
+      </c>
+      <c r="AG6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2619,7 +2768,7 @@
         <v>44470</v>
       </c>
       <c r="B71" t="n">
-        <v>28821.40504053046</v>
+        <v>28821.40616691012</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2632,7 +2781,7 @@
         <v>44501</v>
       </c>
       <c r="B72" t="n">
-        <v>32369.65498197662</v>
+        <v>32369.65671807975</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2645,7 +2794,7 @@
         <v>44531</v>
       </c>
       <c r="B73" t="n">
-        <v>36742.89039458219</v>
+        <v>36742.88505581577</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2658,7 +2807,7 @@
         <v>44562</v>
       </c>
       <c r="B74" t="n">
-        <v>32394.59301656722</v>
+        <v>32394.68384174535</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2671,7 +2820,7 @@
         <v>44593</v>
       </c>
       <c r="B75" t="n">
-        <v>29450.34034542029</v>
+        <v>29450.43687876184</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2684,7 +2833,7 @@
         <v>44621</v>
       </c>
       <c r="B76" t="n">
-        <v>34321.79295254266</v>
+        <v>34321.88112153274</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2697,7 +2846,7 @@
         <v>44652</v>
       </c>
       <c r="B77" t="n">
-        <v>27408.96924065984</v>
+        <v>27409.05898499533</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2710,7 +2859,7 @@
         <v>44682</v>
       </c>
       <c r="B78" t="n">
-        <v>31403.73608336944</v>
+        <v>31403.80315051353</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2723,7 +2872,7 @@
         <v>44713</v>
       </c>
       <c r="B79" t="n">
-        <v>36122.06155423502</v>
+        <v>36122.11661765883</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2736,7 +2885,7 @@
         <v>44743</v>
       </c>
       <c r="B80" t="n">
-        <v>40255.90661725717</v>
+        <v>40255.94898240862</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2749,7 +2898,7 @@
         <v>44774</v>
       </c>
       <c r="B81" t="n">
-        <v>33267.57036497068</v>
+        <v>33267.59357495913</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2762,7 +2911,7 @@
         <v>44805</v>
       </c>
       <c r="B82" t="n">
-        <v>27276.97714991415</v>
+        <v>27277.01229299077</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2775,7 +2924,7 @@
         <v>44835</v>
       </c>
       <c r="B83" t="n">
-        <v>31657.3821904446</v>
+        <v>31657.41845990089</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2788,7 +2937,7 @@
         <v>44866</v>
       </c>
       <c r="B84" t="n">
-        <v>35205.63213189076</v>
+        <v>35205.66901107052</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2801,7 +2950,7 @@
         <v>44896</v>
       </c>
       <c r="B85" t="n">
-        <v>39578.86754449634</v>
+        <v>39578.89734880653</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2814,7 +2963,7 @@
         <v>44927</v>
       </c>
       <c r="B86" t="n">
-        <v>35230.57016648137</v>
+        <v>35230.69613473611</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2827,7 +2976,7 @@
         <v>44958</v>
       </c>
       <c r="B87" t="n">
-        <v>32286.31749533443</v>
+        <v>32286.4491717526</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2840,7 +2989,7 @@
         <v>44986</v>
       </c>
       <c r="B88" t="n">
-        <v>37157.77010245681</v>
+        <v>37157.8934145235</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2853,7 +3002,7 @@
         <v>45017</v>
       </c>
       <c r="B89" t="n">
-        <v>30244.94639057399</v>
+        <v>30245.07127798609</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2866,7 +3015,7 @@
         <v>45047</v>
       </c>
       <c r="B90" t="n">
-        <v>34239.71323328358</v>
+        <v>34239.81544350429</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2879,7 +3028,7 @@
         <v>45078</v>
       </c>
       <c r="B91" t="n">
-        <v>38958.03870414916</v>
+        <v>38958.1289106496</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2892,7 +3041,7 @@
         <v>45108</v>
       </c>
       <c r="B92" t="n">
-        <v>43091.88376717131</v>
+        <v>43091.96127539939</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2905,7 +3054,7 @@
         <v>45139</v>
       </c>
       <c r="B93" t="n">
-        <v>36103.54751488482</v>
+        <v>36103.6058679499</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2918,7 +3067,7 @@
         <v>45170</v>
       </c>
       <c r="B94" t="n">
-        <v>30112.95429982829</v>
+        <v>30113.02458598153</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2931,7 +3080,7 @@
         <v>45200</v>
       </c>
       <c r="B95" t="n">
-        <v>34493.35934035875</v>
+        <v>34493.43075289165</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2944,7 +3093,7 @@
         <v>45231</v>
       </c>
       <c r="B96" t="n">
-        <v>38041.60928180491</v>
+        <v>38041.68130406128</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2957,7 +3106,7 @@
         <v>45261</v>
       </c>
       <c r="B97" t="n">
-        <v>42414.84469441049</v>
+        <v>42414.9096417973</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -2970,7 +3119,7 @@
         <v>45292</v>
       </c>
       <c r="B98" t="n">
-        <v>38066.54731639552</v>
+        <v>38066.70842772687</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -2983,7 +3132,7 @@
         <v>45323</v>
       </c>
       <c r="B99" t="n">
-        <v>35122.29464524858</v>
+        <v>35122.46146474336</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -2996,7 +3145,7 @@
         <v>45352</v>
       </c>
       <c r="B100" t="n">
-        <v>39993.74725237095</v>
+        <v>39993.90570751426</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -3009,7 +3158,7 @@
         <v>45383</v>
       </c>
       <c r="B101" t="n">
-        <v>33080.92354048813</v>
+        <v>33081.08357097686</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -3022,7 +3171,7 @@
         <v>45413</v>
       </c>
       <c r="B102" t="n">
-        <v>37075.69038319773</v>
+        <v>37075.82773649506</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -3035,7 +3184,7 @@
         <v>45444</v>
       </c>
       <c r="B103" t="n">
-        <v>41794.01585406331</v>
+        <v>41794.14120364036</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -3048,7 +3197,7 @@
         <v>45474</v>
       </c>
       <c r="B104" t="n">
-        <v>45927.86091708546</v>
+        <v>45927.97356839015</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -3061,7 +3210,7 @@
         <v>45505</v>
       </c>
       <c r="B105" t="n">
-        <v>38939.52466479897</v>
+        <v>38939.61816094066</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -3074,7 +3223,7 @@
         <v>45536</v>
       </c>
       <c r="B106" t="n">
-        <v>32948.93144974244</v>
+        <v>32949.0368789723</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -3087,7 +3236,7 @@
         <v>45566</v>
       </c>
       <c r="B107" t="n">
-        <v>37329.3364902729</v>
+        <v>37329.44304588242</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -3100,7 +3249,7 @@
         <v>45597</v>
       </c>
       <c r="B108" t="n">
-        <v>40877.58643171906</v>
+        <v>40877.69359705205</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -3119,7 +3268,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3158,6 +3307,11 @@
           <t>lstm</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>lstm_reg</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -3167,16 +3321,19 @@
         <v>32859</v>
       </c>
       <c r="C2" t="n">
-        <v>27030.75485166851</v>
+        <v>27030.75485178942</v>
       </c>
       <c r="D2" t="n">
-        <v>27209.87055729057</v>
+        <v>28144.30833585639</v>
       </c>
       <c r="E2" t="n">
         <v>25636.74796623187</v>
       </c>
       <c r="F2" t="n">
-        <v>39554.71322363615</v>
+        <v>39410.17648008466</v>
+      </c>
+      <c r="G2" t="n">
+        <v>40896.41356617212</v>
       </c>
     </row>
     <row r="3">
@@ -3187,16 +3344,19 @@
         <v>21395</v>
       </c>
       <c r="C3" t="n">
-        <v>36911.28760734187</v>
+        <v>36911.28760756368</v>
       </c>
       <c r="D3" t="n">
-        <v>35343.25229491064</v>
+        <v>35592.03904777919</v>
       </c>
       <c r="E3" t="n">
         <v>32162.12668011403</v>
       </c>
       <c r="F3" t="n">
-        <v>39074.03627187014</v>
+        <v>39261.42604464293</v>
+      </c>
+      <c r="G3" t="n">
+        <v>39811.02046576142</v>
       </c>
     </row>
     <row r="4">
@@ -3207,16 +3367,19 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>23449.95451410332</v>
+        <v>23449.95451451954</v>
       </c>
       <c r="D4" t="n">
-        <v>26177.37796424371</v>
+        <v>27297.30138108577</v>
       </c>
       <c r="E4" t="n">
         <v>28839.64631935495</v>
       </c>
       <c r="F4" t="n">
-        <v>38621.66987729073</v>
+        <v>39221.80983406305</v>
+      </c>
+      <c r="G4" t="n">
+        <v>40333.9815094471</v>
       </c>
     </row>
     <row r="5">
@@ -3227,16 +3390,19 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>25985.32039589823</v>
+        <v>25985.32039644236</v>
       </c>
       <c r="D5" t="n">
-        <v>28756.58857072839</v>
+        <v>29690.26872007914</v>
       </c>
       <c r="E5" t="n">
         <v>31897.31050924737</v>
       </c>
       <c r="F5" t="n">
-        <v>38527.82386693358</v>
+        <v>39173.27632147074</v>
+      </c>
+      <c r="G5" t="n">
+        <v>40189.94061055779</v>
       </c>
     </row>
     <row r="6">
@@ -3247,16 +3413,19 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>31049.78982627104</v>
+        <v>31049.78982696999</v>
       </c>
       <c r="D6" t="n">
-        <v>33036.28940881109</v>
+        <v>33694.15258236679</v>
       </c>
       <c r="E6" t="n">
         <v>35450.02448003698</v>
       </c>
       <c r="F6" t="n">
-        <v>38969.46836149693</v>
+        <v>40228.92269310355</v>
+      </c>
+      <c r="G6" t="n">
+        <v>40263.85010963678</v>
       </c>
     </row>
     <row r="7">
@@ -3267,16 +3436,19 @@
         <v>9380</v>
       </c>
       <c r="C7" t="n">
-        <v>33100.84343347824</v>
+        <v>33100.84343425965</v>
       </c>
       <c r="D7" t="n">
-        <v>35206.33852601807</v>
+        <v>35744.82313925771</v>
       </c>
       <c r="E7" t="n">
         <v>37736.95180859242</v>
       </c>
       <c r="F7" t="n">
-        <v>41677.66918158531</v>
+        <v>41553.39984166622</v>
+      </c>
+      <c r="G7" t="n">
+        <v>41747.69785660505</v>
       </c>
     </row>
     <row r="8">
@@ -3287,16 +3459,19 @@
         <v>9721</v>
       </c>
       <c r="C8" t="n">
-        <v>24012.11030894395</v>
+        <v>24012.11030960462</v>
       </c>
       <c r="D8" t="n">
-        <v>25998.55957843547</v>
+        <v>27278.54396896173</v>
       </c>
       <c r="E8" t="n">
         <v>26640.85106003355</v>
       </c>
       <c r="F8" t="n">
-        <v>43613.66009426117</v>
+        <v>43373.43026959896</v>
+      </c>
+      <c r="G8" t="n">
+        <v>43005.49575096369</v>
       </c>
     </row>
     <row r="9">
@@ -3307,16 +3482,19 @@
         <v>10152</v>
       </c>
       <c r="C9" t="n">
-        <v>16089.95222756954</v>
+        <v>16089.9522281008</v>
       </c>
       <c r="D9" t="n">
-        <v>19022.07357566381</v>
+        <v>20841.04011529582</v>
       </c>
       <c r="E9" t="n">
         <v>20404.64347404926</v>
       </c>
       <c r="F9" t="n">
-        <v>42157.51248216629</v>
+        <v>42452.14693629742</v>
+      </c>
+      <c r="G9" t="n">
+        <v>42991.61012494564</v>
       </c>
     </row>
     <row r="10">
@@ -3327,16 +3505,19 @@
         <v>13029</v>
       </c>
       <c r="C10" t="n">
-        <v>22019.41356538294</v>
+        <v>22019.41356583558</v>
       </c>
       <c r="D10" t="n">
-        <v>24191.77434444503</v>
+        <v>25573.49219437055</v>
       </c>
       <c r="E10" t="n">
         <v>25002.86854929137</v>
       </c>
       <c r="F10" t="n">
-        <v>42738.66613197327</v>
+        <v>42437.39605146646</v>
+      </c>
+      <c r="G10" t="n">
+        <v>42806.17607414722</v>
       </c>
     </row>
     <row r="11">
@@ -3347,16 +3528,19 @@
         <v>14075</v>
       </c>
       <c r="C11" t="n">
-        <v>29245.17185939339</v>
+        <v>29245.17185976892</v>
       </c>
       <c r="D11" t="n">
-        <v>29189.48527119902</v>
+        <v>30238.37262695384</v>
       </c>
       <c r="E11" t="n">
         <v>27099.40536418543</v>
       </c>
       <c r="F11" t="n">
-        <v>42360.77916151285</v>
+        <v>43503.89075362682</v>
+      </c>
+      <c r="G11" t="n">
+        <v>43079.73219144344</v>
       </c>
     </row>
     <row r="12">
@@ -3367,16 +3551,19 @@
         <v>19024</v>
       </c>
       <c r="C12" t="n">
-        <v>31762.93829269388</v>
+        <v>31762.93829311599</v>
       </c>
       <c r="D12" t="n">
-        <v>32372.03745072929</v>
+        <v>33086.56005837364</v>
       </c>
       <c r="E12" t="n">
         <v>32089.60548487016</v>
       </c>
       <c r="F12" t="n">
-        <v>40934.73583948612</v>
+        <v>41428.97641456127</v>
+      </c>
+      <c r="G12" t="n">
+        <v>41909.19505572319</v>
       </c>
     </row>
     <row r="13">
@@ -3387,16 +3574,19 @@
         <v>12492</v>
       </c>
       <c r="C13" t="n">
-        <v>26423.45062859761</v>
+        <v>26423.45062890475</v>
       </c>
       <c r="D13" t="n">
-        <v>26969.81729738502</v>
+        <v>28092.84772940518</v>
       </c>
       <c r="E13" t="n">
         <v>25599.6216942816</v>
       </c>
       <c r="F13" t="n">
-        <v>42016.13946461678</v>
+        <v>42166.14729100466</v>
+      </c>
+      <c r="G13" t="n">
+        <v>42542.91416615248</v>
       </c>
     </row>
     <row r="14">
@@ -3407,16 +3597,19 @@
         <v>9706</v>
       </c>
       <c r="C14" t="n">
-        <v>19165.20548026611</v>
+        <v>19165.20548069416</v>
       </c>
       <c r="D14" t="n">
-        <v>20980.04599655726</v>
+        <v>22483.98131987646</v>
       </c>
       <c r="E14" t="n">
         <v>21143.16410197598</v>
       </c>
       <c r="F14" t="n">
-        <v>39867.54576951265</v>
+        <v>40262.85150614381</v>
+      </c>
+      <c r="G14" t="n">
+        <v>41194.50708007812</v>
       </c>
     </row>
     <row r="15">
@@ -3427,16 +3620,19 @@
         <v>21639</v>
       </c>
       <c r="C15" t="n">
-        <v>29045.73823593947</v>
+        <v>29045.73823646842</v>
       </c>
       <c r="D15" t="n">
-        <v>28747.71859510141</v>
+        <v>29552.3415411861</v>
       </c>
       <c r="E15" t="n">
         <v>26548.24840430291</v>
       </c>
       <c r="F15" t="n">
-        <v>39974.76575741172</v>
+        <v>40349.44652912021</v>
+      </c>
+      <c r="G15" t="n">
+        <v>39876.30305790901</v>
       </c>
     </row>
     <row r="16">
@@ -3447,16 +3643,19 @@
         <v>24212</v>
       </c>
       <c r="C16" t="n">
-        <v>15584.40514270092</v>
+        <v>15584.40514342428</v>
       </c>
       <c r="D16" t="n">
-        <v>18737.6770124977</v>
+        <v>20294.73273361564</v>
       </c>
       <c r="E16" t="n">
         <v>20867.09090914073</v>
       </c>
       <c r="F16" t="n">
-        <v>39380.41789844632</v>
+        <v>38615.04412829876</v>
+      </c>
+      <c r="G16" t="n">
+        <v>39886.95087754726</v>
       </c>
     </row>
     <row r="17">
@@ -3467,16 +3666,19 @@
         <v>31712</v>
       </c>
       <c r="C17" t="n">
-        <v>18119.77102449583</v>
+        <v>18119.7710253471</v>
       </c>
       <c r="D17" t="n">
-        <v>21324.75778415384</v>
+        <v>22666.57187330622</v>
       </c>
       <c r="E17" t="n">
         <v>24097.3534809364</v>
       </c>
       <c r="F17" t="n">
-        <v>38294.64945745468</v>
+        <v>38109.39616277814</v>
+      </c>
+      <c r="G17" t="n">
+        <v>38782.95174944401</v>
       </c>
     </row>
     <row r="18">
@@ -3487,16 +3689,19 @@
         <v>38906</v>
       </c>
       <c r="C18" t="n">
-        <v>23184.24045486865</v>
+        <v>23184.24045587473</v>
       </c>
       <c r="D18" t="n">
-        <v>25961.35116294395</v>
+        <v>26987.57447543481</v>
       </c>
       <c r="E18" t="n">
         <v>28642.71939095779</v>
       </c>
       <c r="F18" t="n">
-        <v>38826.24135902524</v>
+        <v>38876.94493281841</v>
+      </c>
+      <c r="G18" t="n">
+        <v>38792.65924215317</v>
       </c>
     </row>
     <row r="19">
@@ -3507,16 +3712,19 @@
         <v>41176</v>
       </c>
       <c r="C19" t="n">
-        <v>25235.29406207584</v>
+        <v>25235.29406316439</v>
       </c>
       <c r="D19" t="n">
-        <v>27938.9353021525</v>
+        <v>28597.44114953719</v>
       </c>
       <c r="E19" t="n">
         <v>31296.832209261</v>
       </c>
       <c r="F19" t="n">
-        <v>35534.02936202288</v>
+        <v>35723.90724775195</v>
+      </c>
+      <c r="G19" t="n">
+        <v>35449.65477490425</v>
       </c>
     </row>
     <row r="20">
@@ -3527,16 +3735,19 @@
         <v>33147</v>
       </c>
       <c r="C20" t="n">
-        <v>16146.56093754155</v>
+        <v>16146.56093850937</v>
       </c>
       <c r="D20" t="n">
-        <v>18551.25085892793</v>
+        <v>19825.22370975847</v>
       </c>
       <c r="E20" t="n">
         <v>19855.58052111302</v>
       </c>
       <c r="F20" t="n">
-        <v>36400.92979609966</v>
+        <v>35929.81415176392</v>
+      </c>
+      <c r="G20" t="n">
+        <v>35325.22739684582</v>
       </c>
     </row>
     <row r="21">
@@ -3547,16 +3758,19 @@
         <v>24441</v>
       </c>
       <c r="C21" t="n">
-        <v>8224.40285616714</v>
+        <v>8224.402857005538</v>
       </c>
       <c r="D21" t="n">
-        <v>11046.84820910951</v>
+        <v>12840.990331709</v>
       </c>
       <c r="E21" t="n">
-        <v>12264.18400963632</v>
+        <v>12264.18400963631</v>
       </c>
       <c r="F21" t="n">
-        <v>34065.55181184411</v>
+        <v>34198.74438020587</v>
+      </c>
+      <c r="G21" t="n">
+        <v>34899.03310588002</v>
       </c>
     </row>
   </sheetData>
@@ -3570,7 +3784,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3609,6 +3823,11 @@
           <t>lstm</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>lstm_reg</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -3618,16 +3837,19 @@
         <v>32859</v>
       </c>
       <c r="C2" t="n">
-        <v>27030.75485166851</v>
+        <v>27030.75485178942</v>
       </c>
       <c r="D2" t="n">
-        <v>27209.87055729057</v>
+        <v>28144.30833585639</v>
       </c>
       <c r="E2" t="n">
         <v>25636.74796623187</v>
       </c>
       <c r="F2" t="n">
-        <v>39554.71322363615</v>
+        <v>39410.17648008466</v>
+      </c>
+      <c r="G2" t="n">
+        <v>40896.41356617212</v>
       </c>
     </row>
     <row r="3">
@@ -3638,16 +3860,19 @@
         <v>21395</v>
       </c>
       <c r="C3" t="n">
-        <v>36911.28760734187</v>
+        <v>36911.28760756368</v>
       </c>
       <c r="D3" t="n">
-        <v>35343.25229491064</v>
+        <v>35592.03904777919</v>
       </c>
       <c r="E3" t="n">
         <v>32162.12668011403</v>
       </c>
       <c r="F3" t="n">
-        <v>39074.03627187014</v>
+        <v>39261.42604464293</v>
+      </c>
+      <c r="G3" t="n">
+        <v>39811.02046576142</v>
       </c>
     </row>
     <row r="4">
@@ -3658,16 +3883,19 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>23449.95451410332</v>
+        <v>23449.95451451954</v>
       </c>
       <c r="D4" t="n">
-        <v>26177.37796424371</v>
+        <v>27297.30138108577</v>
       </c>
       <c r="E4" t="n">
         <v>28839.64631935495</v>
       </c>
       <c r="F4" t="n">
-        <v>38621.66987729073</v>
+        <v>39221.80983406305</v>
+      </c>
+      <c r="G4" t="n">
+        <v>40333.9815094471</v>
       </c>
     </row>
     <row r="5">
@@ -3678,16 +3906,19 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>25985.32039589823</v>
+        <v>25985.32039644236</v>
       </c>
       <c r="D5" t="n">
-        <v>28756.58857072839</v>
+        <v>29690.26872007914</v>
       </c>
       <c r="E5" t="n">
         <v>31897.31050924737</v>
       </c>
       <c r="F5" t="n">
-        <v>38527.82386693358</v>
+        <v>39173.27632147074</v>
+      </c>
+      <c r="G5" t="n">
+        <v>40189.94061055779</v>
       </c>
     </row>
     <row r="6">
@@ -3698,16 +3929,19 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>31049.78982627104</v>
+        <v>31049.78982696999</v>
       </c>
       <c r="D6" t="n">
-        <v>33036.28940881109</v>
+        <v>33694.15258236679</v>
       </c>
       <c r="E6" t="n">
         <v>35450.02448003698</v>
       </c>
       <c r="F6" t="n">
-        <v>38969.46836149693</v>
+        <v>40228.92269310355</v>
+      </c>
+      <c r="G6" t="n">
+        <v>40263.85010963678</v>
       </c>
     </row>
     <row r="7">
@@ -3718,16 +3952,19 @@
         <v>9380</v>
       </c>
       <c r="C7" t="n">
-        <v>33100.84343347824</v>
+        <v>33100.84343425965</v>
       </c>
       <c r="D7" t="n">
-        <v>35206.33852601807</v>
+        <v>35744.82313925771</v>
       </c>
       <c r="E7" t="n">
         <v>37736.95180859242</v>
       </c>
       <c r="F7" t="n">
-        <v>41677.66918158531</v>
+        <v>41553.39984166622</v>
+      </c>
+      <c r="G7" t="n">
+        <v>41747.69785660505</v>
       </c>
     </row>
     <row r="8">
@@ -3738,16 +3975,19 @@
         <v>9721</v>
       </c>
       <c r="C8" t="n">
-        <v>24012.11030894395</v>
+        <v>24012.11030960462</v>
       </c>
       <c r="D8" t="n">
-        <v>25998.55957843547</v>
+        <v>27278.54396896173</v>
       </c>
       <c r="E8" t="n">
         <v>26640.85106003355</v>
       </c>
       <c r="F8" t="n">
-        <v>43613.66009426117</v>
+        <v>43373.43026959896</v>
+      </c>
+      <c r="G8" t="n">
+        <v>43005.49575096369</v>
       </c>
     </row>
     <row r="9">
@@ -3758,16 +3998,19 @@
         <v>10152</v>
       </c>
       <c r="C9" t="n">
-        <v>16089.95222756954</v>
+        <v>16089.9522281008</v>
       </c>
       <c r="D9" t="n">
-        <v>19022.07357566381</v>
+        <v>20841.04011529582</v>
       </c>
       <c r="E9" t="n">
         <v>20404.64347404926</v>
       </c>
       <c r="F9" t="n">
-        <v>42157.51248216629</v>
+        <v>42452.14693629742</v>
+      </c>
+      <c r="G9" t="n">
+        <v>42991.61012494564</v>
       </c>
     </row>
     <row r="10">
@@ -3778,16 +4021,19 @@
         <v>13029</v>
       </c>
       <c r="C10" t="n">
-        <v>22019.41356538294</v>
+        <v>22019.41356583558</v>
       </c>
       <c r="D10" t="n">
-        <v>24191.77434444503</v>
+        <v>25573.49219437055</v>
       </c>
       <c r="E10" t="n">
         <v>25002.86854929137</v>
       </c>
       <c r="F10" t="n">
-        <v>42738.66613197327</v>
+        <v>42437.39605146646</v>
+      </c>
+      <c r="G10" t="n">
+        <v>42806.17607414722</v>
       </c>
     </row>
     <row r="11">
@@ -3798,16 +4044,19 @@
         <v>14075</v>
       </c>
       <c r="C11" t="n">
-        <v>29245.17185939339</v>
+        <v>29245.17185976892</v>
       </c>
       <c r="D11" t="n">
-        <v>29189.48527119902</v>
+        <v>30238.37262695384</v>
       </c>
       <c r="E11" t="n">
         <v>27099.40536418543</v>
       </c>
       <c r="F11" t="n">
-        <v>42360.77916151285</v>
+        <v>43503.89075362682</v>
+      </c>
+      <c r="G11" t="n">
+        <v>43079.73219144344</v>
       </c>
     </row>
     <row r="12">
@@ -3818,16 +4067,19 @@
         <v>19024</v>
       </c>
       <c r="C12" t="n">
-        <v>31762.93829269388</v>
+        <v>31762.93829311599</v>
       </c>
       <c r="D12" t="n">
-        <v>32372.03745072929</v>
+        <v>33086.56005837364</v>
       </c>
       <c r="E12" t="n">
         <v>32089.60548487016</v>
       </c>
       <c r="F12" t="n">
-        <v>40934.73583948612</v>
+        <v>41428.97641456127</v>
+      </c>
+      <c r="G12" t="n">
+        <v>41909.19505572319</v>
       </c>
     </row>
     <row r="13">
@@ -3838,16 +4090,19 @@
         <v>12492</v>
       </c>
       <c r="C13" t="n">
-        <v>26423.45062859761</v>
+        <v>26423.45062890475</v>
       </c>
       <c r="D13" t="n">
-        <v>26969.81729738502</v>
+        <v>28092.84772940518</v>
       </c>
       <c r="E13" t="n">
         <v>25599.6216942816</v>
       </c>
       <c r="F13" t="n">
-        <v>42016.13946461678</v>
+        <v>42166.14729100466</v>
+      </c>
+      <c r="G13" t="n">
+        <v>42542.91416615248</v>
       </c>
     </row>
     <row r="14">
@@ -3858,16 +4113,19 @@
         <v>9706</v>
       </c>
       <c r="C14" t="n">
-        <v>19165.20548026611</v>
+        <v>19165.20548069416</v>
       </c>
       <c r="D14" t="n">
-        <v>20980.04599655726</v>
+        <v>22483.98131987646</v>
       </c>
       <c r="E14" t="n">
         <v>21143.16410197598</v>
       </c>
       <c r="F14" t="n">
-        <v>39867.54576951265</v>
+        <v>40262.85150614381</v>
+      </c>
+      <c r="G14" t="n">
+        <v>41194.50708007812</v>
       </c>
     </row>
     <row r="15">
@@ -3878,16 +4136,19 @@
         <v>21639</v>
       </c>
       <c r="C15" t="n">
-        <v>29045.73823593947</v>
+        <v>29045.73823646842</v>
       </c>
       <c r="D15" t="n">
-        <v>28747.71859510141</v>
+        <v>29552.3415411861</v>
       </c>
       <c r="E15" t="n">
         <v>26548.24840430291</v>
       </c>
       <c r="F15" t="n">
-        <v>39974.76575741172</v>
+        <v>40349.44652912021</v>
+      </c>
+      <c r="G15" t="n">
+        <v>39876.30305790901</v>
       </c>
     </row>
     <row r="16">
@@ -3898,16 +4159,19 @@
         <v>24212</v>
       </c>
       <c r="C16" t="n">
-        <v>15584.40514270092</v>
+        <v>15584.40514342428</v>
       </c>
       <c r="D16" t="n">
-        <v>18737.6770124977</v>
+        <v>20294.73273361564</v>
       </c>
       <c r="E16" t="n">
         <v>20867.09090914073</v>
       </c>
       <c r="F16" t="n">
-        <v>39380.41789844632</v>
+        <v>38615.04412829876</v>
+      </c>
+      <c r="G16" t="n">
+        <v>39886.95087754726</v>
       </c>
     </row>
     <row r="17">
@@ -3918,16 +4182,19 @@
         <v>31712</v>
       </c>
       <c r="C17" t="n">
-        <v>18119.77102449583</v>
+        <v>18119.7710253471</v>
       </c>
       <c r="D17" t="n">
-        <v>21324.75778415384</v>
+        <v>22666.57187330622</v>
       </c>
       <c r="E17" t="n">
         <v>24097.3534809364</v>
       </c>
       <c r="F17" t="n">
-        <v>38294.64945745468</v>
+        <v>38109.39616277814</v>
+      </c>
+      <c r="G17" t="n">
+        <v>38782.95174944401</v>
       </c>
     </row>
     <row r="18">
@@ -3938,16 +4205,19 @@
         <v>38906</v>
       </c>
       <c r="C18" t="n">
-        <v>23184.24045486865</v>
+        <v>23184.24045587473</v>
       </c>
       <c r="D18" t="n">
-        <v>25961.35116294395</v>
+        <v>26987.57447543481</v>
       </c>
       <c r="E18" t="n">
         <v>28642.71939095779</v>
       </c>
       <c r="F18" t="n">
-        <v>38826.24135902524</v>
+        <v>38876.94493281841</v>
+      </c>
+      <c r="G18" t="n">
+        <v>38792.65924215317</v>
       </c>
     </row>
     <row r="19">
@@ -3958,16 +4228,19 @@
         <v>41176</v>
       </c>
       <c r="C19" t="n">
-        <v>25235.29406207584</v>
+        <v>25235.29406316439</v>
       </c>
       <c r="D19" t="n">
-        <v>27938.9353021525</v>
+        <v>28597.44114953719</v>
       </c>
       <c r="E19" t="n">
         <v>31296.832209261</v>
       </c>
       <c r="F19" t="n">
-        <v>35534.02936202288</v>
+        <v>35723.90724775195</v>
+      </c>
+      <c r="G19" t="n">
+        <v>35449.65477490425</v>
       </c>
     </row>
     <row r="20">
@@ -3978,16 +4251,19 @@
         <v>33147</v>
       </c>
       <c r="C20" t="n">
-        <v>16146.56093754155</v>
+        <v>16146.56093850937</v>
       </c>
       <c r="D20" t="n">
-        <v>18551.25085892793</v>
+        <v>19825.22370975847</v>
       </c>
       <c r="E20" t="n">
         <v>19855.58052111302</v>
       </c>
       <c r="F20" t="n">
-        <v>36400.92979609966</v>
+        <v>35929.81415176392</v>
+      </c>
+      <c r="G20" t="n">
+        <v>35325.22739684582</v>
       </c>
     </row>
     <row r="21">
@@ -3998,16 +4274,19 @@
         <v>24441</v>
       </c>
       <c r="C21" t="n">
-        <v>8224.40285616714</v>
+        <v>8224.402857005538</v>
       </c>
       <c r="D21" t="n">
-        <v>11046.84820910951</v>
+        <v>12840.990331709</v>
       </c>
       <c r="E21" t="n">
-        <v>12264.18400963632</v>
+        <v>12264.18400963631</v>
       </c>
       <c r="F21" t="n">
-        <v>34065.55181184411</v>
+        <v>34198.74438020587</v>
+      </c>
+      <c r="G21" t="n">
+        <v>34899.03310588002</v>
       </c>
     </row>
   </sheetData>
@@ -4021,7 +4300,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4055,22 +4334,30 @@
           <t>lstm</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>lstm_reg</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>44470</v>
       </c>
       <c r="B2" t="n">
-        <v>28821.40504053046</v>
+        <v>28821.40616691012</v>
       </c>
       <c r="C2" t="n">
-        <v>25775.66473381158</v>
+        <v>26378.67128622435</v>
       </c>
       <c r="D2" t="n">
-        <v>19528.73090641264</v>
+        <v>19528.73090641263</v>
       </c>
       <c r="E2" t="n">
-        <v>33470.36064434052</v>
+        <v>32501.18805217743</v>
+      </c>
+      <c r="F2" t="n">
+        <v>38768.93845152855</v>
       </c>
     </row>
     <row r="3">
@@ -4078,16 +4365,19 @@
         <v>44501</v>
       </c>
       <c r="B3" t="n">
-        <v>32369.65498197662</v>
+        <v>32369.65671807975</v>
       </c>
       <c r="C3" t="n">
-        <v>29044.99725297637</v>
+        <v>29341.35758694849</v>
       </c>
       <c r="D3" t="n">
         <v>23129.51227480709</v>
       </c>
       <c r="E3" t="n">
-        <v>31485.73293089867</v>
+        <v>31670.55708694458</v>
+      </c>
+      <c r="F3" t="n">
+        <v>36586.27871775627</v>
       </c>
     </row>
     <row r="4">
@@ -4095,16 +4385,19 @@
         <v>44531</v>
       </c>
       <c r="B4" t="n">
-        <v>36742.89039458219</v>
+        <v>36742.88505581577</v>
       </c>
       <c r="C4" t="n">
-        <v>33381.26709424666</v>
+        <v>33325.33746280208</v>
       </c>
       <c r="D4" t="n">
-        <v>28141.42346625904</v>
+        <v>28141.42346625903</v>
       </c>
       <c r="E4" t="n">
-        <v>30959.60133552551</v>
+        <v>31317.13155245781</v>
+      </c>
+      <c r="F4" t="n">
+        <v>35650.7205183506</v>
       </c>
     </row>
     <row r="5">
@@ -4112,16 +4405,19 @@
         <v>44562</v>
       </c>
       <c r="B5" t="n">
-        <v>32394.59301656722</v>
+        <v>32394.68384174535</v>
       </c>
       <c r="C5" t="n">
-        <v>27884.26027205453</v>
+        <v>28236.87182104962</v>
       </c>
       <c r="D5" t="n">
-        <v>19907.21823224366</v>
+        <v>19907.21823224365</v>
       </c>
       <c r="E5" t="n">
-        <v>30878.31212186813</v>
+        <v>31493.18255138397</v>
+      </c>
+      <c r="F5" t="n">
+        <v>36679.58633160591</v>
       </c>
     </row>
     <row r="6">
@@ -4129,16 +4425,19 @@
         <v>44593</v>
       </c>
       <c r="B6" t="n">
-        <v>29450.34034542029</v>
+        <v>29450.43687876184</v>
       </c>
       <c r="C6" t="n">
-        <v>25341.02397918734</v>
+        <v>25911.01865463601</v>
       </c>
       <c r="D6" t="n">
-        <v>17204.30476352941</v>
+        <v>17204.3047635294</v>
       </c>
       <c r="E6" t="n">
-        <v>33799.30934548378</v>
+        <v>33239.75930953026</v>
+      </c>
+      <c r="F6" t="n">
+        <v>37576.58664298058</v>
       </c>
     </row>
     <row r="7">
@@ -4146,16 +4445,19 @@
         <v>44621</v>
       </c>
       <c r="B7" t="n">
-        <v>34321.79295254266</v>
+        <v>34321.88112153274</v>
       </c>
       <c r="C7" t="n">
-        <v>30029.70375456051</v>
+        <v>30367.56866665284</v>
       </c>
       <c r="D7" t="n">
         <v>22264.59026738248</v>
       </c>
       <c r="E7" t="n">
-        <v>34026.78919649124</v>
+        <v>34193.84702181816</v>
+      </c>
+      <c r="F7" t="n">
+        <v>38562.30172419548</v>
       </c>
     </row>
     <row r="8">
@@ -4163,16 +4465,19 @@
         <v>44652</v>
       </c>
       <c r="B8" t="n">
-        <v>27408.96924065984</v>
+        <v>27409.05898499533</v>
       </c>
       <c r="C8" t="n">
-        <v>23248.22100572758</v>
+        <v>24045.90826233962</v>
       </c>
       <c r="D8" t="n">
-        <v>14683.00488414149</v>
+        <v>14683.0048841415</v>
       </c>
       <c r="E8" t="n">
-        <v>33966.64562916756</v>
+        <v>33911.96122074127</v>
+      </c>
+      <c r="F8" t="n">
+        <v>38413.35400533676</v>
       </c>
     </row>
     <row r="9">
@@ -4180,16 +4485,19 @@
         <v>44682</v>
       </c>
       <c r="B9" t="n">
-        <v>31403.73608336944</v>
+        <v>31403.80315051353</v>
       </c>
       <c r="C9" t="n">
-        <v>26873.69834635581</v>
+        <v>27473.42269905955</v>
       </c>
       <c r="D9" t="n">
-        <v>18388.23141479356</v>
+        <v>18388.23141479355</v>
       </c>
       <c r="E9" t="n">
-        <v>33004.0013384819</v>
+        <v>34078.79559183121</v>
+      </c>
+      <c r="F9" t="n">
+        <v>38639.197483778</v>
       </c>
     </row>
     <row r="10">
@@ -4197,16 +4505,19 @@
         <v>44713</v>
       </c>
       <c r="B10" t="n">
-        <v>36122.06155423502</v>
+        <v>36122.11661765883</v>
       </c>
       <c r="C10" t="n">
-        <v>31790.35037899422</v>
+        <v>32039.91130542334</v>
       </c>
       <c r="D10" t="n">
         <v>24411.43665927032</v>
       </c>
       <c r="E10" t="n">
-        <v>32804.64921927452</v>
+        <v>33490.95624947548</v>
+      </c>
+      <c r="F10" t="n">
+        <v>39106.69812512398</v>
       </c>
     </row>
     <row r="11">
@@ -4214,16 +4525,19 @@
         <v>44743</v>
       </c>
       <c r="B11" t="n">
-        <v>40255.90661725717</v>
+        <v>40255.94898240862</v>
       </c>
       <c r="C11" t="n">
-        <v>35617.77070791724</v>
+        <v>35514.00725389567</v>
       </c>
       <c r="D11" t="n">
         <v>28095.39572557426</v>
       </c>
       <c r="E11" t="n">
-        <v>34207.50867009163</v>
+        <v>33365.69467973709</v>
+      </c>
+      <c r="F11" t="n">
+        <v>39364.10365509987</v>
       </c>
     </row>
     <row r="12">
@@ -4231,16 +4545,19 @@
         <v>44774</v>
       </c>
       <c r="B12" t="n">
-        <v>33267.57036497068</v>
+        <v>33267.59357495913</v>
       </c>
       <c r="C12" t="n">
-        <v>27895.54123656278</v>
+        <v>28274.56877818644</v>
       </c>
       <c r="D12" t="n">
         <v>18353.19117831365</v>
       </c>
       <c r="E12" t="n">
-        <v>31733.96652388573</v>
+        <v>31974.74018311501</v>
+      </c>
+      <c r="F12" t="n">
+        <v>38157.16200375557</v>
       </c>
     </row>
     <row r="13">
@@ -4248,16 +4565,19 @@
         <v>44805</v>
       </c>
       <c r="B13" t="n">
-        <v>27276.97714991415</v>
+        <v>27277.01229299077</v>
       </c>
       <c r="C13" t="n">
-        <v>21572.76430726756</v>
+        <v>22495.01181992888</v>
       </c>
       <c r="D13" t="n">
         <v>10506.09552529317</v>
       </c>
       <c r="E13" t="n">
-        <v>31809.88252258301</v>
+        <v>33071.90736222267</v>
+      </c>
+      <c r="F13" t="n">
+        <v>38820.74889469147</v>
       </c>
     </row>
     <row r="14">
@@ -4265,16 +4585,19 @@
         <v>44835</v>
       </c>
       <c r="B14" t="n">
-        <v>31657.3821904446</v>
+        <v>31657.41845990089</v>
       </c>
       <c r="C14" t="n">
-        <v>25944.99892978737</v>
+        <v>26476.25921596823</v>
       </c>
       <c r="D14" t="n">
         <v>15637.361206851</v>
       </c>
       <c r="E14" t="n">
-        <v>31086.51646661758</v>
+        <v>32078.78047585487</v>
+      </c>
+      <c r="F14" t="n">
+        <v>37884.90192365646</v>
       </c>
     </row>
     <row r="15">
@@ -4282,16 +4605,19 @@
         <v>44866</v>
       </c>
       <c r="B15" t="n">
-        <v>35205.63213189076</v>
+        <v>35205.66901107052</v>
       </c>
       <c r="C15" t="n">
-        <v>30236.33803104652</v>
+        <v>30411.20119391005</v>
       </c>
       <c r="D15" t="n">
-        <v>21822.9740446377</v>
+        <v>21822.97404463771</v>
       </c>
       <c r="E15" t="n">
-        <v>31059.31005382538</v>
+        <v>31669.67358326912</v>
+      </c>
+      <c r="F15" t="n">
+        <v>36758.17690563202</v>
       </c>
     </row>
     <row r="16">
@@ -4299,16 +4625,19 @@
         <v>44896</v>
       </c>
       <c r="B16" t="n">
-        <v>39578.86754449634</v>
+        <v>39578.89734880653</v>
       </c>
       <c r="C16" t="n">
-        <v>34566.61125305141</v>
+        <v>34282.6732339341</v>
       </c>
       <c r="D16" t="n">
         <v>26784.80634910359</v>
       </c>
       <c r="E16" t="n">
-        <v>30751.93671870232</v>
+        <v>31133.6068687439</v>
+      </c>
+      <c r="F16" t="n">
+        <v>34136.74243211746</v>
       </c>
     </row>
     <row r="17">
@@ -4316,16 +4645,19 @@
         <v>44927</v>
       </c>
       <c r="B17" t="n">
-        <v>35230.57016648137</v>
+        <v>35230.69613473611</v>
       </c>
       <c r="C17" t="n">
-        <v>27650.61212252132</v>
+        <v>27632.94882322379</v>
       </c>
       <c r="D17" t="n">
         <v>14879.81879972061</v>
       </c>
       <c r="E17" t="n">
-        <v>28493.04643142223</v>
+        <v>28312.12413012981</v>
+      </c>
+      <c r="F17" t="n">
+        <v>33626.13574957848</v>
       </c>
     </row>
     <row r="18">
@@ -4333,16 +4665,19 @@
         <v>44958</v>
       </c>
       <c r="B18" t="n">
-        <v>32286.31749533443</v>
+        <v>32286.4491717526</v>
       </c>
       <c r="C18" t="n">
-        <v>24756.7812544226</v>
+        <v>25040.7211407187</v>
       </c>
       <c r="D18" t="n">
         <v>11361.82956669037</v>
       </c>
       <c r="E18" t="n">
-        <v>30270.1109418869</v>
+        <v>30082.46094918251</v>
+      </c>
+      <c r="F18" t="n">
+        <v>34779.33493804932</v>
       </c>
     </row>
     <row r="19">
@@ -4350,16 +4685,19 @@
         <v>44986</v>
       </c>
       <c r="B19" t="n">
-        <v>37157.77010245681</v>
+        <v>37157.8934145235</v>
       </c>
       <c r="C19" t="n">
-        <v>30391.84618980582</v>
+        <v>30283.58529770936</v>
       </c>
       <c r="D19" t="n">
         <v>19550.02222848214</v>
       </c>
       <c r="E19" t="n">
-        <v>27467.31585299969</v>
+        <v>28276.30957257748</v>
+      </c>
+      <c r="F19" t="n">
+        <v>34013.94229674339</v>
       </c>
     </row>
     <row r="20">
@@ -4367,16 +4705,19 @@
         <v>45017</v>
       </c>
       <c r="B20" t="n">
-        <v>30244.94639057399</v>
+        <v>30245.07127798609</v>
       </c>
       <c r="C20" t="n">
-        <v>23406.55502067563</v>
+        <v>23616.40113281348</v>
       </c>
       <c r="D20" t="n">
         <v>11451.98723247274</v>
       </c>
       <c r="E20" t="n">
-        <v>27023.30540859699</v>
+        <v>27640.15942418575</v>
+      </c>
+      <c r="F20" t="n">
+        <v>30946.58598566055</v>
       </c>
     </row>
     <row r="21">
@@ -4384,16 +4725,19 @@
         <v>45047</v>
       </c>
       <c r="B21" t="n">
-        <v>34239.71323328358</v>
+        <v>34239.81544350429</v>
       </c>
       <c r="C21" t="n">
-        <v>26982.39765584076</v>
+        <v>26902.46656271205</v>
       </c>
       <c r="D21" t="n">
         <v>14844.27278357647</v>
       </c>
       <c r="E21" t="n">
-        <v>27201.52047586441</v>
+        <v>26889.04207086563</v>
+      </c>
+      <c r="F21" t="n">
+        <v>31886.84016180038</v>
       </c>
     </row>
     <row r="22">
@@ -4401,16 +4745,19 @@
         <v>45078</v>
       </c>
       <c r="B22" t="n">
-        <v>38958.03870414916</v>
+        <v>38958.1289106496</v>
       </c>
       <c r="C22" t="n">
-        <v>32225.33625723212</v>
+        <v>31679.6178942977</v>
       </c>
       <c r="D22" t="n">
         <v>21971.39779665363</v>
       </c>
       <c r="E22" t="n">
-        <v>25789.20203530788</v>
+        <v>25948.52146852016</v>
+      </c>
+      <c r="F22" t="n">
+        <v>29401.36899709702</v>
       </c>
     </row>
     <row r="23">
@@ -4418,16 +4765,19 @@
         <v>45108</v>
       </c>
       <c r="B23" t="n">
-        <v>43091.88376717131</v>
+        <v>43091.96127539939</v>
       </c>
       <c r="C23" t="n">
-        <v>35789.63523909407</v>
+        <v>34957.88162412662</v>
       </c>
       <c r="D23" t="n">
         <v>25009.29998463495</v>
       </c>
       <c r="E23" t="n">
-        <v>26560.02289569378</v>
+        <v>24976.46459782124</v>
+      </c>
+      <c r="F23" t="n">
+        <v>31508.07835459709</v>
       </c>
     </row>
     <row r="24">
@@ -4435,16 +4785,19 @@
         <v>45139</v>
       </c>
       <c r="B24" t="n">
-        <v>36103.54751488482</v>
+        <v>36103.6058679499</v>
       </c>
       <c r="C24" t="n">
-        <v>27696.24814487427</v>
+        <v>27248.97939824118</v>
       </c>
       <c r="D24" t="n">
         <v>13950.16181842284</v>
       </c>
       <c r="E24" t="n">
-        <v>25869.87760925293</v>
+        <v>24986.07313001156</v>
+      </c>
+      <c r="F24" t="n">
+        <v>27815.05877435207</v>
       </c>
     </row>
     <row r="25">
@@ -4452,16 +4805,19 @@
         <v>45170</v>
       </c>
       <c r="B25" t="n">
-        <v>30112.95429982829</v>
+        <v>30113.02458598153</v>
       </c>
       <c r="C25" t="n">
-        <v>20838.85883619728</v>
+        <v>21037.83517011546</v>
       </c>
       <c r="D25" t="n">
         <v>4576.7507934482</v>
       </c>
       <c r="E25" t="n">
-        <v>26070.61686360836</v>
+        <v>26682.0220335722</v>
+      </c>
+      <c r="F25" t="n">
+        <v>29494.2675178051</v>
       </c>
     </row>
     <row r="26">
@@ -4469,16 +4825,19 @@
         <v>45200</v>
       </c>
       <c r="B26" t="n">
-        <v>34493.35934035875</v>
+        <v>34493.43075289165</v>
       </c>
       <c r="C26" t="n">
-        <v>25941.76643975276</v>
+        <v>25552.28460551991</v>
       </c>
       <c r="D26" t="n">
         <v>11826.75426021939</v>
       </c>
       <c r="E26" t="n">
-        <v>24961.19236016273</v>
+        <v>24794.12078380585</v>
+      </c>
+      <c r="F26" t="n">
+        <v>25885.98694086075</v>
       </c>
     </row>
     <row r="27">
@@ -4486,16 +4845,19 @@
         <v>45231</v>
       </c>
       <c r="B27" t="n">
-        <v>38041.60928180491</v>
+        <v>38041.68130406128</v>
       </c>
       <c r="C27" t="n">
-        <v>30846.34222780606</v>
+        <v>29922.12782956495</v>
       </c>
       <c r="D27" t="n">
         <v>20557.20605378826</v>
       </c>
       <c r="E27" t="n">
-        <v>19554.12236428261</v>
+        <v>20380.3787831068</v>
+      </c>
+      <c r="F27" t="n">
+        <v>21809.47176134586</v>
       </c>
     </row>
     <row r="28">
@@ -4503,16 +4865,19 @@
         <v>45261</v>
       </c>
       <c r="B28" t="n">
-        <v>42414.84469441049</v>
+        <v>42414.9096417973</v>
       </c>
       <c r="C28" t="n">
-        <v>35048.44414330419</v>
+        <v>33445.56209690192</v>
       </c>
       <c r="D28" t="n">
         <v>25360.21140332133</v>
       </c>
       <c r="E28" t="n">
-        <v>17910.86396980286</v>
+        <v>16478.17337834835</v>
+      </c>
+      <c r="F28" t="n">
+        <v>18305.45321249962</v>
       </c>
     </row>
     <row r="29">
@@ -4520,16 +4885,19 @@
         <v>45292</v>
       </c>
       <c r="B29" t="n">
-        <v>38066.54731639552</v>
+        <v>38066.70842772687</v>
       </c>
       <c r="C29" t="n">
-        <v>26662.99343411159</v>
+        <v>25195.46504213236</v>
       </c>
       <c r="D29" t="n">
-        <v>9777.931940821163</v>
+        <v>9777.93194082117</v>
       </c>
       <c r="E29" t="n">
-        <v>12579.01812392473</v>
+        <v>11369.14492487907</v>
+      </c>
+      <c r="F29" t="n">
+        <v>14403.12834566832</v>
       </c>
     </row>
     <row r="30">
@@ -4537,16 +4905,19 @@
         <v>45323</v>
       </c>
       <c r="B30" t="n">
-        <v>35122.29464524858</v>
+        <v>35122.46146474336</v>
       </c>
       <c r="C30" t="n">
-        <v>23271.67834190992</v>
+        <v>22086.25820827579</v>
       </c>
       <c r="D30" t="n">
-        <v>5532.152051144816</v>
+        <v>5532.152051144813</v>
       </c>
       <c r="E30" t="n">
-        <v>9905.117455005646</v>
+        <v>11715.85222178698</v>
+      </c>
+      <c r="F30" t="n">
+        <v>12243.75684058666</v>
       </c>
     </row>
     <row r="31">
@@ -4554,16 +4925,19 @@
         <v>45352</v>
       </c>
       <c r="B31" t="n">
-        <v>39993.74725237095</v>
+        <v>39993.90570751426</v>
       </c>
       <c r="C31" t="n">
-        <v>29031.40859690368</v>
+        <v>27213.05173307844</v>
       </c>
       <c r="D31" t="n">
         <v>13522.308384706</v>
       </c>
       <c r="E31" t="n">
-        <v>10726.48796099424</v>
+        <v>9124.801508426666</v>
+      </c>
+      <c r="F31" t="n">
+        <v>11695.74907541275</v>
       </c>
     </row>
     <row r="32">
@@ -4571,16 +4945,19 @@
         <v>45383</v>
       </c>
       <c r="B32" t="n">
-        <v>33080.92354048813</v>
+        <v>33081.08357097686</v>
       </c>
       <c r="C32" t="n">
-        <v>22521.45958430672</v>
+        <v>21193.34007310957</v>
       </c>
       <c r="D32" t="n">
         <v>6891.437929709256</v>
       </c>
       <c r="E32" t="n">
-        <v>9445.624210298061</v>
+        <v>8652.973589837551</v>
+      </c>
+      <c r="F32" t="n">
+        <v>11316.58247226477</v>
       </c>
     </row>
     <row r="33">
@@ -4588,16 +4965,19 @@
         <v>45413</v>
       </c>
       <c r="B33" t="n">
-        <v>37075.69038319773</v>
+        <v>37075.82773649506</v>
       </c>
       <c r="C33" t="n">
-        <v>26362.19449856602</v>
+        <v>24739.22192619902</v>
       </c>
       <c r="D33" t="n">
         <v>11225.52198028152</v>
       </c>
       <c r="E33" t="n">
-        <v>8338.424795389175</v>
+        <v>8835.052696526051</v>
+      </c>
+      <c r="F33" t="n">
+        <v>9494.23496067524</v>
       </c>
     </row>
     <row r="34">
@@ -4605,16 +4985,19 @@
         <v>45444</v>
       </c>
       <c r="B34" t="n">
-        <v>41794.01585406331</v>
+        <v>41794.14120364036</v>
       </c>
       <c r="C34" t="n">
-        <v>30505.87426518682</v>
+        <v>28570.99890112093</v>
       </c>
       <c r="D34" t="n">
         <v>14991.45784198569</v>
       </c>
       <c r="E34" t="n">
-        <v>8652.18118673563</v>
+        <v>8653.044923305511</v>
+      </c>
+      <c r="F34" t="n">
+        <v>10210.31812739372</v>
       </c>
     </row>
     <row r="35">
@@ -4622,16 +5005,19 @@
         <v>45474</v>
       </c>
       <c r="B35" t="n">
-        <v>45927.86091708546</v>
+        <v>45927.97356839015</v>
       </c>
       <c r="C35" t="n">
-        <v>34696.1179720729</v>
+        <v>32502.5447732612</v>
       </c>
       <c r="D35" t="n">
         <v>19839.62288491453</v>
       </c>
       <c r="E35" t="n">
-        <v>9123.891362130642</v>
+        <v>9542.146986842155</v>
+      </c>
+      <c r="F35" t="n">
+        <v>10079.68849933147</v>
       </c>
     </row>
     <row r="36">
@@ -4639,16 +5025,19 @@
         <v>45505</v>
       </c>
       <c r="B36" t="n">
-        <v>38939.52466479897</v>
+        <v>38939.61816094066</v>
       </c>
       <c r="C36" t="n">
-        <v>28052.26993021665</v>
+        <v>26379.45549937796</v>
       </c>
       <c r="D36" t="n">
         <v>12731.61582631851</v>
       </c>
       <c r="E36" t="n">
-        <v>9330.491133570671</v>
+        <v>9996.005747020245</v>
+      </c>
+      <c r="F36" t="n">
+        <v>10364.97853976488</v>
       </c>
     </row>
     <row r="37">
@@ -4656,16 +5045,19 @@
         <v>45536</v>
       </c>
       <c r="B37" t="n">
-        <v>32948.93144974244</v>
+        <v>32949.0368789723</v>
       </c>
       <c r="C37" t="n">
-        <v>22887.42178743499</v>
+        <v>21778.40439014497</v>
       </c>
       <c r="D37" t="n">
-        <v>8127.890938154369</v>
+        <v>8127.890938154365</v>
       </c>
       <c r="E37" t="n">
-        <v>9548.292837798595</v>
+        <v>10988.84472119808</v>
+      </c>
+      <c r="F37" t="n">
+        <v>12471.04417717457</v>
       </c>
     </row>
     <row r="38">
@@ -4673,16 +5065,19 @@
         <v>45566</v>
       </c>
       <c r="B38" t="n">
-        <v>37329.3364902729</v>
+        <v>37329.44304588242</v>
       </c>
       <c r="C38" t="n">
-        <v>25960.93495379314</v>
+        <v>24469.15668811078</v>
       </c>
       <c r="D38" t="n">
         <v>9212.158812765581</v>
       </c>
       <c r="E38" t="n">
-        <v>11364.84858745337</v>
+        <v>10973.76585739851</v>
+      </c>
+      <c r="F38" t="n">
+        <v>12148.15624248981</v>
       </c>
     </row>
     <row r="39">
@@ -4690,16 +5085,19 @@
         <v>45597</v>
       </c>
       <c r="B39" t="n">
-        <v>40877.58643171906</v>
+        <v>40877.69359705205</v>
       </c>
       <c r="C39" t="n">
-        <v>28583.74682141346</v>
+        <v>27151.06697016106</v>
       </c>
       <c r="D39" t="n">
         <v>10191.64995863509</v>
       </c>
       <c r="E39" t="n">
-        <v>14645.3604735136</v>
+        <v>14675.28959023952</v>
+      </c>
+      <c r="F39" t="n">
+        <v>15829.22273993492</v>
       </c>
     </row>
   </sheetData>

--- a/fcst_results/orig_series_HOU-Int_results.xlsx
+++ b/fcst_results/orig_series_HOU-Int_results.xlsx
@@ -58,7 +58,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -75,6 +74,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -412,19 +479,19 @@
         <v>44470</v>
       </c>
       <c r="B2" t="n">
-        <v>38768.93845152855</v>
+        <v>37708.4177672863</v>
       </c>
       <c r="C2" t="n">
-        <v>32501.18805217743</v>
+        <v>32806.06901311874</v>
       </c>
       <c r="D2" t="n">
-        <v>28821.40616691012</v>
+        <v>28821.40504053046</v>
       </c>
       <c r="E2" t="n">
-        <v>19528.73090641263</v>
+        <v>19528.73090641264</v>
       </c>
       <c r="F2" t="n">
-        <v>26378.67128622435</v>
+        <v>26243.78500016212</v>
       </c>
     </row>
     <row r="3">
@@ -432,19 +499,19 @@
         <v>44501</v>
       </c>
       <c r="B3" t="n">
-        <v>36586.27871775627</v>
+        <v>38280.5431201458</v>
       </c>
       <c r="C3" t="n">
-        <v>31670.55708694458</v>
+        <v>30125.8351354599</v>
       </c>
       <c r="D3" t="n">
-        <v>32369.65671807975</v>
+        <v>32369.65498197662</v>
       </c>
       <c r="E3" t="n">
         <v>23129.51227480709</v>
       </c>
       <c r="F3" t="n">
-        <v>29341.35758694849</v>
+        <v>29324.17711392631</v>
       </c>
     </row>
     <row r="4">
@@ -452,19 +519,19 @@
         <v>44531</v>
       </c>
       <c r="B4" t="n">
-        <v>35650.7205183506</v>
+        <v>35878.1831805706</v>
       </c>
       <c r="C4" t="n">
-        <v>31317.13155245781</v>
+        <v>30516.86973690987</v>
       </c>
       <c r="D4" t="n">
-        <v>36742.88505581577</v>
+        <v>36742.89039458219</v>
       </c>
       <c r="E4" t="n">
-        <v>28141.42346625903</v>
+        <v>28141.42346625904</v>
       </c>
       <c r="F4" t="n">
-        <v>33325.33746280208</v>
+        <v>33366.40438303646</v>
       </c>
     </row>
     <row r="5">
@@ -472,19 +539,19 @@
         <v>44562</v>
       </c>
       <c r="B5" t="n">
-        <v>36679.58633160591</v>
+        <v>37366.53622245789</v>
       </c>
       <c r="C5" t="n">
-        <v>31493.18255138397</v>
+        <v>31196.23593473434</v>
       </c>
       <c r="D5" t="n">
-        <v>32394.68384174535</v>
+        <v>32394.59301656722</v>
       </c>
       <c r="E5" t="n">
-        <v>19907.21823224365</v>
+        <v>19907.21823224366</v>
       </c>
       <c r="F5" t="n">
-        <v>28236.87182104962</v>
+        <v>28228.19670407232</v>
       </c>
     </row>
     <row r="6">
@@ -492,19 +559,19 @@
         <v>44593</v>
       </c>
       <c r="B6" t="n">
-        <v>37576.58664298058</v>
+        <v>39128.18754720688</v>
       </c>
       <c r="C6" t="n">
-        <v>33239.75930953026</v>
+        <v>32454.56518507004</v>
       </c>
       <c r="D6" t="n">
-        <v>29450.43687876184</v>
+        <v>29450.34034542029</v>
       </c>
       <c r="E6" t="n">
-        <v>17204.3047635294</v>
+        <v>17204.30476352941</v>
       </c>
       <c r="F6" t="n">
-        <v>25911.01865463601</v>
+        <v>25830.34079207206</v>
       </c>
     </row>
     <row r="7">
@@ -512,19 +579,19 @@
         <v>44621</v>
       </c>
       <c r="B7" t="n">
-        <v>38562.30172419548</v>
+        <v>39145.23882436752</v>
       </c>
       <c r="C7" t="n">
-        <v>34193.84702181816</v>
+        <v>34177.89238929749</v>
       </c>
       <c r="D7" t="n">
-        <v>34321.88112153274</v>
+        <v>34321.79295254266</v>
       </c>
       <c r="E7" t="n">
         <v>22264.59026738248</v>
       </c>
       <c r="F7" t="n">
-        <v>30367.56866665284</v>
+        <v>30355.03460140862</v>
       </c>
     </row>
     <row r="8">
@@ -532,19 +599,19 @@
         <v>44652</v>
       </c>
       <c r="B8" t="n">
-        <v>38413.35400533676</v>
+        <v>39180.558344841</v>
       </c>
       <c r="C8" t="n">
-        <v>33911.96122074127</v>
+        <v>34243.92483520508</v>
       </c>
       <c r="D8" t="n">
-        <v>27409.05898499533</v>
+        <v>27408.96924065984</v>
       </c>
       <c r="E8" t="n">
-        <v>14683.0048841415</v>
+        <v>14683.00488414149</v>
       </c>
       <c r="F8" t="n">
-        <v>24045.90826233962</v>
+        <v>23933.93836934627</v>
       </c>
     </row>
     <row r="9">
@@ -552,19 +619,19 @@
         <v>44682</v>
       </c>
       <c r="B9" t="n">
-        <v>38639.197483778</v>
+        <v>39428.70943164825</v>
       </c>
       <c r="C9" t="n">
-        <v>34078.79559183121</v>
+        <v>33475.31445288658</v>
       </c>
       <c r="D9" t="n">
-        <v>31403.80315051353</v>
+        <v>31403.73608336944</v>
       </c>
       <c r="E9" t="n">
-        <v>18388.23141479355</v>
+        <v>18388.23141479356</v>
       </c>
       <c r="F9" t="n">
-        <v>27473.42269905955</v>
+        <v>27382.8538199851</v>
       </c>
     </row>
     <row r="10">
@@ -572,19 +639,19 @@
         <v>44713</v>
       </c>
       <c r="B10" t="n">
-        <v>39106.69812512398</v>
+        <v>37582.1661233902</v>
       </c>
       <c r="C10" t="n">
-        <v>33490.95624947548</v>
+        <v>34298.62299466133</v>
       </c>
       <c r="D10" t="n">
-        <v>36122.11661765883</v>
+        <v>36122.06155423502</v>
       </c>
       <c r="E10" t="n">
         <v>24411.43665927032</v>
       </c>
       <c r="F10" t="n">
-        <v>32039.91130542334</v>
+        <v>32017.40968344181</v>
       </c>
     </row>
     <row r="11">
@@ -592,19 +659,19 @@
         <v>44743</v>
       </c>
       <c r="B11" t="n">
-        <v>39364.10365509987</v>
+        <v>38748.77944159508</v>
       </c>
       <c r="C11" t="n">
-        <v>33365.69467973709</v>
+        <v>33927.11829352379</v>
       </c>
       <c r="D11" t="n">
-        <v>40255.94898240862</v>
+        <v>40255.90661725717</v>
       </c>
       <c r="E11" t="n">
         <v>28095.39572557426</v>
       </c>
       <c r="F11" t="n">
-        <v>35514.00725389567</v>
+        <v>35602.36674956624</v>
       </c>
     </row>
     <row r="12">
@@ -612,19 +679,19 @@
         <v>44774</v>
       </c>
       <c r="B12" t="n">
-        <v>38157.16200375557</v>
+        <v>37413.70569300652</v>
       </c>
       <c r="C12" t="n">
-        <v>31974.74018311501</v>
+        <v>32175.75961470604</v>
       </c>
       <c r="D12" t="n">
-        <v>33267.59357495913</v>
+        <v>33267.57036497068</v>
       </c>
       <c r="E12" t="n">
         <v>18353.19117831365</v>
       </c>
       <c r="F12" t="n">
-        <v>28274.56877818644</v>
+        <v>28220.59751855483</v>
       </c>
     </row>
     <row r="13">
@@ -632,19 +699,19 @@
         <v>44805</v>
       </c>
       <c r="B13" t="n">
-        <v>38820.74889469147</v>
+        <v>38514.18343257904</v>
       </c>
       <c r="C13" t="n">
-        <v>33071.90736222267</v>
+        <v>32780.179261446</v>
       </c>
       <c r="D13" t="n">
-        <v>27277.01229299077</v>
+        <v>27276.97714991415</v>
       </c>
       <c r="E13" t="n">
         <v>10506.09552529317</v>
       </c>
       <c r="F13" t="n">
-        <v>22495.01181992888</v>
+        <v>22294.37076882497</v>
       </c>
     </row>
     <row r="14">
@@ -652,19 +719,19 @@
         <v>44835</v>
       </c>
       <c r="B14" t="n">
-        <v>37884.90192365646</v>
+        <v>36850.59757804871</v>
       </c>
       <c r="C14" t="n">
-        <v>32078.78047585487</v>
+        <v>32291.25795316696</v>
       </c>
       <c r="D14" t="n">
-        <v>31657.41845990089</v>
+        <v>31657.3821904446</v>
       </c>
       <c r="E14" t="n">
         <v>15637.361206851</v>
       </c>
       <c r="F14" t="n">
-        <v>26476.25921596823</v>
+        <v>26371.12617588643</v>
       </c>
     </row>
     <row r="15">
@@ -672,19 +739,19 @@
         <v>44866</v>
       </c>
       <c r="B15" t="n">
-        <v>36758.17690563202</v>
+        <v>35854.22201085091</v>
       </c>
       <c r="C15" t="n">
-        <v>31669.67358326912</v>
+        <v>30524.85908532143</v>
       </c>
       <c r="D15" t="n">
-        <v>35205.66901107052</v>
+        <v>35205.63213189076</v>
       </c>
       <c r="E15" t="n">
-        <v>21822.97404463771</v>
+        <v>21822.9740446377</v>
       </c>
       <c r="F15" t="n">
-        <v>30411.20119391005</v>
+        <v>30323.21796546133</v>
       </c>
     </row>
     <row r="16">
@@ -692,19 +759,19 @@
         <v>44896</v>
       </c>
       <c r="B16" t="n">
-        <v>34136.74243211746</v>
+        <v>34222.02288222313</v>
       </c>
       <c r="C16" t="n">
-        <v>31133.6068687439</v>
+        <v>29448.07093262672</v>
       </c>
       <c r="D16" t="n">
-        <v>39578.89734880653</v>
+        <v>39578.86754449634</v>
       </c>
       <c r="E16" t="n">
         <v>26784.80634910359</v>
       </c>
       <c r="F16" t="n">
-        <v>34282.6732339341</v>
+        <v>34306.70248301864</v>
       </c>
     </row>
     <row r="17">
@@ -712,19 +779,19 @@
         <v>44927</v>
       </c>
       <c r="B17" t="n">
-        <v>33626.13574957848</v>
+        <v>34574.86743569374</v>
       </c>
       <c r="C17" t="n">
-        <v>28312.12413012981</v>
+        <v>29452.31656312943</v>
       </c>
       <c r="D17" t="n">
-        <v>35230.69613473611</v>
+        <v>35230.57016648137</v>
       </c>
       <c r="E17" t="n">
         <v>14879.81879972061</v>
       </c>
       <c r="F17" t="n">
-        <v>27632.94882322379</v>
+        <v>27796.91846843692</v>
       </c>
     </row>
     <row r="18">
@@ -732,19 +799,19 @@
         <v>44958</v>
       </c>
       <c r="B18" t="n">
-        <v>34779.33493804932</v>
+        <v>34935.86978769302</v>
       </c>
       <c r="C18" t="n">
-        <v>30082.46094918251</v>
+        <v>30224.14812421799</v>
       </c>
       <c r="D18" t="n">
-        <v>32286.4491717526</v>
+        <v>32286.31749533443</v>
       </c>
       <c r="E18" t="n">
         <v>11361.82956669037</v>
       </c>
       <c r="F18" t="n">
-        <v>25040.7211407187</v>
+        <v>25019.06390169228</v>
       </c>
     </row>
     <row r="19">
@@ -752,19 +819,19 @@
         <v>44986</v>
       </c>
       <c r="B19" t="n">
-        <v>34013.94229674339</v>
+        <v>33267.20292758942</v>
       </c>
       <c r="C19" t="n">
-        <v>28276.30957257748</v>
+        <v>28894.83605718613</v>
       </c>
       <c r="D19" t="n">
-        <v>37157.8934145235</v>
+        <v>37157.77010245681</v>
       </c>
       <c r="E19" t="n">
         <v>19550.02222848214</v>
       </c>
       <c r="F19" t="n">
-        <v>30283.58529770936</v>
+        <v>30383.52465756608</v>
       </c>
     </row>
     <row r="20">
@@ -772,19 +839,19 @@
         <v>45017</v>
       </c>
       <c r="B20" t="n">
-        <v>30946.58598566055</v>
+        <v>32114.26844644547</v>
       </c>
       <c r="C20" t="n">
-        <v>27640.15942418575</v>
+        <v>27900.23437285423</v>
       </c>
       <c r="D20" t="n">
-        <v>30245.07127798609</v>
+        <v>30244.94639057399</v>
       </c>
       <c r="E20" t="n">
         <v>11451.98723247274</v>
       </c>
       <c r="F20" t="n">
-        <v>23616.40113281348</v>
+        <v>23665.8518143553</v>
       </c>
     </row>
     <row r="21">
@@ -792,19 +859,19 @@
         <v>45047</v>
       </c>
       <c r="B21" t="n">
-        <v>31886.84016180038</v>
+        <v>30984.25349450111</v>
       </c>
       <c r="C21" t="n">
-        <v>26889.04207086563</v>
+        <v>27381.27222073078</v>
       </c>
       <c r="D21" t="n">
-        <v>34239.81544350429</v>
+        <v>34239.71323328358</v>
       </c>
       <c r="E21" t="n">
         <v>14844.27278357647</v>
       </c>
       <c r="F21" t="n">
-        <v>26902.46656271205</v>
+        <v>26950.70933213821</v>
       </c>
     </row>
     <row r="22">
@@ -812,19 +879,19 @@
         <v>45078</v>
       </c>
       <c r="B22" t="n">
-        <v>29401.36899709702</v>
+        <v>31329.43184876442</v>
       </c>
       <c r="C22" t="n">
-        <v>25948.52146852016</v>
+        <v>26596.24138975143</v>
       </c>
       <c r="D22" t="n">
-        <v>38958.1289106496</v>
+        <v>38958.03870414916</v>
       </c>
       <c r="E22" t="n">
         <v>21971.39779665363</v>
       </c>
       <c r="F22" t="n">
-        <v>31679.6178942977</v>
+        <v>31991.57399647591</v>
       </c>
     </row>
     <row r="23">
@@ -832,19 +899,19 @@
         <v>45108</v>
       </c>
       <c r="B23" t="n">
-        <v>31508.07835459709</v>
+        <v>31038.60787820816</v>
       </c>
       <c r="C23" t="n">
-        <v>24976.46459782124</v>
+        <v>25967.02176046371</v>
       </c>
       <c r="D23" t="n">
-        <v>43091.96127539939</v>
+        <v>43091.88376717131</v>
       </c>
       <c r="E23" t="n">
         <v>25009.29998463495</v>
       </c>
       <c r="F23" t="n">
-        <v>34957.88162412662</v>
+        <v>35264.98271595239</v>
       </c>
     </row>
     <row r="24">
@@ -852,19 +919,19 @@
         <v>45139</v>
       </c>
       <c r="B24" t="n">
-        <v>27815.05877435207</v>
+        <v>29640.05593752861</v>
       </c>
       <c r="C24" t="n">
-        <v>24986.07313001156</v>
+        <v>26032.28242981434</v>
       </c>
       <c r="D24" t="n">
-        <v>36103.6058679499</v>
+        <v>36103.54751488482</v>
       </c>
       <c r="E24" t="n">
         <v>13950.16181842284</v>
       </c>
       <c r="F24" t="n">
-        <v>27248.97939824118</v>
+        <v>27519.98497794937</v>
       </c>
     </row>
     <row r="25">
@@ -872,19 +939,19 @@
         <v>45170</v>
       </c>
       <c r="B25" t="n">
-        <v>29494.2675178051</v>
+        <v>28285.86138176918</v>
       </c>
       <c r="C25" t="n">
-        <v>26682.0220335722</v>
+        <v>26851.23189508915</v>
       </c>
       <c r="D25" t="n">
-        <v>30113.02458598153</v>
+        <v>30112.95429982829</v>
       </c>
       <c r="E25" t="n">
         <v>4576.7507934482</v>
       </c>
       <c r="F25" t="n">
-        <v>21037.83517011546</v>
+        <v>20951.61986577378</v>
       </c>
     </row>
     <row r="26">
@@ -892,19 +959,19 @@
         <v>45200</v>
       </c>
       <c r="B26" t="n">
-        <v>25885.98694086075</v>
+        <v>28280.60333168507</v>
       </c>
       <c r="C26" t="n">
-        <v>24794.12078380585</v>
+        <v>24441.60281729698</v>
       </c>
       <c r="D26" t="n">
-        <v>34493.43075289165</v>
+        <v>34493.35934035875</v>
       </c>
       <c r="E26" t="n">
         <v>11826.75426021939</v>
       </c>
       <c r="F26" t="n">
-        <v>25552.28460551991</v>
+        <v>25744.60280892272</v>
       </c>
     </row>
     <row r="27">
@@ -912,19 +979,19 @@
         <v>45231</v>
       </c>
       <c r="B27" t="n">
-        <v>21809.47176134586</v>
+        <v>21793.15960204601</v>
       </c>
       <c r="C27" t="n">
-        <v>20380.3787831068</v>
+        <v>19053.59862446785</v>
       </c>
       <c r="D27" t="n">
-        <v>38041.68130406128</v>
+        <v>38041.60928180491</v>
       </c>
       <c r="E27" t="n">
         <v>20557.20605378826</v>
       </c>
       <c r="F27" t="n">
-        <v>29922.12782956495</v>
+        <v>30113.05966690927</v>
       </c>
     </row>
     <row r="28">
@@ -932,19 +999,19 @@
         <v>45261</v>
       </c>
       <c r="B28" t="n">
-        <v>18305.45321249962</v>
+        <v>19672.77312636375</v>
       </c>
       <c r="C28" t="n">
-        <v>16478.17337834835</v>
+        <v>17332.99068641663</v>
       </c>
       <c r="D28" t="n">
-        <v>42414.9096417973</v>
+        <v>42414.84469441049</v>
       </c>
       <c r="E28" t="n">
         <v>25360.21140332133</v>
       </c>
       <c r="F28" t="n">
-        <v>33445.56209690192</v>
+        <v>33981.9884263944</v>
       </c>
     </row>
     <row r="29">
@@ -952,19 +1019,19 @@
         <v>45292</v>
       </c>
       <c r="B29" t="n">
-        <v>14403.12834566832</v>
+        <v>13336.3096897006</v>
       </c>
       <c r="C29" t="n">
-        <v>11369.14492487907</v>
+        <v>10015.10850596428</v>
       </c>
       <c r="D29" t="n">
-        <v>38066.70842772687</v>
+        <v>38066.54731639552</v>
       </c>
       <c r="E29" t="n">
-        <v>9777.93194082117</v>
+        <v>9777.931940821163</v>
       </c>
       <c r="F29" t="n">
-        <v>25195.46504213236</v>
+        <v>25461.15742258302</v>
       </c>
     </row>
     <row r="30">
@@ -972,19 +1039,19 @@
         <v>45323</v>
       </c>
       <c r="B30" t="n">
-        <v>12243.75684058666</v>
+        <v>12614.4175722599</v>
       </c>
       <c r="C30" t="n">
-        <v>11715.85222178698</v>
+        <v>13081.83914518356</v>
       </c>
       <c r="D30" t="n">
-        <v>35122.46146474336</v>
+        <v>35122.29464524858</v>
       </c>
       <c r="E30" t="n">
-        <v>5532.152051144813</v>
+        <v>5532.152051144816</v>
       </c>
       <c r="F30" t="n">
-        <v>22086.25820827579</v>
+        <v>22500.44905410258</v>
       </c>
     </row>
     <row r="31">
@@ -992,19 +1059,19 @@
         <v>45352</v>
       </c>
       <c r="B31" t="n">
-        <v>11695.74907541275</v>
+        <v>10844.85682696104</v>
       </c>
       <c r="C31" t="n">
-        <v>9124.801508426666</v>
+        <v>9891.702465832233</v>
       </c>
       <c r="D31" t="n">
-        <v>39993.90570751426</v>
+        <v>39993.74725237095</v>
       </c>
       <c r="E31" t="n">
         <v>13522.308384706</v>
       </c>
       <c r="F31" t="n">
-        <v>27213.05173307844</v>
+        <v>27689.94408363304</v>
       </c>
     </row>
     <row r="32">
@@ -1012,19 +1079,19 @@
         <v>45383</v>
       </c>
       <c r="B32" t="n">
-        <v>11316.58247226477</v>
+        <v>10485.42467069626</v>
       </c>
       <c r="C32" t="n">
-        <v>8652.973589837551</v>
+        <v>9911.240960538387</v>
       </c>
       <c r="D32" t="n">
-        <v>33081.08357097686</v>
+        <v>33080.92354048813</v>
       </c>
       <c r="E32" t="n">
         <v>6891.437929709256</v>
       </c>
       <c r="F32" t="n">
-        <v>21193.34007310957</v>
+        <v>21577.77162969712</v>
       </c>
     </row>
     <row r="33">
@@ -1032,19 +1099,19 @@
         <v>45413</v>
       </c>
       <c r="B33" t="n">
-        <v>9494.23496067524</v>
+        <v>10082.08719462156</v>
       </c>
       <c r="C33" t="n">
-        <v>8835.052696526051</v>
+        <v>8489.106003463268</v>
       </c>
       <c r="D33" t="n">
-        <v>37075.82773649506</v>
+        <v>37075.69038319773</v>
       </c>
       <c r="E33" t="n">
         <v>11225.52198028152</v>
       </c>
       <c r="F33" t="n">
-        <v>24739.22192619902</v>
+        <v>25177.79727909769</v>
       </c>
     </row>
     <row r="34">
@@ -1052,19 +1119,19 @@
         <v>45444</v>
       </c>
       <c r="B34" t="n">
-        <v>10210.31812739372</v>
+        <v>10828.27308481932</v>
       </c>
       <c r="C34" t="n">
-        <v>8653.044923305511</v>
+        <v>10201.44097810984</v>
       </c>
       <c r="D34" t="n">
-        <v>41794.14120364036</v>
+        <v>41794.01585406331</v>
       </c>
       <c r="E34" t="n">
         <v>14991.45784198569</v>
       </c>
       <c r="F34" t="n">
-        <v>28570.99890112093</v>
+        <v>29203.5555095517</v>
       </c>
     </row>
     <row r="35">
@@ -1072,19 +1139,19 @@
         <v>45474</v>
       </c>
       <c r="B35" t="n">
-        <v>10079.68849933147</v>
+        <v>11091.38099503517</v>
       </c>
       <c r="C35" t="n">
-        <v>9542.146986842155</v>
+        <v>8879.085213363171</v>
       </c>
       <c r="D35" t="n">
-        <v>45927.97356839015</v>
+        <v>45927.86091708546</v>
       </c>
       <c r="E35" t="n">
         <v>19839.62288491453</v>
       </c>
       <c r="F35" t="n">
-        <v>32502.5447732612</v>
+        <v>33097.38465516741</v>
       </c>
     </row>
     <row r="36">
@@ -1092,19 +1159,19 @@
         <v>45505</v>
       </c>
       <c r="B36" t="n">
-        <v>10364.97853976488</v>
+        <v>11564.26774293184</v>
       </c>
       <c r="C36" t="n">
-        <v>9996.005747020245</v>
+        <v>8714.886742830276</v>
       </c>
       <c r="D36" t="n">
-        <v>38939.61816094066</v>
+        <v>38939.52466479897</v>
       </c>
       <c r="E36" t="n">
         <v>12731.61582631851</v>
       </c>
       <c r="F36" t="n">
-        <v>26379.45549937796</v>
+        <v>26809.15570385444</v>
       </c>
     </row>
     <row r="37">
@@ -1112,19 +1179,19 @@
         <v>45536</v>
       </c>
       <c r="B37" t="n">
-        <v>12471.04417717457</v>
+        <v>11313.29425722361</v>
       </c>
       <c r="C37" t="n">
-        <v>10988.84472119808</v>
+        <v>9732.963154196739</v>
       </c>
       <c r="D37" t="n">
-        <v>32949.0368789723</v>
+        <v>32948.93144974244</v>
       </c>
       <c r="E37" t="n">
-        <v>8127.890938154365</v>
+        <v>8127.890938154369</v>
       </c>
       <c r="F37" t="n">
-        <v>21778.40439014497</v>
+        <v>21967.64087296535</v>
       </c>
     </row>
     <row r="38">
@@ -1132,19 +1199,19 @@
         <v>45566</v>
       </c>
       <c r="B38" t="n">
-        <v>12148.15624248981</v>
+        <v>12370.55766624212</v>
       </c>
       <c r="C38" t="n">
-        <v>10973.76585739851</v>
+        <v>10473.90044814348</v>
       </c>
       <c r="D38" t="n">
-        <v>37329.44304588242</v>
+        <v>37329.3364902729</v>
       </c>
       <c r="E38" t="n">
         <v>9212.158812765581</v>
       </c>
       <c r="F38" t="n">
-        <v>24469.15668811078</v>
+        <v>24837.17165606148</v>
       </c>
     </row>
     <row r="39">
@@ -1152,19 +1219,19 @@
         <v>45597</v>
       </c>
       <c r="B39" t="n">
-        <v>15829.22273993492</v>
+        <v>17358.51087915897</v>
       </c>
       <c r="C39" t="n">
-        <v>14675.28959023952</v>
+        <v>14100.38223212957</v>
       </c>
       <c r="D39" t="n">
-        <v>40877.69359705205</v>
+        <v>40877.58643171906</v>
       </c>
       <c r="E39" t="n">
         <v>10191.64995863509</v>
       </c>
       <c r="F39" t="n">
-        <v>27151.06697016106</v>
+        <v>27566.73880629032</v>
       </c>
     </row>
   </sheetData>
@@ -1387,19 +1454,19 @@
         <v>20</v>
       </c>
       <c r="K2" t="n">
-        <v>16416.58245108072</v>
+        <v>16416.58245100206</v>
       </c>
       <c r="L2" t="n">
-        <v>4024.758668114843</v>
+        <v>4024.758668031866</v>
       </c>
       <c r="M2" t="n">
-        <v>15028.63735235668</v>
+        <v>15028.63735231806</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.7780860472989279</v>
+        <v>-0.778086047281888</v>
       </c>
       <c r="O2" t="n">
-        <v>8224.402857005538</v>
+        <v>8224.40285616714</v>
       </c>
       <c r="P2" t="n">
         <v>24441</v>
@@ -1408,19 +1475,19 @@
         <v>0.95</v>
       </c>
       <c r="R2" t="n">
-        <v>12152.41815087754</v>
+        <v>15450.22409483173</v>
       </c>
       <c r="S2" t="n">
-        <v>7080.301196427463</v>
+        <v>7080.303663366503</v>
       </c>
       <c r="T2" t="n">
-        <v>341.2371677265107</v>
+        <v>341.2365394302665</v>
       </c>
       <c r="U2" t="n">
-        <v>5022.369038343181</v>
+        <v>5022.367139073601</v>
       </c>
       <c r="V2" t="n">
-        <v>0.6811253655841066</v>
+        <v>0.6811251433776213</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
@@ -1431,16 +1498,16 @@
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="n">
-        <v>16416.58245108072</v>
+        <v>16416.58245100206</v>
       </c>
       <c r="AD2" t="n">
-        <v>4024.758668114843</v>
+        <v>4024.758668031866</v>
       </c>
       <c r="AE2" t="n">
-        <v>15028.63735235668</v>
+        <v>15028.63735231806</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.7780860472989279</v>
+        <v>-0.778086047281888</v>
       </c>
       <c r="AG2" t="b">
         <v>1</v>
@@ -1478,19 +1545,19 @@
         <v>20</v>
       </c>
       <c r="K3" t="n">
-        <v>17173.09345468718</v>
+        <v>17072.91818414826</v>
       </c>
       <c r="L3" t="n">
-        <v>4534.645817372109</v>
+        <v>4501.174217040045</v>
       </c>
       <c r="M3" t="n">
-        <v>15282.29609078871</v>
+        <v>15232.15868726431</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.9457378904598399</v>
+        <v>-0.9231040738073018</v>
       </c>
       <c r="O3" t="n">
-        <v>12840.990331709</v>
+        <v>12296.72215553415</v>
       </c>
       <c r="P3" t="n">
         <v>24441</v>
@@ -1499,19 +1566,19 @@
         <v>0.95</v>
       </c>
       <c r="R3" t="n">
-        <v>13552.08723987334</v>
+        <v>13599.43983535486</v>
       </c>
       <c r="S3" t="n">
-        <v>6342.621119786222</v>
+        <v>6248.37544768576</v>
       </c>
       <c r="T3" t="n">
-        <v>908.815675365987</v>
+        <v>891.7223785926619</v>
       </c>
       <c r="U3" t="n">
-        <v>4727.626960155379</v>
+        <v>4668.17754723943</v>
       </c>
       <c r="V3" t="n">
-        <v>0.7859019077644902</v>
+        <v>0.7922172483970288</v>
       </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
@@ -1524,20 +1591,20 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>(0.5328967752960574, 0.3442073459931468, 0.07445071732024512, 0.048445161390550676)</t>
+          <t>(0.5476827405887968, 0.3482653676621192, 0.05426255169555697, 0.04978934005352699)</t>
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>17173.09345468718</v>
+        <v>17072.91818414826</v>
       </c>
       <c r="AD3" t="n">
-        <v>4534.645817372109</v>
+        <v>4501.174217040045</v>
       </c>
       <c r="AE3" t="n">
-        <v>15282.29609078871</v>
+        <v>15232.15868726431</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.9457378904598399</v>
+        <v>-0.9231040738073018</v>
       </c>
       <c r="AG3" t="b">
         <v>0</v>
@@ -1589,7 +1656,7 @@
         <v>-0.9386316417146432</v>
       </c>
       <c r="O4" t="n">
-        <v>12264.18400963631</v>
+        <v>12264.18400963632</v>
       </c>
       <c r="P4" t="n">
         <v>24441</v>
@@ -1598,7 +1665,7 @@
         <v>0.95</v>
       </c>
       <c r="R4" t="n">
-        <v>20203.5996139179</v>
+        <v>23905.28080708805</v>
       </c>
       <c r="S4" t="n">
         <v>10099.32788859162</v>
@@ -1607,10 +1674,10 @@
         <v>1101.330755251163</v>
       </c>
       <c r="U4" t="n">
-        <v>8358.022866399384</v>
+        <v>8358.022866399386</v>
       </c>
       <c r="V4" t="n">
-        <v>0.3512140257761156</v>
+        <v>0.3512140257761155</v>
       </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
@@ -1674,19 +1741,19 @@
         <v>20</v>
       </c>
       <c r="K5" t="n">
-        <v>25536.61754367016</v>
+        <v>25516.93926853746</v>
       </c>
       <c r="L5" t="n">
-        <v>5932.272191129999</v>
+        <v>5967.347458262098</v>
       </c>
       <c r="M5" t="n">
-        <v>22008.52218046635</v>
+        <v>22019.48760737777</v>
       </c>
       <c r="N5" t="n">
-        <v>-3.30243198976688</v>
+        <v>-3.295803718071739</v>
       </c>
       <c r="O5" t="n">
-        <v>34198.74438020587</v>
+        <v>33780.36408749223</v>
       </c>
       <c r="P5" t="n">
         <v>24441</v>
@@ -1695,19 +1762,19 @@
         <v>0.95</v>
       </c>
       <c r="R5" t="n">
-        <v>29683.82808189859</v>
+        <v>34246.95822952298</v>
       </c>
       <c r="S5" t="n">
-        <v>12726.81100960343</v>
+        <v>12801.41532052844</v>
       </c>
       <c r="T5" t="n">
-        <v>1767.716818164707</v>
+        <v>1837.712026822736</v>
       </c>
       <c r="U5" t="n">
-        <v>9105.085841266173</v>
+        <v>9172.314995358032</v>
       </c>
       <c r="V5" t="n">
-        <v>0.1379857430496888</v>
+        <v>0.127849901242315</v>
       </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
@@ -1718,16 +1785,16 @@
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="n">
-        <v>25536.61754367016</v>
+        <v>25516.93926853746</v>
       </c>
       <c r="AD5" t="n">
-        <v>5932.272191129999</v>
+        <v>5967.347458262098</v>
       </c>
       <c r="AE5" t="n">
-        <v>22008.52218046635</v>
+        <v>22019.48760737777</v>
       </c>
       <c r="AF5" t="n">
-        <v>-3.30243198976688</v>
+        <v>-3.295803718071739</v>
       </c>
       <c r="AG5" t="b">
         <v>0</v>
@@ -1771,19 +1838,19 @@
         <v>20</v>
       </c>
       <c r="K6" t="n">
-        <v>25905.79456061367</v>
+        <v>25843.2195017784</v>
       </c>
       <c r="L6" t="n">
-        <v>6040.476741581246</v>
+        <v>5984.958433629008</v>
       </c>
       <c r="M6" t="n">
-        <v>22419.78433661014</v>
+        <v>22435.62672172785</v>
       </c>
       <c r="N6" t="n">
-        <v>-3.427729733338543</v>
+        <v>-3.406365337492526</v>
       </c>
       <c r="O6" t="n">
-        <v>34899.03310588002</v>
+        <v>33906.03996685147</v>
       </c>
       <c r="P6" t="n">
         <v>24441</v>
@@ -1792,19 +1859,19 @@
         <v>0.95</v>
       </c>
       <c r="R6" t="n">
-        <v>28858.44528016401</v>
+        <v>25807.16808408459</v>
       </c>
       <c r="S6" t="n">
-        <v>12685.58176730431</v>
+        <v>12556.06374157068</v>
       </c>
       <c r="T6" t="n">
-        <v>1779.203636306537</v>
+        <v>1792.907140144365</v>
       </c>
       <c r="U6" t="n">
-        <v>9170.021207177213</v>
+        <v>8998.774690862212</v>
       </c>
       <c r="V6" t="n">
-        <v>0.1435617867856284</v>
+        <v>0.1609607407009028</v>
       </c>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
@@ -1815,16 +1882,16 @@
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="n">
-        <v>25905.79456061367</v>
+        <v>25843.2195017784</v>
       </c>
       <c r="AD6" t="n">
-        <v>6040.476741581246</v>
+        <v>5984.958433629008</v>
       </c>
       <c r="AE6" t="n">
-        <v>22419.78433661014</v>
+        <v>22435.62672172785</v>
       </c>
       <c r="AF6" t="n">
-        <v>-3.427729733338543</v>
+        <v>-3.406365337492526</v>
       </c>
       <c r="AG6" t="b">
         <v>0</v>
@@ -2768,7 +2835,7 @@
         <v>44470</v>
       </c>
       <c r="B71" t="n">
-        <v>28821.40616691012</v>
+        <v>28821.40504053046</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2781,7 +2848,7 @@
         <v>44501</v>
       </c>
       <c r="B72" t="n">
-        <v>32369.65671807975</v>
+        <v>32369.65498197662</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2794,7 +2861,7 @@
         <v>44531</v>
       </c>
       <c r="B73" t="n">
-        <v>36742.88505581577</v>
+        <v>36742.89039458219</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2807,7 +2874,7 @@
         <v>44562</v>
       </c>
       <c r="B74" t="n">
-        <v>32394.68384174535</v>
+        <v>32394.59301656722</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2820,7 +2887,7 @@
         <v>44593</v>
       </c>
       <c r="B75" t="n">
-        <v>29450.43687876184</v>
+        <v>29450.34034542029</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2833,7 +2900,7 @@
         <v>44621</v>
       </c>
       <c r="B76" t="n">
-        <v>34321.88112153274</v>
+        <v>34321.79295254266</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2846,7 +2913,7 @@
         <v>44652</v>
       </c>
       <c r="B77" t="n">
-        <v>27409.05898499533</v>
+        <v>27408.96924065984</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2859,7 +2926,7 @@
         <v>44682</v>
       </c>
       <c r="B78" t="n">
-        <v>31403.80315051353</v>
+        <v>31403.73608336944</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2872,7 +2939,7 @@
         <v>44713</v>
       </c>
       <c r="B79" t="n">
-        <v>36122.11661765883</v>
+        <v>36122.06155423502</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2885,7 +2952,7 @@
         <v>44743</v>
       </c>
       <c r="B80" t="n">
-        <v>40255.94898240862</v>
+        <v>40255.90661725717</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2898,7 +2965,7 @@
         <v>44774</v>
       </c>
       <c r="B81" t="n">
-        <v>33267.59357495913</v>
+        <v>33267.57036497068</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2911,7 +2978,7 @@
         <v>44805</v>
       </c>
       <c r="B82" t="n">
-        <v>27277.01229299077</v>
+        <v>27276.97714991415</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2924,7 +2991,7 @@
         <v>44835</v>
       </c>
       <c r="B83" t="n">
-        <v>31657.41845990089</v>
+        <v>31657.3821904446</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2937,7 +3004,7 @@
         <v>44866</v>
       </c>
       <c r="B84" t="n">
-        <v>35205.66901107052</v>
+        <v>35205.63213189076</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2950,7 +3017,7 @@
         <v>44896</v>
       </c>
       <c r="B85" t="n">
-        <v>39578.89734880653</v>
+        <v>39578.86754449634</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2963,7 +3030,7 @@
         <v>44927</v>
       </c>
       <c r="B86" t="n">
-        <v>35230.69613473611</v>
+        <v>35230.57016648137</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2976,7 +3043,7 @@
         <v>44958</v>
       </c>
       <c r="B87" t="n">
-        <v>32286.4491717526</v>
+        <v>32286.31749533443</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2989,7 +3056,7 @@
         <v>44986</v>
       </c>
       <c r="B88" t="n">
-        <v>37157.8934145235</v>
+        <v>37157.77010245681</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -3002,7 +3069,7 @@
         <v>45017</v>
       </c>
       <c r="B89" t="n">
-        <v>30245.07127798609</v>
+        <v>30244.94639057399</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -3015,7 +3082,7 @@
         <v>45047</v>
       </c>
       <c r="B90" t="n">
-        <v>34239.81544350429</v>
+        <v>34239.71323328358</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -3028,7 +3095,7 @@
         <v>45078</v>
       </c>
       <c r="B91" t="n">
-        <v>38958.1289106496</v>
+        <v>38958.03870414916</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -3041,7 +3108,7 @@
         <v>45108</v>
       </c>
       <c r="B92" t="n">
-        <v>43091.96127539939</v>
+        <v>43091.88376717131</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -3054,7 +3121,7 @@
         <v>45139</v>
       </c>
       <c r="B93" t="n">
-        <v>36103.6058679499</v>
+        <v>36103.54751488482</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -3067,7 +3134,7 @@
         <v>45170</v>
       </c>
       <c r="B94" t="n">
-        <v>30113.02458598153</v>
+        <v>30112.95429982829</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -3080,7 +3147,7 @@
         <v>45200</v>
       </c>
       <c r="B95" t="n">
-        <v>34493.43075289165</v>
+        <v>34493.35934035875</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -3093,7 +3160,7 @@
         <v>45231</v>
       </c>
       <c r="B96" t="n">
-        <v>38041.68130406128</v>
+        <v>38041.60928180491</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -3106,7 +3173,7 @@
         <v>45261</v>
       </c>
       <c r="B97" t="n">
-        <v>42414.9096417973</v>
+        <v>42414.84469441049</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -3119,7 +3186,7 @@
         <v>45292</v>
       </c>
       <c r="B98" t="n">
-        <v>38066.70842772687</v>
+        <v>38066.54731639552</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -3132,7 +3199,7 @@
         <v>45323</v>
       </c>
       <c r="B99" t="n">
-        <v>35122.46146474336</v>
+        <v>35122.29464524858</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -3145,7 +3212,7 @@
         <v>45352</v>
       </c>
       <c r="B100" t="n">
-        <v>39993.90570751426</v>
+        <v>39993.74725237095</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -3158,7 +3225,7 @@
         <v>45383</v>
       </c>
       <c r="B101" t="n">
-        <v>33081.08357097686</v>
+        <v>33080.92354048813</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -3171,7 +3238,7 @@
         <v>45413</v>
       </c>
       <c r="B102" t="n">
-        <v>37075.82773649506</v>
+        <v>37075.69038319773</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -3184,7 +3251,7 @@
         <v>45444</v>
       </c>
       <c r="B103" t="n">
-        <v>41794.14120364036</v>
+        <v>41794.01585406331</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -3197,7 +3264,7 @@
         <v>45474</v>
       </c>
       <c r="B104" t="n">
-        <v>45927.97356839015</v>
+        <v>45927.86091708546</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -3210,7 +3277,7 @@
         <v>45505</v>
       </c>
       <c r="B105" t="n">
-        <v>38939.61816094066</v>
+        <v>38939.52466479897</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -3223,7 +3290,7 @@
         <v>45536</v>
       </c>
       <c r="B106" t="n">
-        <v>32949.0368789723</v>
+        <v>32948.93144974244</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -3236,7 +3303,7 @@
         <v>45566</v>
       </c>
       <c r="B107" t="n">
-        <v>37329.44304588242</v>
+        <v>37329.3364902729</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -3249,7 +3316,7 @@
         <v>45597</v>
       </c>
       <c r="B108" t="n">
-        <v>40877.69359705205</v>
+        <v>40877.58643171906</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -3321,19 +3388,19 @@
         <v>32859</v>
       </c>
       <c r="C2" t="n">
-        <v>27030.75485178942</v>
+        <v>27030.75485166851</v>
       </c>
       <c r="D2" t="n">
-        <v>28144.30833585639</v>
+        <v>27901.8581871556</v>
       </c>
       <c r="E2" t="n">
         <v>25636.74796623187</v>
       </c>
       <c r="F2" t="n">
-        <v>39410.17648008466</v>
+        <v>39444.21295660734</v>
       </c>
       <c r="G2" t="n">
-        <v>40896.41356617212</v>
+        <v>40748.58567836881</v>
       </c>
     </row>
     <row r="3">
@@ -3344,19 +3411,19 @@
         <v>21395</v>
       </c>
       <c r="C3" t="n">
-        <v>36911.28760756368</v>
+        <v>36911.28760734187</v>
       </c>
       <c r="D3" t="n">
-        <v>35592.03904777919</v>
+        <v>35591.3401040717</v>
       </c>
       <c r="E3" t="n">
         <v>32162.12668011403</v>
       </c>
       <c r="F3" t="n">
-        <v>39261.42604464293</v>
+        <v>39642.68515390158</v>
       </c>
       <c r="G3" t="n">
-        <v>39811.02046576142</v>
+        <v>40643.17423942685</v>
       </c>
     </row>
     <row r="4">
@@ -3367,19 +3434,19 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>23449.95451451954</v>
+        <v>23449.95451410332</v>
       </c>
       <c r="D4" t="n">
-        <v>27297.30138108577</v>
+        <v>26999.62277628307</v>
       </c>
       <c r="E4" t="n">
         <v>28839.64631935495</v>
       </c>
       <c r="F4" t="n">
-        <v>39221.80983406305</v>
+        <v>39083.08988177776</v>
       </c>
       <c r="G4" t="n">
-        <v>40333.9815094471</v>
+        <v>40006.33881443739</v>
       </c>
     </row>
     <row r="5">
@@ -3390,19 +3457,19 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>25985.32039644236</v>
+        <v>25985.32039589823</v>
       </c>
       <c r="D5" t="n">
-        <v>29690.26872007914</v>
+        <v>29499.39864110168</v>
       </c>
       <c r="E5" t="n">
         <v>31897.31050924737</v>
       </c>
       <c r="F5" t="n">
-        <v>39173.27632147074</v>
+        <v>40111.90038961172</v>
       </c>
       <c r="G5" t="n">
-        <v>40189.94061055779</v>
+        <v>39815.44059497118</v>
       </c>
     </row>
     <row r="6">
@@ -3413,19 +3480,19 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>31049.78982696999</v>
+        <v>31049.78982627104</v>
       </c>
       <c r="D6" t="n">
-        <v>33694.15258236679</v>
+        <v>33513.42089645958</v>
       </c>
       <c r="E6" t="n">
         <v>35450.02448003698</v>
       </c>
       <c r="F6" t="n">
-        <v>40228.92269310355</v>
+        <v>40130.60617887974</v>
       </c>
       <c r="G6" t="n">
-        <v>40263.85010963678</v>
+        <v>39855.55956438184</v>
       </c>
     </row>
     <row r="7">
@@ -3436,19 +3503,19 @@
         <v>9380</v>
       </c>
       <c r="C7" t="n">
-        <v>33100.84343425965</v>
+        <v>33100.84343347824</v>
       </c>
       <c r="D7" t="n">
-        <v>35744.82313925771</v>
+        <v>35645.66441290685</v>
       </c>
       <c r="E7" t="n">
         <v>37736.95180859242</v>
       </c>
       <c r="F7" t="n">
-        <v>41553.39984166622</v>
+        <v>42183.64803946018</v>
       </c>
       <c r="G7" t="n">
-        <v>41747.69785660505</v>
+        <v>41885.23054736853</v>
       </c>
     </row>
     <row r="8">
@@ -3459,19 +3526,19 @@
         <v>9721</v>
       </c>
       <c r="C8" t="n">
-        <v>24012.11030960462</v>
+        <v>24012.11030894395</v>
       </c>
       <c r="D8" t="n">
-        <v>27278.54396896173</v>
+        <v>26957.70507944702</v>
       </c>
       <c r="E8" t="n">
         <v>26640.85106003355</v>
       </c>
       <c r="F8" t="n">
-        <v>43373.43026959896</v>
+        <v>43300.86310696602</v>
       </c>
       <c r="G8" t="n">
-        <v>43005.49575096369</v>
+        <v>43764.09857457876</v>
       </c>
     </row>
     <row r="9">
@@ -3482,19 +3549,19 @@
         <v>10152</v>
       </c>
       <c r="C9" t="n">
-        <v>16089.9522281008</v>
+        <v>16089.95222756954</v>
       </c>
       <c r="D9" t="n">
-        <v>20841.04011529582</v>
+        <v>20364.89701530827</v>
       </c>
       <c r="E9" t="n">
         <v>20404.64347404926</v>
       </c>
       <c r="F9" t="n">
-        <v>42452.14693629742</v>
+        <v>42415.19366836548</v>
       </c>
       <c r="G9" t="n">
-        <v>42991.61012494564</v>
+        <v>43079.91591078043</v>
       </c>
     </row>
     <row r="10">
@@ -3505,19 +3572,19 @@
         <v>13029</v>
       </c>
       <c r="C10" t="n">
-        <v>22019.41356583558</v>
+        <v>22019.41356538294</v>
       </c>
       <c r="D10" t="n">
-        <v>25573.49219437055</v>
+        <v>25173.81129205032</v>
       </c>
       <c r="E10" t="n">
         <v>25002.86854929137</v>
       </c>
       <c r="F10" t="n">
-        <v>42437.39605146646</v>
+        <v>42312.92718839645</v>
       </c>
       <c r="G10" t="n">
-        <v>42806.17607414722</v>
+        <v>42388.95143532753</v>
       </c>
     </row>
     <row r="11">
@@ -3528,19 +3595,19 @@
         <v>14075</v>
       </c>
       <c r="C11" t="n">
-        <v>29245.17185976892</v>
+        <v>29245.17185939339</v>
       </c>
       <c r="D11" t="n">
-        <v>30238.37262695384</v>
+        <v>29911.8201654775</v>
       </c>
       <c r="E11" t="n">
         <v>27099.40536418543</v>
       </c>
       <c r="F11" t="n">
-        <v>43503.89075362682</v>
+        <v>42380.92112237215</v>
       </c>
       <c r="G11" t="n">
-        <v>43079.73219144344</v>
+        <v>43327.80860972404</v>
       </c>
     </row>
     <row r="12">
@@ -3551,19 +3618,19 @@
         <v>19024</v>
       </c>
       <c r="C12" t="n">
-        <v>31762.93829311599</v>
+        <v>31762.93829269388</v>
       </c>
       <c r="D12" t="n">
-        <v>33086.56005837364</v>
+        <v>32889.87381869406</v>
       </c>
       <c r="E12" t="n">
         <v>32089.60548487016</v>
       </c>
       <c r="F12" t="n">
-        <v>41428.97641456127</v>
+        <v>41474.87661665678</v>
       </c>
       <c r="G12" t="n">
-        <v>41909.19505572319</v>
+        <v>41527.5606058836</v>
       </c>
     </row>
     <row r="13">
@@ -3574,19 +3641,19 @@
         <v>12492</v>
       </c>
       <c r="C13" t="n">
-        <v>26423.45062890475</v>
+        <v>26423.45062859761</v>
       </c>
       <c r="D13" t="n">
-        <v>28092.84772940518</v>
+        <v>27783.74097603212</v>
       </c>
       <c r="E13" t="n">
         <v>25599.6216942816</v>
       </c>
       <c r="F13" t="n">
-        <v>42166.14729100466</v>
+        <v>41614.71666425467</v>
       </c>
       <c r="G13" t="n">
-        <v>42542.91416615248</v>
+        <v>42950.77504521608</v>
       </c>
     </row>
     <row r="14">
@@ -3597,19 +3664,19 @@
         <v>9706</v>
       </c>
       <c r="C14" t="n">
-        <v>19165.20548069416</v>
+        <v>19165.20548026611</v>
       </c>
       <c r="D14" t="n">
-        <v>22483.98131987646</v>
+        <v>22047.55853867053</v>
       </c>
       <c r="E14" t="n">
         <v>21143.16410197598</v>
       </c>
       <c r="F14" t="n">
-        <v>40262.85150614381</v>
+        <v>39925.72849825025</v>
       </c>
       <c r="G14" t="n">
-        <v>41194.50708007812</v>
+        <v>40595.08619683981</v>
       </c>
     </row>
     <row r="15">
@@ -3620,19 +3687,19 @@
         <v>21639</v>
       </c>
       <c r="C15" t="n">
-        <v>29045.73823646842</v>
+        <v>29045.73823593947</v>
       </c>
       <c r="D15" t="n">
-        <v>29552.3415411861</v>
+        <v>29343.7863595998</v>
       </c>
       <c r="E15" t="n">
         <v>26548.24840430291</v>
       </c>
       <c r="F15" t="n">
-        <v>40349.44652912021</v>
+        <v>40242.60286954045</v>
       </c>
       <c r="G15" t="n">
-        <v>39876.30305790901</v>
+        <v>40298.4861433506</v>
       </c>
     </row>
     <row r="16">
@@ -3643,19 +3710,19 @@
         <v>24212</v>
       </c>
       <c r="C16" t="n">
-        <v>15584.40514342428</v>
+        <v>15584.40514270092</v>
       </c>
       <c r="D16" t="n">
-        <v>20294.73273361564</v>
+        <v>19829.56859496069</v>
       </c>
       <c r="E16" t="n">
         <v>20867.09090914073</v>
       </c>
       <c r="F16" t="n">
-        <v>38615.04412829876</v>
+        <v>38601.65632241964</v>
       </c>
       <c r="G16" t="n">
-        <v>39886.95087754726</v>
+        <v>38810.50471130013</v>
       </c>
     </row>
     <row r="17">
@@ -3666,19 +3733,19 @@
         <v>31712</v>
       </c>
       <c r="C17" t="n">
-        <v>18119.7710253471</v>
+        <v>18119.77102449583</v>
       </c>
       <c r="D17" t="n">
-        <v>22666.57187330622</v>
+        <v>22319.23376563005</v>
       </c>
       <c r="E17" t="n">
         <v>24097.3534809364</v>
       </c>
       <c r="F17" t="n">
-        <v>38109.39616277814</v>
+        <v>38502.48837772012</v>
       </c>
       <c r="G17" t="n">
-        <v>38782.95174944401</v>
+        <v>38438.56886452436</v>
       </c>
     </row>
     <row r="18">
@@ -3689,19 +3756,19 @@
         <v>38906</v>
       </c>
       <c r="C18" t="n">
-        <v>23184.24045587473</v>
+        <v>23184.24045486865</v>
       </c>
       <c r="D18" t="n">
-        <v>26987.57447543481</v>
+        <v>26650.98325610655</v>
       </c>
       <c r="E18" t="n">
         <v>28642.71939095779</v>
       </c>
       <c r="F18" t="n">
-        <v>38876.94493281841</v>
+        <v>38454.38650679588</v>
       </c>
       <c r="G18" t="n">
-        <v>38792.65924215317</v>
+        <v>37989.54892754555</v>
       </c>
     </row>
     <row r="19">
@@ -3712,19 +3779,19 @@
         <v>41176</v>
       </c>
       <c r="C19" t="n">
-        <v>25235.29406316439</v>
+        <v>25235.29406207584</v>
       </c>
       <c r="D19" t="n">
-        <v>28597.44114953719</v>
+        <v>28384.9614669391</v>
       </c>
       <c r="E19" t="n">
         <v>31296.832209261</v>
       </c>
       <c r="F19" t="n">
-        <v>35723.90724775195</v>
+        <v>35051.33841171861</v>
       </c>
       <c r="G19" t="n">
-        <v>35449.65477490425</v>
+        <v>35398.11162349582</v>
       </c>
     </row>
     <row r="20">
@@ -3735,19 +3802,19 @@
         <v>33147</v>
       </c>
       <c r="C20" t="n">
-        <v>16146.56093850937</v>
+        <v>16146.56093754155</v>
       </c>
       <c r="D20" t="n">
-        <v>19825.22370975847</v>
+        <v>19533.13890449012</v>
       </c>
       <c r="E20" t="n">
         <v>19855.58052111302</v>
       </c>
       <c r="F20" t="n">
-        <v>35929.81415176392</v>
+        <v>35651.99594339728</v>
       </c>
       <c r="G20" t="n">
-        <v>35325.22739684582</v>
+        <v>36963.0694822669</v>
       </c>
     </row>
     <row r="21">
@@ -3758,19 +3825,19 @@
         <v>24441</v>
       </c>
       <c r="C21" t="n">
-        <v>8224.402857005538</v>
+        <v>8224.40285616714</v>
       </c>
       <c r="D21" t="n">
-        <v>12840.990331709</v>
+        <v>12296.72215553415</v>
       </c>
       <c r="E21" t="n">
-        <v>12264.18400963631</v>
+        <v>12264.18400963632</v>
       </c>
       <c r="F21" t="n">
-        <v>34198.74438020587</v>
+        <v>33780.36408749223</v>
       </c>
       <c r="G21" t="n">
-        <v>34899.03310588002</v>
+        <v>33906.03996685147</v>
       </c>
     </row>
   </sheetData>
@@ -3837,19 +3904,19 @@
         <v>32859</v>
       </c>
       <c r="C2" t="n">
-        <v>27030.75485178942</v>
+        <v>27030.75485166851</v>
       </c>
       <c r="D2" t="n">
-        <v>28144.30833585639</v>
+        <v>27901.8581871556</v>
       </c>
       <c r="E2" t="n">
         <v>25636.74796623187</v>
       </c>
       <c r="F2" t="n">
-        <v>39410.17648008466</v>
+        <v>39444.21295660734</v>
       </c>
       <c r="G2" t="n">
-        <v>40896.41356617212</v>
+        <v>40748.58567836881</v>
       </c>
     </row>
     <row r="3">
@@ -3860,19 +3927,19 @@
         <v>21395</v>
       </c>
       <c r="C3" t="n">
-        <v>36911.28760756368</v>
+        <v>36911.28760734187</v>
       </c>
       <c r="D3" t="n">
-        <v>35592.03904777919</v>
+        <v>35591.3401040717</v>
       </c>
       <c r="E3" t="n">
         <v>32162.12668011403</v>
       </c>
       <c r="F3" t="n">
-        <v>39261.42604464293</v>
+        <v>39642.68515390158</v>
       </c>
       <c r="G3" t="n">
-        <v>39811.02046576142</v>
+        <v>40643.17423942685</v>
       </c>
     </row>
     <row r="4">
@@ -3883,19 +3950,19 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>23449.95451451954</v>
+        <v>23449.95451410332</v>
       </c>
       <c r="D4" t="n">
-        <v>27297.30138108577</v>
+        <v>26999.62277628307</v>
       </c>
       <c r="E4" t="n">
         <v>28839.64631935495</v>
       </c>
       <c r="F4" t="n">
-        <v>39221.80983406305</v>
+        <v>39083.08988177776</v>
       </c>
       <c r="G4" t="n">
-        <v>40333.9815094471</v>
+        <v>40006.33881443739</v>
       </c>
     </row>
     <row r="5">
@@ -3906,19 +3973,19 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>25985.32039644236</v>
+        <v>25985.32039589823</v>
       </c>
       <c r="D5" t="n">
-        <v>29690.26872007914</v>
+        <v>29499.39864110168</v>
       </c>
       <c r="E5" t="n">
         <v>31897.31050924737</v>
       </c>
       <c r="F5" t="n">
-        <v>39173.27632147074</v>
+        <v>40111.90038961172</v>
       </c>
       <c r="G5" t="n">
-        <v>40189.94061055779</v>
+        <v>39815.44059497118</v>
       </c>
     </row>
     <row r="6">
@@ -3929,19 +3996,19 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>31049.78982696999</v>
+        <v>31049.78982627104</v>
       </c>
       <c r="D6" t="n">
-        <v>33694.15258236679</v>
+        <v>33513.42089645958</v>
       </c>
       <c r="E6" t="n">
         <v>35450.02448003698</v>
       </c>
       <c r="F6" t="n">
-        <v>40228.92269310355</v>
+        <v>40130.60617887974</v>
       </c>
       <c r="G6" t="n">
-        <v>40263.85010963678</v>
+        <v>39855.55956438184</v>
       </c>
     </row>
     <row r="7">
@@ -3952,19 +4019,19 @@
         <v>9380</v>
       </c>
       <c r="C7" t="n">
-        <v>33100.84343425965</v>
+        <v>33100.84343347824</v>
       </c>
       <c r="D7" t="n">
-        <v>35744.82313925771</v>
+        <v>35645.66441290685</v>
       </c>
       <c r="E7" t="n">
         <v>37736.95180859242</v>
       </c>
       <c r="F7" t="n">
-        <v>41553.39984166622</v>
+        <v>42183.64803946018</v>
       </c>
       <c r="G7" t="n">
-        <v>41747.69785660505</v>
+        <v>41885.23054736853</v>
       </c>
     </row>
     <row r="8">
@@ -3975,19 +4042,19 @@
         <v>9721</v>
       </c>
       <c r="C8" t="n">
-        <v>24012.11030960462</v>
+        <v>24012.11030894395</v>
       </c>
       <c r="D8" t="n">
-        <v>27278.54396896173</v>
+        <v>26957.70507944702</v>
       </c>
       <c r="E8" t="n">
         <v>26640.85106003355</v>
       </c>
       <c r="F8" t="n">
-        <v>43373.43026959896</v>
+        <v>43300.86310696602</v>
       </c>
       <c r="G8" t="n">
-        <v>43005.49575096369</v>
+        <v>43764.09857457876</v>
       </c>
     </row>
     <row r="9">
@@ -3998,19 +4065,19 @@
         <v>10152</v>
       </c>
       <c r="C9" t="n">
-        <v>16089.9522281008</v>
+        <v>16089.95222756954</v>
       </c>
       <c r="D9" t="n">
-        <v>20841.04011529582</v>
+        <v>20364.89701530827</v>
       </c>
       <c r="E9" t="n">
         <v>20404.64347404926</v>
       </c>
       <c r="F9" t="n">
-        <v>42452.14693629742</v>
+        <v>42415.19366836548</v>
       </c>
       <c r="G9" t="n">
-        <v>42991.61012494564</v>
+        <v>43079.91591078043</v>
       </c>
     </row>
     <row r="10">
@@ -4021,19 +4088,19 @@
         <v>13029</v>
       </c>
       <c r="C10" t="n">
-        <v>22019.41356583558</v>
+        <v>22019.41356538294</v>
       </c>
       <c r="D10" t="n">
-        <v>25573.49219437055</v>
+        <v>25173.81129205032</v>
       </c>
       <c r="E10" t="n">
         <v>25002.86854929137</v>
       </c>
       <c r="F10" t="n">
-        <v>42437.39605146646</v>
+        <v>42312.92718839645</v>
       </c>
       <c r="G10" t="n">
-        <v>42806.17607414722</v>
+        <v>42388.95143532753</v>
       </c>
     </row>
     <row r="11">
@@ -4044,19 +4111,19 @@
         <v>14075</v>
       </c>
       <c r="C11" t="n">
-        <v>29245.17185976892</v>
+        <v>29245.17185939339</v>
       </c>
       <c r="D11" t="n">
-        <v>30238.37262695384</v>
+        <v>29911.8201654775</v>
       </c>
       <c r="E11" t="n">
         <v>27099.40536418543</v>
       </c>
       <c r="F11" t="n">
-        <v>43503.89075362682</v>
+        <v>42380.92112237215</v>
       </c>
       <c r="G11" t="n">
-        <v>43079.73219144344</v>
+        <v>43327.80860972404</v>
       </c>
     </row>
     <row r="12">
@@ -4067,19 +4134,19 @@
         <v>19024</v>
       </c>
       <c r="C12" t="n">
-        <v>31762.93829311599</v>
+        <v>31762.93829269388</v>
       </c>
       <c r="D12" t="n">
-        <v>33086.56005837364</v>
+        <v>32889.87381869406</v>
       </c>
       <c r="E12" t="n">
         <v>32089.60548487016</v>
       </c>
       <c r="F12" t="n">
-        <v>41428.97641456127</v>
+        <v>41474.87661665678</v>
       </c>
       <c r="G12" t="n">
-        <v>41909.19505572319</v>
+        <v>41527.5606058836</v>
       </c>
     </row>
     <row r="13">
@@ -4090,19 +4157,19 @@
         <v>12492</v>
       </c>
       <c r="C13" t="n">
-        <v>26423.45062890475</v>
+        <v>26423.45062859761</v>
       </c>
       <c r="D13" t="n">
-        <v>28092.84772940518</v>
+        <v>27783.74097603212</v>
       </c>
       <c r="E13" t="n">
         <v>25599.6216942816</v>
       </c>
       <c r="F13" t="n">
-        <v>42166.14729100466</v>
+        <v>41614.71666425467</v>
       </c>
       <c r="G13" t="n">
-        <v>42542.91416615248</v>
+        <v>42950.77504521608</v>
       </c>
     </row>
     <row r="14">
@@ -4113,19 +4180,19 @@
         <v>9706</v>
       </c>
       <c r="C14" t="n">
-        <v>19165.20548069416</v>
+        <v>19165.20548026611</v>
       </c>
       <c r="D14" t="n">
-        <v>22483.98131987646</v>
+        <v>22047.55853867053</v>
       </c>
       <c r="E14" t="n">
         <v>21143.16410197598</v>
       </c>
       <c r="F14" t="n">
-        <v>40262.85150614381</v>
+        <v>39925.72849825025</v>
       </c>
       <c r="G14" t="n">
-        <v>41194.50708007812</v>
+        <v>40595.08619683981</v>
       </c>
     </row>
     <row r="15">
@@ -4136,19 +4203,19 @@
         <v>21639</v>
       </c>
       <c r="C15" t="n">
-        <v>29045.73823646842</v>
+        <v>29045.73823593947</v>
       </c>
       <c r="D15" t="n">
-        <v>29552.3415411861</v>
+        <v>29343.7863595998</v>
       </c>
       <c r="E15" t="n">
         <v>26548.24840430291</v>
       </c>
       <c r="F15" t="n">
-        <v>40349.44652912021</v>
+        <v>40242.60286954045</v>
       </c>
       <c r="G15" t="n">
-        <v>39876.30305790901</v>
+        <v>40298.4861433506</v>
       </c>
     </row>
     <row r="16">
@@ -4159,19 +4226,19 @@
         <v>24212</v>
       </c>
       <c r="C16" t="n">
-        <v>15584.40514342428</v>
+        <v>15584.40514270092</v>
       </c>
       <c r="D16" t="n">
-        <v>20294.73273361564</v>
+        <v>19829.56859496069</v>
       </c>
       <c r="E16" t="n">
         <v>20867.09090914073</v>
       </c>
       <c r="F16" t="n">
-        <v>38615.04412829876</v>
+        <v>38601.65632241964</v>
       </c>
       <c r="G16" t="n">
-        <v>39886.95087754726</v>
+        <v>38810.50471130013</v>
       </c>
     </row>
     <row r="17">
@@ -4182,19 +4249,19 @@
         <v>31712</v>
       </c>
       <c r="C17" t="n">
-        <v>18119.7710253471</v>
+        <v>18119.77102449583</v>
       </c>
       <c r="D17" t="n">
-        <v>22666.57187330622</v>
+        <v>22319.23376563005</v>
       </c>
       <c r="E17" t="n">
         <v>24097.3534809364</v>
       </c>
       <c r="F17" t="n">
-        <v>38109.39616277814</v>
+        <v>38502.48837772012</v>
       </c>
       <c r="G17" t="n">
-        <v>38782.95174944401</v>
+        <v>38438.56886452436</v>
       </c>
     </row>
     <row r="18">
@@ -4205,19 +4272,19 @@
         <v>38906</v>
       </c>
       <c r="C18" t="n">
-        <v>23184.24045587473</v>
+        <v>23184.24045486865</v>
       </c>
       <c r="D18" t="n">
-        <v>26987.57447543481</v>
+        <v>26650.98325610655</v>
       </c>
       <c r="E18" t="n">
         <v>28642.71939095779</v>
       </c>
       <c r="F18" t="n">
-        <v>38876.94493281841</v>
+        <v>38454.38650679588</v>
       </c>
       <c r="G18" t="n">
-        <v>38792.65924215317</v>
+        <v>37989.54892754555</v>
       </c>
     </row>
     <row r="19">
@@ -4228,19 +4295,19 @@
         <v>41176</v>
       </c>
       <c r="C19" t="n">
-        <v>25235.29406316439</v>
+        <v>25235.29406207584</v>
       </c>
       <c r="D19" t="n">
-        <v>28597.44114953719</v>
+        <v>28384.9614669391</v>
       </c>
       <c r="E19" t="n">
         <v>31296.832209261</v>
       </c>
       <c r="F19" t="n">
-        <v>35723.90724775195</v>
+        <v>35051.33841171861</v>
       </c>
       <c r="G19" t="n">
-        <v>35449.65477490425</v>
+        <v>35398.11162349582</v>
       </c>
     </row>
     <row r="20">
@@ -4251,19 +4318,19 @@
         <v>33147</v>
       </c>
       <c r="C20" t="n">
-        <v>16146.56093850937</v>
+        <v>16146.56093754155</v>
       </c>
       <c r="D20" t="n">
-        <v>19825.22370975847</v>
+        <v>19533.13890449012</v>
       </c>
       <c r="E20" t="n">
         <v>19855.58052111302</v>
       </c>
       <c r="F20" t="n">
-        <v>35929.81415176392</v>
+        <v>35651.99594339728</v>
       </c>
       <c r="G20" t="n">
-        <v>35325.22739684582</v>
+        <v>36963.0694822669</v>
       </c>
     </row>
     <row r="21">
@@ -4274,19 +4341,19 @@
         <v>24441</v>
       </c>
       <c r="C21" t="n">
-        <v>8224.402857005538</v>
+        <v>8224.40285616714</v>
       </c>
       <c r="D21" t="n">
-        <v>12840.990331709</v>
+        <v>12296.72215553415</v>
       </c>
       <c r="E21" t="n">
-        <v>12264.18400963631</v>
+        <v>12264.18400963632</v>
       </c>
       <c r="F21" t="n">
-        <v>34198.74438020587</v>
+        <v>33780.36408749223</v>
       </c>
       <c r="G21" t="n">
-        <v>34899.03310588002</v>
+        <v>33906.03996685147</v>
       </c>
     </row>
   </sheetData>
@@ -4345,19 +4412,19 @@
         <v>44470</v>
       </c>
       <c r="B2" t="n">
-        <v>28821.40616691012</v>
+        <v>28821.40504053046</v>
       </c>
       <c r="C2" t="n">
-        <v>26378.67128622435</v>
+        <v>26243.78500016212</v>
       </c>
       <c r="D2" t="n">
-        <v>19528.73090641263</v>
+        <v>19528.73090641264</v>
       </c>
       <c r="E2" t="n">
-        <v>32501.18805217743</v>
+        <v>32806.06901311874</v>
       </c>
       <c r="F2" t="n">
-        <v>38768.93845152855</v>
+        <v>37708.4177672863</v>
       </c>
     </row>
     <row r="3">
@@ -4365,19 +4432,19 @@
         <v>44501</v>
       </c>
       <c r="B3" t="n">
-        <v>32369.65671807975</v>
+        <v>32369.65498197662</v>
       </c>
       <c r="C3" t="n">
-        <v>29341.35758694849</v>
+        <v>29324.17711392631</v>
       </c>
       <c r="D3" t="n">
         <v>23129.51227480709</v>
       </c>
       <c r="E3" t="n">
-        <v>31670.55708694458</v>
+        <v>30125.8351354599</v>
       </c>
       <c r="F3" t="n">
-        <v>36586.27871775627</v>
+        <v>38280.5431201458</v>
       </c>
     </row>
     <row r="4">
@@ -4385,19 +4452,19 @@
         <v>44531</v>
       </c>
       <c r="B4" t="n">
-        <v>36742.88505581577</v>
+        <v>36742.89039458219</v>
       </c>
       <c r="C4" t="n">
-        <v>33325.33746280208</v>
+        <v>33366.40438303646</v>
       </c>
       <c r="D4" t="n">
-        <v>28141.42346625903</v>
+        <v>28141.42346625904</v>
       </c>
       <c r="E4" t="n">
-        <v>31317.13155245781</v>
+        <v>30516.86973690987</v>
       </c>
       <c r="F4" t="n">
-        <v>35650.7205183506</v>
+        <v>35878.1831805706</v>
       </c>
     </row>
     <row r="5">
@@ -4405,19 +4472,19 @@
         <v>44562</v>
       </c>
       <c r="B5" t="n">
-        <v>32394.68384174535</v>
+        <v>32394.59301656722</v>
       </c>
       <c r="C5" t="n">
-        <v>28236.87182104962</v>
+        <v>28228.19670407232</v>
       </c>
       <c r="D5" t="n">
-        <v>19907.21823224365</v>
+        <v>19907.21823224366</v>
       </c>
       <c r="E5" t="n">
-        <v>31493.18255138397</v>
+        <v>31196.23593473434</v>
       </c>
       <c r="F5" t="n">
-        <v>36679.58633160591</v>
+        <v>37366.53622245789</v>
       </c>
     </row>
     <row r="6">
@@ -4425,19 +4492,19 @@
         <v>44593</v>
       </c>
       <c r="B6" t="n">
-        <v>29450.43687876184</v>
+        <v>29450.34034542029</v>
       </c>
       <c r="C6" t="n">
-        <v>25911.01865463601</v>
+        <v>25830.34079207206</v>
       </c>
       <c r="D6" t="n">
-        <v>17204.3047635294</v>
+        <v>17204.30476352941</v>
       </c>
       <c r="E6" t="n">
-        <v>33239.75930953026</v>
+        <v>32454.56518507004</v>
       </c>
       <c r="F6" t="n">
-        <v>37576.58664298058</v>
+        <v>39128.18754720688</v>
       </c>
     </row>
     <row r="7">
@@ -4445,19 +4512,19 @@
         <v>44621</v>
       </c>
       <c r="B7" t="n">
-        <v>34321.88112153274</v>
+        <v>34321.79295254266</v>
       </c>
       <c r="C7" t="n">
-        <v>30367.56866665284</v>
+        <v>30355.03460140862</v>
       </c>
       <c r="D7" t="n">
         <v>22264.59026738248</v>
       </c>
       <c r="E7" t="n">
-        <v>34193.84702181816</v>
+        <v>34177.89238929749</v>
       </c>
       <c r="F7" t="n">
-        <v>38562.30172419548</v>
+        <v>39145.23882436752</v>
       </c>
     </row>
     <row r="8">
@@ -4465,19 +4532,19 @@
         <v>44652</v>
       </c>
       <c r="B8" t="n">
-        <v>27409.05898499533</v>
+        <v>27408.96924065984</v>
       </c>
       <c r="C8" t="n">
-        <v>24045.90826233962</v>
+        <v>23933.93836934627</v>
       </c>
       <c r="D8" t="n">
-        <v>14683.0048841415</v>
+        <v>14683.00488414149</v>
       </c>
       <c r="E8" t="n">
-        <v>33911.96122074127</v>
+        <v>34243.92483520508</v>
       </c>
       <c r="F8" t="n">
-        <v>38413.35400533676</v>
+        <v>39180.558344841</v>
       </c>
     </row>
     <row r="9">
@@ -4485,19 +4552,19 @@
         <v>44682</v>
       </c>
       <c r="B9" t="n">
-        <v>31403.80315051353</v>
+        <v>31403.73608336944</v>
       </c>
       <c r="C9" t="n">
-        <v>27473.42269905955</v>
+        <v>27382.8538199851</v>
       </c>
       <c r="D9" t="n">
-        <v>18388.23141479355</v>
+        <v>18388.23141479356</v>
       </c>
       <c r="E9" t="n">
-        <v>34078.79559183121</v>
+        <v>33475.31445288658</v>
       </c>
       <c r="F9" t="n">
-        <v>38639.197483778</v>
+        <v>39428.70943164825</v>
       </c>
     </row>
     <row r="10">
@@ -4505,19 +4572,19 @@
         <v>44713</v>
       </c>
       <c r="B10" t="n">
-        <v>36122.11661765883</v>
+        <v>36122.06155423502</v>
       </c>
       <c r="C10" t="n">
-        <v>32039.91130542334</v>
+        <v>32017.40968344181</v>
       </c>
       <c r="D10" t="n">
         <v>24411.43665927032</v>
       </c>
       <c r="E10" t="n">
-        <v>33490.95624947548</v>
+        <v>34298.62299466133</v>
       </c>
       <c r="F10" t="n">
-        <v>39106.69812512398</v>
+        <v>37582.1661233902</v>
       </c>
     </row>
     <row r="11">
@@ -4525,19 +4592,19 @@
         <v>44743</v>
       </c>
       <c r="B11" t="n">
-        <v>40255.94898240862</v>
+        <v>40255.90661725717</v>
       </c>
       <c r="C11" t="n">
-        <v>35514.00725389567</v>
+        <v>35602.36674956624</v>
       </c>
       <c r="D11" t="n">
         <v>28095.39572557426</v>
       </c>
       <c r="E11" t="n">
-        <v>33365.69467973709</v>
+        <v>33927.11829352379</v>
       </c>
       <c r="F11" t="n">
-        <v>39364.10365509987</v>
+        <v>38748.77944159508</v>
       </c>
     </row>
     <row r="12">
@@ -4545,19 +4612,19 @@
         <v>44774</v>
       </c>
       <c r="B12" t="n">
-        <v>33267.59357495913</v>
+        <v>33267.57036497068</v>
       </c>
       <c r="C12" t="n">
-        <v>28274.56877818644</v>
+        <v>28220.59751855483</v>
       </c>
       <c r="D12" t="n">
         <v>18353.19117831365</v>
       </c>
       <c r="E12" t="n">
-        <v>31974.74018311501</v>
+        <v>32175.75961470604</v>
       </c>
       <c r="F12" t="n">
-        <v>38157.16200375557</v>
+        <v>37413.70569300652</v>
       </c>
     </row>
     <row r="13">
@@ -4565,19 +4632,19 @@
         <v>44805</v>
       </c>
       <c r="B13" t="n">
-        <v>27277.01229299077</v>
+        <v>27276.97714991415</v>
       </c>
       <c r="C13" t="n">
-        <v>22495.01181992888</v>
+        <v>22294.37076882497</v>
       </c>
       <c r="D13" t="n">
         <v>10506.09552529317</v>
       </c>
       <c r="E13" t="n">
-        <v>33071.90736222267</v>
+        <v>32780.179261446</v>
       </c>
       <c r="F13" t="n">
-        <v>38820.74889469147</v>
+        <v>38514.18343257904</v>
       </c>
     </row>
     <row r="14">
@@ -4585,19 +4652,19 @@
         <v>44835</v>
       </c>
       <c r="B14" t="n">
-        <v>31657.41845990089</v>
+        <v>31657.3821904446</v>
       </c>
       <c r="C14" t="n">
-        <v>26476.25921596823</v>
+        <v>26371.12617588643</v>
       </c>
       <c r="D14" t="n">
         <v>15637.361206851</v>
       </c>
       <c r="E14" t="n">
-        <v>32078.78047585487</v>
+        <v>32291.25795316696</v>
       </c>
       <c r="F14" t="n">
-        <v>37884.90192365646</v>
+        <v>36850.59757804871</v>
       </c>
     </row>
     <row r="15">
@@ -4605,19 +4672,19 @@
         <v>44866</v>
       </c>
       <c r="B15" t="n">
-        <v>35205.66901107052</v>
+        <v>35205.63213189076</v>
       </c>
       <c r="C15" t="n">
-        <v>30411.20119391005</v>
+        <v>30323.21796546133</v>
       </c>
       <c r="D15" t="n">
-        <v>21822.97404463771</v>
+        <v>21822.9740446377</v>
       </c>
       <c r="E15" t="n">
-        <v>31669.67358326912</v>
+        <v>30524.85908532143</v>
       </c>
       <c r="F15" t="n">
-        <v>36758.17690563202</v>
+        <v>35854.22201085091</v>
       </c>
     </row>
     <row r="16">
@@ -4625,19 +4692,19 @@
         <v>44896</v>
       </c>
       <c r="B16" t="n">
-        <v>39578.89734880653</v>
+        <v>39578.86754449634</v>
       </c>
       <c r="C16" t="n">
-        <v>34282.6732339341</v>
+        <v>34306.70248301864</v>
       </c>
       <c r="D16" t="n">
         <v>26784.80634910359</v>
       </c>
       <c r="E16" t="n">
-        <v>31133.6068687439</v>
+        <v>29448.07093262672</v>
       </c>
       <c r="F16" t="n">
-        <v>34136.74243211746</v>
+        <v>34222.02288222313</v>
       </c>
     </row>
     <row r="17">
@@ -4645,19 +4712,19 @@
         <v>44927</v>
       </c>
       <c r="B17" t="n">
-        <v>35230.69613473611</v>
+        <v>35230.57016648137</v>
       </c>
       <c r="C17" t="n">
-        <v>27632.94882322379</v>
+        <v>27796.91846843692</v>
       </c>
       <c r="D17" t="n">
         <v>14879.81879972061</v>
       </c>
       <c r="E17" t="n">
-        <v>28312.12413012981</v>
+        <v>29452.31656312943</v>
       </c>
       <c r="F17" t="n">
-        <v>33626.13574957848</v>
+        <v>34574.86743569374</v>
       </c>
     </row>
     <row r="18">
@@ -4665,19 +4732,19 @@
         <v>44958</v>
       </c>
       <c r="B18" t="n">
-        <v>32286.4491717526</v>
+        <v>32286.31749533443</v>
       </c>
       <c r="C18" t="n">
-        <v>25040.7211407187</v>
+        <v>25019.06390169228</v>
       </c>
       <c r="D18" t="n">
         <v>11361.82956669037</v>
       </c>
       <c r="E18" t="n">
-        <v>30082.46094918251</v>
+        <v>30224.14812421799</v>
       </c>
       <c r="F18" t="n">
-        <v>34779.33493804932</v>
+        <v>34935.86978769302</v>
       </c>
     </row>
     <row r="19">
@@ -4685,19 +4752,19 @@
         <v>44986</v>
       </c>
       <c r="B19" t="n">
-        <v>37157.8934145235</v>
+        <v>37157.77010245681</v>
       </c>
       <c r="C19" t="n">
-        <v>30283.58529770936</v>
+        <v>30383.52465756608</v>
       </c>
       <c r="D19" t="n">
         <v>19550.02222848214</v>
       </c>
       <c r="E19" t="n">
-        <v>28276.30957257748</v>
+        <v>28894.83605718613</v>
       </c>
       <c r="F19" t="n">
-        <v>34013.94229674339</v>
+        <v>33267.20292758942</v>
       </c>
     </row>
     <row r="20">
@@ -4705,19 +4772,19 @@
         <v>45017</v>
       </c>
       <c r="B20" t="n">
-        <v>30245.07127798609</v>
+        <v>30244.94639057399</v>
       </c>
       <c r="C20" t="n">
-        <v>23616.40113281348</v>
+        <v>23665.8518143553</v>
       </c>
       <c r="D20" t="n">
         <v>11451.98723247274</v>
       </c>
       <c r="E20" t="n">
-        <v>27640.15942418575</v>
+        <v>27900.23437285423</v>
       </c>
       <c r="F20" t="n">
-        <v>30946.58598566055</v>
+        <v>32114.26844644547</v>
       </c>
     </row>
     <row r="21">
@@ -4725,19 +4792,19 @@
         <v>45047</v>
       </c>
       <c r="B21" t="n">
-        <v>34239.81544350429</v>
+        <v>34239.71323328358</v>
       </c>
       <c r="C21" t="n">
-        <v>26902.46656271205</v>
+        <v>26950.70933213821</v>
       </c>
       <c r="D21" t="n">
         <v>14844.27278357647</v>
       </c>
       <c r="E21" t="n">
-        <v>26889.04207086563</v>
+        <v>27381.27222073078</v>
       </c>
       <c r="F21" t="n">
-        <v>31886.84016180038</v>
+        <v>30984.25349450111</v>
       </c>
     </row>
     <row r="22">
@@ -4745,19 +4812,19 @@
         <v>45078</v>
       </c>
       <c r="B22" t="n">
-        <v>38958.1289106496</v>
+        <v>38958.03870414916</v>
       </c>
       <c r="C22" t="n">
-        <v>31679.6178942977</v>
+        <v>31991.57399647591</v>
       </c>
       <c r="D22" t="n">
         <v>21971.39779665363</v>
       </c>
       <c r="E22" t="n">
-        <v>25948.52146852016</v>
+        <v>26596.24138975143</v>
       </c>
       <c r="F22" t="n">
-        <v>29401.36899709702</v>
+        <v>31329.43184876442</v>
       </c>
     </row>
     <row r="23">
@@ -4765,19 +4832,19 @@
         <v>45108</v>
       </c>
       <c r="B23" t="n">
-        <v>43091.96127539939</v>
+        <v>43091.88376717131</v>
       </c>
       <c r="C23" t="n">
-        <v>34957.88162412662</v>
+        <v>35264.98271595239</v>
       </c>
       <c r="D23" t="n">
         <v>25009.29998463495</v>
       </c>
       <c r="E23" t="n">
-        <v>24976.46459782124</v>
+        <v>25967.02176046371</v>
       </c>
       <c r="F23" t="n">
-        <v>31508.07835459709</v>
+        <v>31038.60787820816</v>
       </c>
     </row>
     <row r="24">
@@ -4785,19 +4852,19 @@
         <v>45139</v>
       </c>
       <c r="B24" t="n">
-        <v>36103.6058679499</v>
+        <v>36103.54751488482</v>
       </c>
       <c r="C24" t="n">
-        <v>27248.97939824118</v>
+        <v>27519.98497794937</v>
       </c>
       <c r="D24" t="n">
         <v>13950.16181842284</v>
       </c>
       <c r="E24" t="n">
-        <v>24986.07313001156</v>
+        <v>26032.28242981434</v>
       </c>
       <c r="F24" t="n">
-        <v>27815.05877435207</v>
+        <v>29640.05593752861</v>
       </c>
     </row>
     <row r="25">
@@ -4805,19 +4872,19 @@
         <v>45170</v>
       </c>
       <c r="B25" t="n">
-        <v>30113.02458598153</v>
+        <v>30112.95429982829</v>
       </c>
       <c r="C25" t="n">
-        <v>21037.83517011546</v>
+        <v>20951.61986577378</v>
       </c>
       <c r="D25" t="n">
         <v>4576.7507934482</v>
       </c>
       <c r="E25" t="n">
-        <v>26682.0220335722</v>
+        <v>26851.23189508915</v>
       </c>
       <c r="F25" t="n">
-        <v>29494.2675178051</v>
+        <v>28285.86138176918</v>
       </c>
     </row>
     <row r="26">
@@ -4825,19 +4892,19 @@
         <v>45200</v>
       </c>
       <c r="B26" t="n">
-        <v>34493.43075289165</v>
+        <v>34493.35934035875</v>
       </c>
       <c r="C26" t="n">
-        <v>25552.28460551991</v>
+        <v>25744.60280892272</v>
       </c>
       <c r="D26" t="n">
         <v>11826.75426021939</v>
       </c>
       <c r="E26" t="n">
-        <v>24794.12078380585</v>
+        <v>24441.60281729698</v>
       </c>
       <c r="F26" t="n">
-        <v>25885.98694086075</v>
+        <v>28280.60333168507</v>
       </c>
     </row>
     <row r="27">
@@ -4845,19 +4912,19 @@
         <v>45231</v>
       </c>
       <c r="B27" t="n">
-        <v>38041.68130406128</v>
+        <v>38041.60928180491</v>
       </c>
       <c r="C27" t="n">
-        <v>29922.12782956495</v>
+        <v>30113.05966690927</v>
       </c>
       <c r="D27" t="n">
         <v>20557.20605378826</v>
       </c>
       <c r="E27" t="n">
-        <v>20380.3787831068</v>
+        <v>19053.59862446785</v>
       </c>
       <c r="F27" t="n">
-        <v>21809.47176134586</v>
+        <v>21793.15960204601</v>
       </c>
     </row>
     <row r="28">
@@ -4865,19 +4932,19 @@
         <v>45261</v>
       </c>
       <c r="B28" t="n">
-        <v>42414.9096417973</v>
+        <v>42414.84469441049</v>
       </c>
       <c r="C28" t="n">
-        <v>33445.56209690192</v>
+        <v>33981.9884263944</v>
       </c>
       <c r="D28" t="n">
         <v>25360.21140332133</v>
       </c>
       <c r="E28" t="n">
-        <v>16478.17337834835</v>
+        <v>17332.99068641663</v>
       </c>
       <c r="F28" t="n">
-        <v>18305.45321249962</v>
+        <v>19672.77312636375</v>
       </c>
     </row>
     <row r="29">
@@ -4885,19 +4952,19 @@
         <v>45292</v>
       </c>
       <c r="B29" t="n">
-        <v>38066.70842772687</v>
+        <v>38066.54731639552</v>
       </c>
       <c r="C29" t="n">
-        <v>25195.46504213236</v>
+        <v>25461.15742258302</v>
       </c>
       <c r="D29" t="n">
-        <v>9777.93194082117</v>
+        <v>9777.931940821163</v>
       </c>
       <c r="E29" t="n">
-        <v>11369.14492487907</v>
+        <v>10015.10850596428</v>
       </c>
       <c r="F29" t="n">
-        <v>14403.12834566832</v>
+        <v>13336.3096897006</v>
       </c>
     </row>
     <row r="30">
@@ -4905,19 +4972,19 @@
         <v>45323</v>
       </c>
       <c r="B30" t="n">
-        <v>35122.46146474336</v>
+        <v>35122.29464524858</v>
       </c>
       <c r="C30" t="n">
-        <v>22086.25820827579</v>
+        <v>22500.44905410258</v>
       </c>
       <c r="D30" t="n">
-        <v>5532.152051144813</v>
+        <v>5532.152051144816</v>
       </c>
       <c r="E30" t="n">
-        <v>11715.85222178698</v>
+        <v>13081.83914518356</v>
       </c>
       <c r="F30" t="n">
-        <v>12243.75684058666</v>
+        <v>12614.4175722599</v>
       </c>
     </row>
     <row r="31">
@@ -4925,19 +4992,19 @@
         <v>45352</v>
       </c>
       <c r="B31" t="n">
-        <v>39993.90570751426</v>
+        <v>39993.74725237095</v>
       </c>
       <c r="C31" t="n">
-        <v>27213.05173307844</v>
+        <v>27689.94408363304</v>
       </c>
       <c r="D31" t="n">
         <v>13522.308384706</v>
       </c>
       <c r="E31" t="n">
-        <v>9124.801508426666</v>
+        <v>9891.702465832233</v>
       </c>
       <c r="F31" t="n">
-        <v>11695.74907541275</v>
+        <v>10844.85682696104</v>
       </c>
     </row>
     <row r="32">
@@ -4945,19 +5012,19 @@
         <v>45383</v>
       </c>
       <c r="B32" t="n">
-        <v>33081.08357097686</v>
+        <v>33080.92354048813</v>
       </c>
       <c r="C32" t="n">
-        <v>21193.34007310957</v>
+        <v>21577.77162969712</v>
       </c>
       <c r="D32" t="n">
         <v>6891.437929709256</v>
       </c>
       <c r="E32" t="n">
-        <v>8652.973589837551</v>
+        <v>9911.240960538387</v>
       </c>
       <c r="F32" t="n">
-        <v>11316.58247226477</v>
+        <v>10485.42467069626</v>
       </c>
     </row>
     <row r="33">
@@ -4965,19 +5032,19 @@
         <v>45413</v>
       </c>
       <c r="B33" t="n">
-        <v>37075.82773649506</v>
+        <v>37075.69038319773</v>
       </c>
       <c r="C33" t="n">
-        <v>24739.22192619902</v>
+        <v>25177.79727909769</v>
       </c>
       <c r="D33" t="n">
         <v>11225.52198028152</v>
       </c>
       <c r="E33" t="n">
-        <v>8835.052696526051</v>
+        <v>8489.106003463268</v>
       </c>
       <c r="F33" t="n">
-        <v>9494.23496067524</v>
+        <v>10082.08719462156</v>
       </c>
     </row>
     <row r="34">
@@ -4985,19 +5052,19 @@
         <v>45444</v>
       </c>
       <c r="B34" t="n">
-        <v>41794.14120364036</v>
+        <v>41794.01585406331</v>
       </c>
       <c r="C34" t="n">
-        <v>28570.99890112093</v>
+        <v>29203.5555095517</v>
       </c>
       <c r="D34" t="n">
         <v>14991.45784198569</v>
       </c>
       <c r="E34" t="n">
-        <v>8653.044923305511</v>
+        <v>10201.44097810984</v>
       </c>
       <c r="F34" t="n">
-        <v>10210.31812739372</v>
+        <v>10828.27308481932</v>
       </c>
     </row>
     <row r="35">
@@ -5005,19 +5072,19 @@
         <v>45474</v>
       </c>
       <c r="B35" t="n">
-        <v>45927.97356839015</v>
+        <v>45927.86091708546</v>
       </c>
       <c r="C35" t="n">
-        <v>32502.5447732612</v>
+        <v>33097.38465516741</v>
       </c>
       <c r="D35" t="n">
         <v>19839.62288491453</v>
       </c>
       <c r="E35" t="n">
-        <v>9542.146986842155</v>
+        <v>8879.085213363171</v>
       </c>
       <c r="F35" t="n">
-        <v>10079.68849933147</v>
+        <v>11091.38099503517</v>
       </c>
     </row>
     <row r="36">
@@ -5025,19 +5092,19 @@
         <v>45505</v>
       </c>
       <c r="B36" t="n">
-        <v>38939.61816094066</v>
+        <v>38939.52466479897</v>
       </c>
       <c r="C36" t="n">
-        <v>26379.45549937796</v>
+        <v>26809.15570385444</v>
       </c>
       <c r="D36" t="n">
         <v>12731.61582631851</v>
       </c>
       <c r="E36" t="n">
-        <v>9996.005747020245</v>
+        <v>8714.886742830276</v>
       </c>
       <c r="F36" t="n">
-        <v>10364.97853976488</v>
+        <v>11564.26774293184</v>
       </c>
     </row>
     <row r="37">
@@ -5045,19 +5112,19 @@
         <v>45536</v>
       </c>
       <c r="B37" t="n">
-        <v>32949.0368789723</v>
+        <v>32948.93144974244</v>
       </c>
       <c r="C37" t="n">
-        <v>21778.40439014497</v>
+        <v>21967.64087296535</v>
       </c>
       <c r="D37" t="n">
-        <v>8127.890938154365</v>
+        <v>8127.890938154369</v>
       </c>
       <c r="E37" t="n">
-        <v>10988.84472119808</v>
+        <v>9732.963154196739</v>
       </c>
       <c r="F37" t="n">
-        <v>12471.04417717457</v>
+        <v>11313.29425722361</v>
       </c>
     </row>
     <row r="38">
@@ -5065,19 +5132,19 @@
         <v>45566</v>
       </c>
       <c r="B38" t="n">
-        <v>37329.44304588242</v>
+        <v>37329.3364902729</v>
       </c>
       <c r="C38" t="n">
-        <v>24469.15668811078</v>
+        <v>24837.17165606148</v>
       </c>
       <c r="D38" t="n">
         <v>9212.158812765581</v>
       </c>
       <c r="E38" t="n">
-        <v>10973.76585739851</v>
+        <v>10473.90044814348</v>
       </c>
       <c r="F38" t="n">
-        <v>12148.15624248981</v>
+        <v>12370.55766624212</v>
       </c>
     </row>
     <row r="39">
@@ -5085,19 +5152,19 @@
         <v>45597</v>
       </c>
       <c r="B39" t="n">
-        <v>40877.69359705205</v>
+        <v>40877.58643171906</v>
       </c>
       <c r="C39" t="n">
-        <v>27151.06697016106</v>
+        <v>27566.73880629032</v>
       </c>
       <c r="D39" t="n">
         <v>10191.64995863509</v>
       </c>
       <c r="E39" t="n">
-        <v>14675.28959023952</v>
+        <v>14100.38223212957</v>
       </c>
       <c r="F39" t="n">
-        <v>15829.22273993492</v>
+        <v>17358.51087915897</v>
       </c>
     </row>
   </sheetData>

--- a/fcst_results/orig_series_HOU-Int_results.xlsx
+++ b/fcst_results/orig_series_HOU-Int_results.xlsx
@@ -479,10 +479,10 @@
         <v>44470</v>
       </c>
       <c r="B2" t="n">
-        <v>37708.4177672863</v>
+        <v>39526.7817773819</v>
       </c>
       <c r="C2" t="n">
-        <v>32806.06901311874</v>
+        <v>33715.64120364189</v>
       </c>
       <c r="D2" t="n">
         <v>28821.40504053046</v>
@@ -491,7 +491,7 @@
         <v>19528.73090641264</v>
       </c>
       <c r="F2" t="n">
-        <v>26243.78500016212</v>
+        <v>26437.0598387594</v>
       </c>
     </row>
     <row r="3">
@@ -499,10 +499,10 @@
         <v>44501</v>
       </c>
       <c r="B3" t="n">
-        <v>38280.5431201458</v>
+        <v>37657.15736532211</v>
       </c>
       <c r="C3" t="n">
-        <v>30125.8351354599</v>
+        <v>31264.35166168213</v>
       </c>
       <c r="D3" t="n">
         <v>32369.65498197662</v>
@@ -511,7 +511,7 @@
         <v>23129.51227480709</v>
       </c>
       <c r="F3" t="n">
-        <v>29324.17711392631</v>
+        <v>29347.97695229282</v>
       </c>
     </row>
     <row r="4">
@@ -519,10 +519,10 @@
         <v>44531</v>
       </c>
       <c r="B4" t="n">
-        <v>35878.1831805706</v>
+        <v>35353.05541038513</v>
       </c>
       <c r="C4" t="n">
-        <v>30516.86973690987</v>
+        <v>31520.12425684929</v>
       </c>
       <c r="D4" t="n">
         <v>36742.89039458219</v>
@@ -531,7 +531,7 @@
         <v>28141.42346625904</v>
       </c>
       <c r="F4" t="n">
-        <v>33366.40438303646</v>
+        <v>33348.1613568833</v>
       </c>
     </row>
     <row r="5">
@@ -539,10 +539,10 @@
         <v>44562</v>
       </c>
       <c r="B5" t="n">
-        <v>37366.53622245789</v>
+        <v>37377.55079746246</v>
       </c>
       <c r="C5" t="n">
-        <v>31196.23593473434</v>
+        <v>31581.6429271698</v>
       </c>
       <c r="D5" t="n">
         <v>32394.59301656722</v>
@@ -551,7 +551,7 @@
         <v>19907.21823224366</v>
       </c>
       <c r="F5" t="n">
-        <v>28228.19670407232</v>
+        <v>28249.38028458415</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         <v>44593</v>
       </c>
       <c r="B6" t="n">
-        <v>39128.18754720688</v>
+        <v>39680.42547297478</v>
       </c>
       <c r="C6" t="n">
-        <v>32454.56518507004</v>
+        <v>34225.83191752434</v>
       </c>
       <c r="D6" t="n">
         <v>29450.34034542029</v>
@@ -571,7 +571,7 @@
         <v>17204.30476352941</v>
       </c>
       <c r="F6" t="n">
-        <v>25830.34079207206</v>
+        <v>26009.40822998063</v>
       </c>
     </row>
     <row r="7">
@@ -579,10 +579,10 @@
         <v>44621</v>
       </c>
       <c r="B7" t="n">
-        <v>39145.23882436752</v>
+        <v>38889.96470403671</v>
       </c>
       <c r="C7" t="n">
-        <v>34177.89238929749</v>
+        <v>34337.81343007088</v>
       </c>
       <c r="D7" t="n">
         <v>34321.79295254266</v>
@@ -591,7 +591,7 @@
         <v>22264.59026738248</v>
       </c>
       <c r="F7" t="n">
-        <v>30355.03460140862</v>
+        <v>30359.56800737021</v>
       </c>
     </row>
     <row r="8">
@@ -599,10 +599,10 @@
         <v>44652</v>
       </c>
       <c r="B8" t="n">
-        <v>39180.558344841</v>
+        <v>39784.66515564919</v>
       </c>
       <c r="C8" t="n">
-        <v>34243.92483520508</v>
+        <v>35735.69157028198</v>
       </c>
       <c r="D8" t="n">
         <v>27408.96924065984</v>
@@ -611,7 +611,7 @@
         <v>14683.00488414149</v>
       </c>
       <c r="F8" t="n">
-        <v>23933.93836934627</v>
+        <v>24137.44504916402</v>
       </c>
     </row>
     <row r="9">
@@ -619,10 +619,10 @@
         <v>44682</v>
       </c>
       <c r="B9" t="n">
-        <v>39428.70943164825</v>
+        <v>39112.30510759354</v>
       </c>
       <c r="C9" t="n">
-        <v>33475.31445288658</v>
+        <v>35041.64271020889</v>
       </c>
       <c r="D9" t="n">
         <v>31403.73608336944</v>
@@ -631,7 +631,7 @@
         <v>18388.23141479356</v>
       </c>
       <c r="F9" t="n">
-        <v>27382.8538199851</v>
+        <v>27498.11389253203</v>
       </c>
     </row>
     <row r="10">
@@ -639,10 +639,10 @@
         <v>44713</v>
       </c>
       <c r="B10" t="n">
-        <v>37582.1661233902</v>
+        <v>38923.99506545067</v>
       </c>
       <c r="C10" t="n">
-        <v>34298.62299466133</v>
+        <v>32358.23578238487</v>
       </c>
       <c r="D10" t="n">
         <v>36122.06155423502</v>
@@ -651,7 +651,7 @@
         <v>24411.43665927032</v>
       </c>
       <c r="F10" t="n">
-        <v>32017.40968344181</v>
+        <v>31947.83058383822</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +659,10 @@
         <v>44743</v>
       </c>
       <c r="B11" t="n">
-        <v>38748.77944159508</v>
+        <v>38707.62260890007</v>
       </c>
       <c r="C11" t="n">
-        <v>33927.11829352379</v>
+        <v>35068.92131590843</v>
       </c>
       <c r="D11" t="n">
         <v>40255.90661725717</v>
@@ -671,7 +671,7 @@
         <v>28095.39572557426</v>
       </c>
       <c r="F11" t="n">
-        <v>35602.36674956624</v>
+        <v>35619.82925544143</v>
       </c>
     </row>
     <row r="12">
@@ -679,10 +679,10 @@
         <v>44774</v>
       </c>
       <c r="B12" t="n">
-        <v>37413.70569300652</v>
+        <v>37763.47345352173</v>
       </c>
       <c r="C12" t="n">
-        <v>32175.75961470604</v>
+        <v>33205.88708496094</v>
       </c>
       <c r="D12" t="n">
         <v>33267.57036497068</v>
@@ -691,7 +691,7 @@
         <v>18353.19117831365</v>
       </c>
       <c r="F12" t="n">
-        <v>28220.59751855483</v>
+        <v>28304.56710515951</v>
       </c>
     </row>
     <row r="13">
@@ -699,10 +699,10 @@
         <v>44805</v>
       </c>
       <c r="B13" t="n">
-        <v>38514.18343257904</v>
+        <v>38455.52153873444</v>
       </c>
       <c r="C13" t="n">
-        <v>32780.179261446</v>
+        <v>34258.28778600693</v>
       </c>
       <c r="D13" t="n">
         <v>27276.97714991415</v>
@@ -711,7 +711,7 @@
         <v>10506.09552529317</v>
       </c>
       <c r="F13" t="n">
-        <v>22294.37076882497</v>
+        <v>22454.67104537241</v>
       </c>
     </row>
     <row r="14">
@@ -719,10 +719,10 @@
         <v>44835</v>
       </c>
       <c r="B14" t="n">
-        <v>36850.59757804871</v>
+        <v>38581.94850826263</v>
       </c>
       <c r="C14" t="n">
-        <v>32291.25795316696</v>
+        <v>33830.49324369431</v>
       </c>
       <c r="D14" t="n">
         <v>31657.3821904446</v>
@@ -731,7 +731,7 @@
         <v>15637.361206851</v>
       </c>
       <c r="F14" t="n">
-        <v>26371.12617588643</v>
+        <v>26574.73686170968</v>
       </c>
     </row>
     <row r="15">
@@ -739,10 +739,10 @@
         <v>44866</v>
       </c>
       <c r="B15" t="n">
-        <v>35854.22201085091</v>
+        <v>37231.37391114235</v>
       </c>
       <c r="C15" t="n">
-        <v>30524.85908532143</v>
+        <v>31618.17253828049</v>
       </c>
       <c r="D15" t="n">
         <v>35205.63213189076</v>
@@ -751,7 +751,7 @@
         <v>21822.9740446377</v>
       </c>
       <c r="F15" t="n">
-        <v>30323.21796546133</v>
+        <v>30424.22791319714</v>
       </c>
     </row>
     <row r="16">
@@ -759,10 +759,10 @@
         <v>44896</v>
       </c>
       <c r="B16" t="n">
-        <v>34222.02288222313</v>
+        <v>35242.99216651917</v>
       </c>
       <c r="C16" t="n">
-        <v>29448.07093262672</v>
+        <v>31870.18766450882</v>
       </c>
       <c r="D16" t="n">
         <v>39578.86754449634</v>
@@ -771,7 +771,7 @@
         <v>26784.80634910359</v>
       </c>
       <c r="F16" t="n">
-        <v>34306.70248301864</v>
+        <v>34422.23975610126</v>
       </c>
     </row>
     <row r="17">
@@ -779,10 +779,10 @@
         <v>44927</v>
       </c>
       <c r="B17" t="n">
-        <v>34574.86743569374</v>
+        <v>32632.94354581833</v>
       </c>
       <c r="C17" t="n">
-        <v>29452.31656312943</v>
+        <v>28326.9253950119</v>
       </c>
       <c r="D17" t="n">
         <v>35230.57016648137</v>
@@ -791,7 +791,7 @@
         <v>14879.81879972061</v>
       </c>
       <c r="F17" t="n">
-        <v>27796.91846843692</v>
+        <v>27587.29479088871</v>
       </c>
     </row>
     <row r="18">
@@ -799,10 +799,10 @@
         <v>44958</v>
       </c>
       <c r="B18" t="n">
-        <v>34935.86978769302</v>
+        <v>34599.12769031525</v>
       </c>
       <c r="C18" t="n">
-        <v>30224.14812421799</v>
+        <v>31226.2372443676</v>
       </c>
       <c r="D18" t="n">
         <v>32286.31749533443</v>
@@ -811,7 +811,7 @@
         <v>11361.82956669037</v>
       </c>
       <c r="F18" t="n">
-        <v>25019.06390169228</v>
+        <v>25064.38409947684</v>
       </c>
     </row>
     <row r="19">
@@ -819,10 +819,10 @@
         <v>44986</v>
       </c>
       <c r="B19" t="n">
-        <v>33267.20292758942</v>
+        <v>33828.99438142776</v>
       </c>
       <c r="C19" t="n">
-        <v>28894.83605718613</v>
+        <v>28886.58200144768</v>
       </c>
       <c r="D19" t="n">
         <v>37157.77010245681</v>
@@ -831,7 +831,7 @@
         <v>19550.02222848214</v>
       </c>
       <c r="F19" t="n">
-        <v>30383.52465756608</v>
+        <v>30342.27289253844</v>
       </c>
     </row>
     <row r="20">
@@ -839,10 +839,10 @@
         <v>45017</v>
       </c>
       <c r="B20" t="n">
-        <v>32114.26844644547</v>
+        <v>32703.04973435402</v>
       </c>
       <c r="C20" t="n">
-        <v>27900.23437285423</v>
+        <v>27111.30168712139</v>
       </c>
       <c r="D20" t="n">
         <v>30244.94639057399</v>
@@ -851,7 +851,7 @@
         <v>11451.98723247274</v>
       </c>
       <c r="F20" t="n">
-        <v>23665.8518143553</v>
+        <v>23635.45071768269</v>
       </c>
     </row>
     <row r="21">
@@ -859,10 +859,10 @@
         <v>45047</v>
       </c>
       <c r="B21" t="n">
-        <v>30984.25349450111</v>
+        <v>31207.88649487495</v>
       </c>
       <c r="C21" t="n">
-        <v>27381.27222073078</v>
+        <v>27213.91874825954</v>
       </c>
       <c r="D21" t="n">
         <v>34239.71323328358</v>
@@ -871,7 +871,7 @@
         <v>14844.27278357647</v>
       </c>
       <c r="F21" t="n">
-        <v>26950.70933213821</v>
+        <v>26898.96975698123</v>
       </c>
     </row>
     <row r="22">
@@ -879,10 +879,10 @@
         <v>45078</v>
       </c>
       <c r="B22" t="n">
-        <v>31329.43184876442</v>
+        <v>31001.77574443817</v>
       </c>
       <c r="C22" t="n">
-        <v>26596.24138975143</v>
+        <v>26270.67028534412</v>
       </c>
       <c r="D22" t="n">
         <v>38958.03870414916</v>
@@ -891,7 +891,7 @@
         <v>21971.39779665363</v>
       </c>
       <c r="F22" t="n">
-        <v>31991.57399647591</v>
+        <v>31844.35015974577</v>
       </c>
     </row>
     <row r="23">
@@ -899,10 +899,10 @@
         <v>45108</v>
       </c>
       <c r="B23" t="n">
-        <v>31038.60787820816</v>
+        <v>29652.20841026306</v>
       </c>
       <c r="C23" t="n">
-        <v>25967.02176046371</v>
+        <v>26728.357847929</v>
       </c>
       <c r="D23" t="n">
         <v>43091.88376717131</v>
@@ -911,7 +911,7 @@
         <v>25009.29998463495</v>
       </c>
       <c r="F23" t="n">
-        <v>35264.98271595239</v>
+        <v>35089.95596245996</v>
       </c>
     </row>
     <row r="24">
@@ -919,10 +919,10 @@
         <v>45139</v>
       </c>
       <c r="B24" t="n">
-        <v>29640.05593752861</v>
+        <v>29172.73405957222</v>
       </c>
       <c r="C24" t="n">
-        <v>26032.28242981434</v>
+        <v>27024.20094442368</v>
       </c>
       <c r="D24" t="n">
         <v>36103.54751488482</v>
@@ -931,7 +931,7 @@
         <v>13950.16181842284</v>
       </c>
       <c r="F24" t="n">
-        <v>27519.98497794937</v>
+        <v>27480.55493337564</v>
       </c>
     </row>
     <row r="25">
@@ -939,10 +939,10 @@
         <v>45170</v>
       </c>
       <c r="B25" t="n">
-        <v>28285.86138176918</v>
+        <v>28762.25893950462</v>
       </c>
       <c r="C25" t="n">
-        <v>26851.23189508915</v>
+        <v>25650.17396569252</v>
       </c>
       <c r="D25" t="n">
         <v>30112.95429982829</v>
@@ -951,7 +951,7 @@
         <v>4576.7507934482</v>
       </c>
       <c r="F25" t="n">
-        <v>20951.61986577378</v>
+        <v>20888.8084142668</v>
       </c>
     </row>
     <row r="26">
@@ -959,10 +959,10 @@
         <v>45200</v>
       </c>
       <c r="B26" t="n">
-        <v>28280.60333168507</v>
+        <v>27061.24621915817</v>
       </c>
       <c r="C26" t="n">
-        <v>24441.60281729698</v>
+        <v>24371.98135256767</v>
       </c>
       <c r="D26" t="n">
         <v>34493.35934035875</v>
@@ -971,7 +971,7 @@
         <v>11826.75426021939</v>
       </c>
       <c r="F26" t="n">
-        <v>25744.60280892272</v>
+        <v>25599.81658371786</v>
       </c>
     </row>
     <row r="27">
@@ -979,10 +979,10 @@
         <v>45231</v>
       </c>
       <c r="B27" t="n">
-        <v>21793.15960204601</v>
+        <v>22184.39875006676</v>
       </c>
       <c r="C27" t="n">
-        <v>19053.59862446785</v>
+        <v>20978.92674005032</v>
       </c>
       <c r="D27" t="n">
         <v>38041.60928180491</v>
@@ -991,7 +991,7 @@
         <v>20557.20605378826</v>
       </c>
       <c r="F27" t="n">
-        <v>30113.05966690927</v>
+        <v>30083.53197416525</v>
       </c>
     </row>
     <row r="28">
@@ -999,10 +999,10 @@
         <v>45261</v>
       </c>
       <c r="B28" t="n">
-        <v>19672.77312636375</v>
+        <v>20023.88161230087</v>
       </c>
       <c r="C28" t="n">
-        <v>17332.99068641663</v>
+        <v>17307.89677560329</v>
       </c>
       <c r="D28" t="n">
         <v>42414.84469441049</v>
@@ -1011,7 +1011,7 @@
         <v>25360.21140332133</v>
       </c>
       <c r="F28" t="n">
-        <v>33981.9884263944</v>
+        <v>33762.78686881325</v>
       </c>
     </row>
     <row r="29">
@@ -1019,10 +1019,10 @@
         <v>45292</v>
       </c>
       <c r="B29" t="n">
-        <v>13336.3096897006</v>
+        <v>13954.22855067253</v>
       </c>
       <c r="C29" t="n">
-        <v>10015.10850596428</v>
+        <v>10633.64100664854</v>
       </c>
       <c r="D29" t="n">
         <v>38066.54731639552</v>
@@ -1031,7 +1031,7 @@
         <v>9777.931940821163</v>
       </c>
       <c r="F29" t="n">
-        <v>25461.15742258302</v>
+        <v>25277.77690319593</v>
       </c>
     </row>
     <row r="30">
@@ -1039,10 +1039,10 @@
         <v>45323</v>
       </c>
       <c r="B30" t="n">
-        <v>12614.4175722599</v>
+        <v>12498.98111343384</v>
       </c>
       <c r="C30" t="n">
-        <v>13081.83914518356</v>
+        <v>11122.6156001687</v>
       </c>
       <c r="D30" t="n">
         <v>35122.29464524858</v>
@@ -1051,7 +1051,7 @@
         <v>5532.152051144816</v>
       </c>
       <c r="F30" t="n">
-        <v>22500.44905410258</v>
+        <v>22177.79094400538</v>
       </c>
     </row>
     <row r="31">
@@ -1059,10 +1059,10 @@
         <v>45352</v>
       </c>
       <c r="B31" t="n">
-        <v>10844.85682696104</v>
+        <v>11763.69205504656</v>
       </c>
       <c r="C31" t="n">
-        <v>9891.702465832233</v>
+        <v>9617.060019791126</v>
       </c>
       <c r="D31" t="n">
         <v>39993.74725237095</v>
@@ -1071,7 +1071,7 @@
         <v>13522.308384706</v>
       </c>
       <c r="F31" t="n">
-        <v>27689.94408363304</v>
+        <v>27442.86956990968</v>
       </c>
     </row>
     <row r="32">
@@ -1079,10 +1079,10 @@
         <v>45383</v>
       </c>
       <c r="B32" t="n">
-        <v>10485.42467069626</v>
+        <v>11521.65587937832</v>
       </c>
       <c r="C32" t="n">
-        <v>9911.240960538387</v>
+        <v>8612.885040283203</v>
       </c>
       <c r="D32" t="n">
         <v>33080.92354048813</v>
@@ -1091,7 +1091,7 @@
         <v>6891.437929709256</v>
       </c>
       <c r="F32" t="n">
-        <v>21577.77162969712</v>
+        <v>21338.98098994368</v>
       </c>
     </row>
     <row r="33">
@@ -1099,10 +1099,10 @@
         <v>45413</v>
       </c>
       <c r="B33" t="n">
-        <v>10082.08719462156</v>
+        <v>10024.86486172676</v>
       </c>
       <c r="C33" t="n">
-        <v>8489.106003463268</v>
+        <v>8454.527319729328</v>
       </c>
       <c r="D33" t="n">
         <v>37075.69038319773</v>
@@ -1111,7 +1111,7 @@
         <v>11225.52198028152</v>
       </c>
       <c r="F33" t="n">
-        <v>25177.79727909769</v>
+        <v>24912.49484534605</v>
       </c>
     </row>
     <row r="34">
@@ -1119,10 +1119,10 @@
         <v>45444</v>
       </c>
       <c r="B34" t="n">
-        <v>10828.27308481932</v>
+        <v>10439.99814319611</v>
       </c>
       <c r="C34" t="n">
-        <v>10201.44097810984</v>
+        <v>9142.141557216644</v>
       </c>
       <c r="D34" t="n">
         <v>41794.01585406331</v>
@@ -1131,7 +1131,7 @@
         <v>14991.45784198569</v>
       </c>
       <c r="F34" t="n">
-        <v>29203.5555095517</v>
+        <v>28827.1704796101</v>
       </c>
     </row>
     <row r="35">
@@ -1139,10 +1139,10 @@
         <v>45474</v>
       </c>
       <c r="B35" t="n">
-        <v>11091.38099503517</v>
+        <v>10805.51942741871</v>
       </c>
       <c r="C35" t="n">
-        <v>8879.085213363171</v>
+        <v>9636.606249451637</v>
       </c>
       <c r="D35" t="n">
         <v>45927.86091708546</v>
@@ -1151,7 +1151,7 @@
         <v>19839.62288491453</v>
       </c>
       <c r="F35" t="n">
-        <v>33097.38465516741</v>
+        <v>32787.79711585079</v>
       </c>
     </row>
     <row r="36">
@@ -1159,10 +1159,10 @@
         <v>45505</v>
       </c>
       <c r="B36" t="n">
-        <v>11564.26774293184</v>
+        <v>12013.15808409452</v>
       </c>
       <c r="C36" t="n">
-        <v>8714.886742830276</v>
+        <v>9656.774713218212</v>
       </c>
       <c r="D36" t="n">
         <v>38939.52466479897</v>
@@ -1171,7 +1171,7 @@
         <v>12731.61582631851</v>
       </c>
       <c r="F36" t="n">
-        <v>26809.15570385444</v>
+        <v>26615.16273601057</v>
       </c>
     </row>
     <row r="37">
@@ -1179,10 +1179,10 @@
         <v>45536</v>
       </c>
       <c r="B37" t="n">
-        <v>11313.29425722361</v>
+        <v>11791.9770642519</v>
       </c>
       <c r="C37" t="n">
-        <v>9732.963154196739</v>
+        <v>9698.016630411148</v>
       </c>
       <c r="D37" t="n">
         <v>32948.93144974244</v>
@@ -1191,7 +1191,7 @@
         <v>8127.890938154369</v>
       </c>
       <c r="F37" t="n">
-        <v>21967.64087296535</v>
+        <v>21781.06622293617</v>
       </c>
     </row>
     <row r="38">
@@ -1199,10 +1199,10 @@
         <v>45566</v>
       </c>
       <c r="B38" t="n">
-        <v>12370.55766624212</v>
+        <v>13080.22168028355</v>
       </c>
       <c r="C38" t="n">
-        <v>10473.90044814348</v>
+        <v>10046.78830069304</v>
       </c>
       <c r="D38" t="n">
         <v>37329.3364902729</v>
@@ -1211,7 +1211,7 @@
         <v>9212.158812765581</v>
       </c>
       <c r="F38" t="n">
-        <v>24837.17165606148</v>
+        <v>24603.18006663763</v>
       </c>
     </row>
     <row r="39">
@@ -1219,10 +1219,10 @@
         <v>45597</v>
       </c>
       <c r="B39" t="n">
-        <v>17358.51087915897</v>
+        <v>16349.17324733734</v>
       </c>
       <c r="C39" t="n">
-        <v>14100.38223212957</v>
+        <v>14608.06080472469</v>
       </c>
       <c r="D39" t="n">
         <v>40877.58643171906</v>
@@ -1231,7 +1231,7 @@
         <v>10191.64995863509</v>
       </c>
       <c r="F39" t="n">
-        <v>27566.73880629032</v>
+        <v>27311.61430632122</v>
       </c>
     </row>
   </sheetData>
@@ -1475,7 +1475,7 @@
         <v>0.95</v>
       </c>
       <c r="R2" t="n">
-        <v>15450.22409483173</v>
+        <v>11702.53419150814</v>
       </c>
       <c r="S2" t="n">
         <v>7080.303663366503</v>
@@ -1545,19 +1545,19 @@
         <v>20</v>
       </c>
       <c r="K3" t="n">
-        <v>17072.91818414826</v>
+        <v>17131.03333194736</v>
       </c>
       <c r="L3" t="n">
-        <v>4501.174217040045</v>
+        <v>4522.070831000647</v>
       </c>
       <c r="M3" t="n">
-        <v>15232.15868726431</v>
+        <v>15265.06334496136</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.9231040738073018</v>
+        <v>-0.9362186088646851</v>
       </c>
       <c r="O3" t="n">
-        <v>12296.72215553415</v>
+        <v>12613.70282776464</v>
       </c>
       <c r="P3" t="n">
         <v>24441</v>
@@ -1566,19 +1566,19 @@
         <v>0.95</v>
       </c>
       <c r="R3" t="n">
-        <v>13599.43983535486</v>
+        <v>13043.6234330555</v>
       </c>
       <c r="S3" t="n">
-        <v>6248.37544768576</v>
+        <v>6280.018297935514</v>
       </c>
       <c r="T3" t="n">
-        <v>891.7223785926619</v>
+        <v>899.4703310280031</v>
       </c>
       <c r="U3" t="n">
-        <v>4668.17754723943</v>
+        <v>4676.827404357068</v>
       </c>
       <c r="V3" t="n">
-        <v>0.7922172483970288</v>
+        <v>0.7901074242975221</v>
       </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
@@ -1591,20 +1591,20 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>(0.5476827405887968, 0.3482653676621192, 0.05426255169555697, 0.04978934005352699)</t>
+          <t>(0.5387203741162324, 0.3472605867432351, 0.0650444596754204, 0.04897457946511204)</t>
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>17072.91818414826</v>
+        <v>17131.03333194736</v>
       </c>
       <c r="AD3" t="n">
-        <v>4501.174217040045</v>
+        <v>4522.070831000647</v>
       </c>
       <c r="AE3" t="n">
-        <v>15232.15868726431</v>
+        <v>15265.06334496136</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.9231040738073018</v>
+        <v>-0.9362186088646851</v>
       </c>
       <c r="AG3" t="b">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>0.95</v>
       </c>
       <c r="R4" t="n">
-        <v>23905.28080708805</v>
+        <v>19317.95449389951</v>
       </c>
       <c r="S4" t="n">
         <v>10099.32788859162</v>
@@ -1741,19 +1741,19 @@
         <v>20</v>
       </c>
       <c r="K5" t="n">
-        <v>25516.93926853746</v>
+        <v>25618.39596504458</v>
       </c>
       <c r="L5" t="n">
-        <v>5967.347458262098</v>
+        <v>5967.122951993867</v>
       </c>
       <c r="M5" t="n">
-        <v>22019.48760737777</v>
+        <v>22067.78154402822</v>
       </c>
       <c r="N5" t="n">
-        <v>-3.295803718071739</v>
+        <v>-3.330032314772079</v>
       </c>
       <c r="O5" t="n">
-        <v>33780.36408749223</v>
+        <v>34237.58422842622</v>
       </c>
       <c r="P5" t="n">
         <v>24441</v>
@@ -1762,19 +1762,19 @@
         <v>0.95</v>
       </c>
       <c r="R5" t="n">
-        <v>34246.95822952298</v>
+        <v>26138.8682333159</v>
       </c>
       <c r="S5" t="n">
-        <v>12801.41532052844</v>
+        <v>12626.53650243408</v>
       </c>
       <c r="T5" t="n">
-        <v>1837.712026822736</v>
+        <v>1782.060190625364</v>
       </c>
       <c r="U5" t="n">
-        <v>9172.314995358032</v>
+        <v>9146.073041440121</v>
       </c>
       <c r="V5" t="n">
-        <v>0.127849901242315</v>
+        <v>0.1515158460946269</v>
       </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
@@ -1785,16 +1785,16 @@
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="n">
-        <v>25516.93926853746</v>
+        <v>25618.39596504458</v>
       </c>
       <c r="AD5" t="n">
-        <v>5967.347458262098</v>
+        <v>5967.122951993867</v>
       </c>
       <c r="AE5" t="n">
-        <v>22019.48760737777</v>
+        <v>22067.78154402822</v>
       </c>
       <c r="AF5" t="n">
-        <v>-3.295803718071739</v>
+        <v>-3.330032314772079</v>
       </c>
       <c r="AG5" t="b">
         <v>0</v>
@@ -1838,19 +1838,19 @@
         <v>20</v>
       </c>
       <c r="K6" t="n">
-        <v>25843.2195017784</v>
+        <v>25871.20436809296</v>
       </c>
       <c r="L6" t="n">
-        <v>5984.958433629008</v>
+        <v>6033.01940232299</v>
       </c>
       <c r="M6" t="n">
-        <v>22435.62672172785</v>
+        <v>22352.78564781696</v>
       </c>
       <c r="N6" t="n">
-        <v>-3.406365337492526</v>
+        <v>-3.415913552654072</v>
       </c>
       <c r="O6" t="n">
-        <v>33906.03996685147</v>
+        <v>34655.05086314678</v>
       </c>
       <c r="P6" t="n">
         <v>24441</v>
@@ -1859,19 +1859,19 @@
         <v>0.95</v>
       </c>
       <c r="R6" t="n">
-        <v>25807.16808408459</v>
+        <v>29128.17923163882</v>
       </c>
       <c r="S6" t="n">
-        <v>12556.06374157068</v>
+        <v>12542.34671819033</v>
       </c>
       <c r="T6" t="n">
-        <v>1792.907140144365</v>
+        <v>1755.056248406011</v>
       </c>
       <c r="U6" t="n">
-        <v>8998.774690862212</v>
+        <v>9132.215488862779</v>
       </c>
       <c r="V6" t="n">
-        <v>0.1609607407009028</v>
+        <v>0.1627929764611604</v>
       </c>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
@@ -1882,16 +1882,16 @@
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="n">
-        <v>25843.2195017784</v>
+        <v>25871.20436809296</v>
       </c>
       <c r="AD6" t="n">
-        <v>5984.958433629008</v>
+        <v>6033.01940232299</v>
       </c>
       <c r="AE6" t="n">
-        <v>22435.62672172785</v>
+        <v>22352.78564781696</v>
       </c>
       <c r="AF6" t="n">
-        <v>-3.406365337492526</v>
+        <v>-3.415913552654072</v>
       </c>
       <c r="AG6" t="b">
         <v>0</v>
@@ -3391,16 +3391,16 @@
         <v>27030.75485166851</v>
       </c>
       <c r="D2" t="n">
-        <v>27901.8581871556</v>
+        <v>27966.6101562472</v>
       </c>
       <c r="E2" t="n">
         <v>25636.74796623187</v>
       </c>
       <c r="F2" t="n">
-        <v>39444.21295660734</v>
+        <v>39268.07154840231</v>
       </c>
       <c r="G2" t="n">
-        <v>40748.58567836881</v>
+        <v>39771.43191185594</v>
       </c>
     </row>
     <row r="3">
@@ -3414,16 +3414,16 @@
         <v>36911.28760734187</v>
       </c>
       <c r="D3" t="n">
-        <v>35591.3401040717</v>
+        <v>35600.12454163723</v>
       </c>
       <c r="E3" t="n">
         <v>32162.12668011403</v>
       </c>
       <c r="F3" t="n">
-        <v>39642.68515390158</v>
+        <v>39542.48996129632</v>
       </c>
       <c r="G3" t="n">
-        <v>40643.17423942685</v>
+        <v>40318.93726631999</v>
       </c>
     </row>
     <row r="4">
@@ -3437,16 +3437,16 @@
         <v>23449.95451410332</v>
       </c>
       <c r="D4" t="n">
-        <v>26999.62277628307</v>
+        <v>27245.30354764434</v>
       </c>
       <c r="E4" t="n">
         <v>28839.64631935495</v>
       </c>
       <c r="F4" t="n">
-        <v>39083.08988177776</v>
+        <v>39986.2610565722</v>
       </c>
       <c r="G4" t="n">
-        <v>40006.33881443739</v>
+        <v>40767.64013928175</v>
       </c>
     </row>
     <row r="5">
@@ -3460,16 +3460,16 @@
         <v>25985.32039589823</v>
       </c>
       <c r="D5" t="n">
-        <v>29499.39864110168</v>
+        <v>29640.15958068021</v>
       </c>
       <c r="E5" t="n">
         <v>31897.31050924737</v>
       </c>
       <c r="F5" t="n">
-        <v>40111.90038961172</v>
+        <v>40224.14401486516</v>
       </c>
       <c r="G5" t="n">
-        <v>39815.44059497118</v>
+        <v>39781.89502441883</v>
       </c>
     </row>
     <row r="6">
@@ -3483,16 +3483,16 @@
         <v>31049.78982627104</v>
       </c>
       <c r="D6" t="n">
-        <v>33513.42089645958</v>
+        <v>33544.82635172524</v>
       </c>
       <c r="E6" t="n">
         <v>35450.02448003698</v>
       </c>
       <c r="F6" t="n">
-        <v>40130.60617887974</v>
+        <v>39110.58160385489</v>
       </c>
       <c r="G6" t="n">
-        <v>39855.55956438184</v>
+        <v>40089.14487302303</v>
       </c>
     </row>
     <row r="7">
@@ -3506,16 +3506,16 @@
         <v>33100.84343347824</v>
       </c>
       <c r="D7" t="n">
-        <v>35645.66441290685</v>
+        <v>35711.42236926785</v>
       </c>
       <c r="E7" t="n">
         <v>37736.95180859242</v>
       </c>
       <c r="F7" t="n">
-        <v>42183.64803946018</v>
+        <v>41656.14833796024</v>
       </c>
       <c r="G7" t="n">
-        <v>41885.23054736853</v>
+        <v>42170.16145974398</v>
       </c>
     </row>
     <row r="8">
@@ -3529,16 +3529,16 @@
         <v>24012.11030894395</v>
       </c>
       <c r="D8" t="n">
-        <v>26957.70507944702</v>
+        <v>27144.73427974002</v>
       </c>
       <c r="E8" t="n">
         <v>26640.85106003355</v>
       </c>
       <c r="F8" t="n">
-        <v>43300.86310696602</v>
+        <v>43366.19409829378</v>
       </c>
       <c r="G8" t="n">
-        <v>43764.09857457876</v>
+        <v>43632.28883993626</v>
       </c>
     </row>
     <row r="9">
@@ -3552,16 +3552,16 @@
         <v>16089.95222756954</v>
       </c>
       <c r="D9" t="n">
-        <v>20364.89701530827</v>
+        <v>20550.81319165503</v>
       </c>
       <c r="E9" t="n">
         <v>20404.64347404926</v>
       </c>
       <c r="F9" t="n">
-        <v>42415.19366836548</v>
+        <v>41665.73137563467</v>
       </c>
       <c r="G9" t="n">
-        <v>43079.91591078043</v>
+        <v>42613.42683297396</v>
       </c>
     </row>
     <row r="10">
@@ -3575,16 +3575,16 @@
         <v>22019.41356538294</v>
       </c>
       <c r="D10" t="n">
-        <v>25173.81129205032</v>
+        <v>25427.50087715147</v>
       </c>
       <c r="E10" t="n">
         <v>25002.86854929137</v>
       </c>
       <c r="F10" t="n">
-        <v>42312.92718839645</v>
+        <v>42803.7027772665</v>
       </c>
       <c r="G10" t="n">
-        <v>42388.95143532753</v>
+        <v>42849.5693962574</v>
       </c>
     </row>
     <row r="11">
@@ -3598,16 +3598,16 @@
         <v>29245.17185939339</v>
       </c>
       <c r="D11" t="n">
-        <v>29911.8201654775</v>
+        <v>30083.79667400384</v>
       </c>
       <c r="E11" t="n">
         <v>27099.40536418543</v>
       </c>
       <c r="F11" t="n">
-        <v>42380.92112237215</v>
+        <v>42887.87784123421</v>
       </c>
       <c r="G11" t="n">
-        <v>43327.80860972404</v>
+        <v>43464.43653213978</v>
       </c>
     </row>
     <row r="12">
@@ -3621,16 +3621,16 @@
         <v>31762.93829269388</v>
       </c>
       <c r="D12" t="n">
-        <v>32889.87381869406</v>
+        <v>33041.27646907712</v>
       </c>
       <c r="E12" t="n">
         <v>32089.60548487016</v>
       </c>
       <c r="F12" t="n">
-        <v>41474.87661665678</v>
+        <v>41700.78423494101</v>
       </c>
       <c r="G12" t="n">
-        <v>41527.5606058836</v>
+        <v>42350.01676422358</v>
       </c>
     </row>
     <row r="13">
@@ -3644,16 +3644,16 @@
         <v>26423.45062859761</v>
       </c>
       <c r="D13" t="n">
-        <v>27783.74097603212</v>
+        <v>27981.85628065125</v>
       </c>
       <c r="E13" t="n">
         <v>25599.6216942816</v>
       </c>
       <c r="F13" t="n">
-        <v>41614.71666425467</v>
+        <v>43023.5535838604</v>
       </c>
       <c r="G13" t="n">
-        <v>42950.77504521608</v>
+        <v>42038.57692945004</v>
       </c>
     </row>
     <row r="14">
@@ -3667,16 +3667,16 @@
         <v>19165.20548026611</v>
       </c>
       <c r="D14" t="n">
-        <v>22047.55853867053</v>
+        <v>22271.69467673137</v>
       </c>
       <c r="E14" t="n">
         <v>21143.16410197598</v>
       </c>
       <c r="F14" t="n">
-        <v>39925.72849825025</v>
+        <v>40645.5991371274</v>
       </c>
       <c r="G14" t="n">
-        <v>40595.08619683981</v>
+        <v>40042.18976634741</v>
       </c>
     </row>
     <row r="15">
@@ -3690,16 +3690,16 @@
         <v>29045.73823593947</v>
       </c>
       <c r="D15" t="n">
-        <v>29343.7863595998</v>
+        <v>29471.63205942192</v>
       </c>
       <c r="E15" t="n">
         <v>26548.24840430291</v>
       </c>
       <c r="F15" t="n">
-        <v>40242.60286954045</v>
+        <v>40256.7601236105</v>
       </c>
       <c r="G15" t="n">
-        <v>40298.4861433506</v>
+        <v>40561.0744137764</v>
       </c>
     </row>
     <row r="16">
@@ -3713,16 +3713,16 @@
         <v>15584.40514270092</v>
       </c>
       <c r="D16" t="n">
-        <v>19829.56859496069</v>
+        <v>20046.28152194393</v>
       </c>
       <c r="E16" t="n">
         <v>20867.09090914073</v>
       </c>
       <c r="F16" t="n">
-        <v>38601.65632241964</v>
+        <v>38310.85231769085</v>
       </c>
       <c r="G16" t="n">
-        <v>38810.50471130013</v>
+        <v>39049.19761505723</v>
       </c>
     </row>
     <row r="17">
@@ -3736,16 +3736,16 @@
         <v>18119.77102449583</v>
       </c>
       <c r="D17" t="n">
-        <v>22319.23376563005</v>
+        <v>22500.89837120555</v>
       </c>
       <c r="E17" t="n">
         <v>24097.3534809364</v>
       </c>
       <c r="F17" t="n">
-        <v>38502.48837772012</v>
+        <v>38373.90953528881</v>
       </c>
       <c r="G17" t="n">
-        <v>38438.56886452436</v>
+        <v>38292.05368101597</v>
       </c>
     </row>
     <row r="18">
@@ -3759,16 +3759,16 @@
         <v>23184.24045486865</v>
       </c>
       <c r="D18" t="n">
-        <v>26650.98325610655</v>
+        <v>26848.64720189723</v>
       </c>
       <c r="E18" t="n">
         <v>28642.71939095779</v>
       </c>
       <c r="F18" t="n">
-        <v>38454.38650679588</v>
+        <v>38824.59875011444</v>
       </c>
       <c r="G18" t="n">
-        <v>37989.54892754555</v>
+        <v>38530.4364349246</v>
       </c>
     </row>
     <row r="19">
@@ -3782,16 +3782,16 @@
         <v>25235.29406207584</v>
       </c>
       <c r="D19" t="n">
-        <v>28384.9614669391</v>
+        <v>28570.16633305557</v>
       </c>
       <c r="E19" t="n">
         <v>31296.832209261</v>
       </c>
       <c r="F19" t="n">
-        <v>35051.33841171861</v>
+        <v>35750.41715788841</v>
       </c>
       <c r="G19" t="n">
-        <v>35398.11162349582</v>
+        <v>36383.69968795776</v>
       </c>
     </row>
     <row r="20">
@@ -3805,16 +3805,16 @@
         <v>16146.56093754155</v>
       </c>
       <c r="D20" t="n">
-        <v>19533.13890449012</v>
+        <v>19704.56758804548</v>
       </c>
       <c r="E20" t="n">
         <v>19855.58052111302</v>
       </c>
       <c r="F20" t="n">
-        <v>35651.99594339728</v>
+        <v>35775.40101224184</v>
       </c>
       <c r="G20" t="n">
-        <v>36963.0694822669</v>
+        <v>36427.75677025318</v>
       </c>
     </row>
     <row r="21">
@@ -3828,16 +3828,16 @@
         <v>8224.40285616714</v>
       </c>
       <c r="D21" t="n">
-        <v>12296.72215553415</v>
+        <v>12613.70282776464</v>
       </c>
       <c r="E21" t="n">
         <v>12264.18400963632</v>
       </c>
       <c r="F21" t="n">
-        <v>33780.36408749223</v>
+        <v>34237.58422842622</v>
       </c>
       <c r="G21" t="n">
-        <v>33906.03996685147</v>
+        <v>34655.05086314678</v>
       </c>
     </row>
   </sheetData>
@@ -3907,16 +3907,16 @@
         <v>27030.75485166851</v>
       </c>
       <c r="D2" t="n">
-        <v>27901.8581871556</v>
+        <v>27966.6101562472</v>
       </c>
       <c r="E2" t="n">
         <v>25636.74796623187</v>
       </c>
       <c r="F2" t="n">
-        <v>39444.21295660734</v>
+        <v>39268.07154840231</v>
       </c>
       <c r="G2" t="n">
-        <v>40748.58567836881</v>
+        <v>39771.43191185594</v>
       </c>
     </row>
     <row r="3">
@@ -3930,16 +3930,16 @@
         <v>36911.28760734187</v>
       </c>
       <c r="D3" t="n">
-        <v>35591.3401040717</v>
+        <v>35600.12454163723</v>
       </c>
       <c r="E3" t="n">
         <v>32162.12668011403</v>
       </c>
       <c r="F3" t="n">
-        <v>39642.68515390158</v>
+        <v>39542.48996129632</v>
       </c>
       <c r="G3" t="n">
-        <v>40643.17423942685</v>
+        <v>40318.93726631999</v>
       </c>
     </row>
     <row r="4">
@@ -3953,16 +3953,16 @@
         <v>23449.95451410332</v>
       </c>
       <c r="D4" t="n">
-        <v>26999.62277628307</v>
+        <v>27245.30354764434</v>
       </c>
       <c r="E4" t="n">
         <v>28839.64631935495</v>
       </c>
       <c r="F4" t="n">
-        <v>39083.08988177776</v>
+        <v>39986.2610565722</v>
       </c>
       <c r="G4" t="n">
-        <v>40006.33881443739</v>
+        <v>40767.64013928175</v>
       </c>
     </row>
     <row r="5">
@@ -3976,16 +3976,16 @@
         <v>25985.32039589823</v>
       </c>
       <c r="D5" t="n">
-        <v>29499.39864110168</v>
+        <v>29640.15958068021</v>
       </c>
       <c r="E5" t="n">
         <v>31897.31050924737</v>
       </c>
       <c r="F5" t="n">
-        <v>40111.90038961172</v>
+        <v>40224.14401486516</v>
       </c>
       <c r="G5" t="n">
-        <v>39815.44059497118</v>
+        <v>39781.89502441883</v>
       </c>
     </row>
     <row r="6">
@@ -3999,16 +3999,16 @@
         <v>31049.78982627104</v>
       </c>
       <c r="D6" t="n">
-        <v>33513.42089645958</v>
+        <v>33544.82635172524</v>
       </c>
       <c r="E6" t="n">
         <v>35450.02448003698</v>
       </c>
       <c r="F6" t="n">
-        <v>40130.60617887974</v>
+        <v>39110.58160385489</v>
       </c>
       <c r="G6" t="n">
-        <v>39855.55956438184</v>
+        <v>40089.14487302303</v>
       </c>
     </row>
     <row r="7">
@@ -4022,16 +4022,16 @@
         <v>33100.84343347824</v>
       </c>
       <c r="D7" t="n">
-        <v>35645.66441290685</v>
+        <v>35711.42236926785</v>
       </c>
       <c r="E7" t="n">
         <v>37736.95180859242</v>
       </c>
       <c r="F7" t="n">
-        <v>42183.64803946018</v>
+        <v>41656.14833796024</v>
       </c>
       <c r="G7" t="n">
-        <v>41885.23054736853</v>
+        <v>42170.16145974398</v>
       </c>
     </row>
     <row r="8">
@@ -4045,16 +4045,16 @@
         <v>24012.11030894395</v>
       </c>
       <c r="D8" t="n">
-        <v>26957.70507944702</v>
+        <v>27144.73427974002</v>
       </c>
       <c r="E8" t="n">
         <v>26640.85106003355</v>
       </c>
       <c r="F8" t="n">
-        <v>43300.86310696602</v>
+        <v>43366.19409829378</v>
       </c>
       <c r="G8" t="n">
-        <v>43764.09857457876</v>
+        <v>43632.28883993626</v>
       </c>
     </row>
     <row r="9">
@@ -4068,16 +4068,16 @@
         <v>16089.95222756954</v>
       </c>
       <c r="D9" t="n">
-        <v>20364.89701530827</v>
+        <v>20550.81319165503</v>
       </c>
       <c r="E9" t="n">
         <v>20404.64347404926</v>
       </c>
       <c r="F9" t="n">
-        <v>42415.19366836548</v>
+        <v>41665.73137563467</v>
       </c>
       <c r="G9" t="n">
-        <v>43079.91591078043</v>
+        <v>42613.42683297396</v>
       </c>
     </row>
     <row r="10">
@@ -4091,16 +4091,16 @@
         <v>22019.41356538294</v>
       </c>
       <c r="D10" t="n">
-        <v>25173.81129205032</v>
+        <v>25427.50087715147</v>
       </c>
       <c r="E10" t="n">
         <v>25002.86854929137</v>
       </c>
       <c r="F10" t="n">
-        <v>42312.92718839645</v>
+        <v>42803.7027772665</v>
       </c>
       <c r="G10" t="n">
-        <v>42388.95143532753</v>
+        <v>42849.5693962574</v>
       </c>
     </row>
     <row r="11">
@@ -4114,16 +4114,16 @@
         <v>29245.17185939339</v>
       </c>
       <c r="D11" t="n">
-        <v>29911.8201654775</v>
+        <v>30083.79667400384</v>
       </c>
       <c r="E11" t="n">
         <v>27099.40536418543</v>
       </c>
       <c r="F11" t="n">
-        <v>42380.92112237215</v>
+        <v>42887.87784123421</v>
       </c>
       <c r="G11" t="n">
-        <v>43327.80860972404</v>
+        <v>43464.43653213978</v>
       </c>
     </row>
     <row r="12">
@@ -4137,16 +4137,16 @@
         <v>31762.93829269388</v>
       </c>
       <c r="D12" t="n">
-        <v>32889.87381869406</v>
+        <v>33041.27646907712</v>
       </c>
       <c r="E12" t="n">
         <v>32089.60548487016</v>
       </c>
       <c r="F12" t="n">
-        <v>41474.87661665678</v>
+        <v>41700.78423494101</v>
       </c>
       <c r="G12" t="n">
-        <v>41527.5606058836</v>
+        <v>42350.01676422358</v>
       </c>
     </row>
     <row r="13">
@@ -4160,16 +4160,16 @@
         <v>26423.45062859761</v>
       </c>
       <c r="D13" t="n">
-        <v>27783.74097603212</v>
+        <v>27981.85628065125</v>
       </c>
       <c r="E13" t="n">
         <v>25599.6216942816</v>
       </c>
       <c r="F13" t="n">
-        <v>41614.71666425467</v>
+        <v>43023.5535838604</v>
       </c>
       <c r="G13" t="n">
-        <v>42950.77504521608</v>
+        <v>42038.57692945004</v>
       </c>
     </row>
     <row r="14">
@@ -4183,16 +4183,16 @@
         <v>19165.20548026611</v>
       </c>
       <c r="D14" t="n">
-        <v>22047.55853867053</v>
+        <v>22271.69467673137</v>
       </c>
       <c r="E14" t="n">
         <v>21143.16410197598</v>
       </c>
       <c r="F14" t="n">
-        <v>39925.72849825025</v>
+        <v>40645.5991371274</v>
       </c>
       <c r="G14" t="n">
-        <v>40595.08619683981</v>
+        <v>40042.18976634741</v>
       </c>
     </row>
     <row r="15">
@@ -4206,16 +4206,16 @@
         <v>29045.73823593947</v>
       </c>
       <c r="D15" t="n">
-        <v>29343.7863595998</v>
+        <v>29471.63205942192</v>
       </c>
       <c r="E15" t="n">
         <v>26548.24840430291</v>
       </c>
       <c r="F15" t="n">
-        <v>40242.60286954045</v>
+        <v>40256.7601236105</v>
       </c>
       <c r="G15" t="n">
-        <v>40298.4861433506</v>
+        <v>40561.0744137764</v>
       </c>
     </row>
     <row r="16">
@@ -4229,16 +4229,16 @@
         <v>15584.40514270092</v>
       </c>
       <c r="D16" t="n">
-        <v>19829.56859496069</v>
+        <v>20046.28152194393</v>
       </c>
       <c r="E16" t="n">
         <v>20867.09090914073</v>
       </c>
       <c r="F16" t="n">
-        <v>38601.65632241964</v>
+        <v>38310.85231769085</v>
       </c>
       <c r="G16" t="n">
-        <v>38810.50471130013</v>
+        <v>39049.19761505723</v>
       </c>
     </row>
     <row r="17">
@@ -4252,16 +4252,16 @@
         <v>18119.77102449583</v>
       </c>
       <c r="D17" t="n">
-        <v>22319.23376563005</v>
+        <v>22500.89837120555</v>
       </c>
       <c r="E17" t="n">
         <v>24097.3534809364</v>
       </c>
       <c r="F17" t="n">
-        <v>38502.48837772012</v>
+        <v>38373.90953528881</v>
       </c>
       <c r="G17" t="n">
-        <v>38438.56886452436</v>
+        <v>38292.05368101597</v>
       </c>
     </row>
     <row r="18">
@@ -4275,16 +4275,16 @@
         <v>23184.24045486865</v>
       </c>
       <c r="D18" t="n">
-        <v>26650.98325610655</v>
+        <v>26848.64720189723</v>
       </c>
       <c r="E18" t="n">
         <v>28642.71939095779</v>
       </c>
       <c r="F18" t="n">
-        <v>38454.38650679588</v>
+        <v>38824.59875011444</v>
       </c>
       <c r="G18" t="n">
-        <v>37989.54892754555</v>
+        <v>38530.4364349246</v>
       </c>
     </row>
     <row r="19">
@@ -4298,16 +4298,16 @@
         <v>25235.29406207584</v>
       </c>
       <c r="D19" t="n">
-        <v>28384.9614669391</v>
+        <v>28570.16633305557</v>
       </c>
       <c r="E19" t="n">
         <v>31296.832209261</v>
       </c>
       <c r="F19" t="n">
-        <v>35051.33841171861</v>
+        <v>35750.41715788841</v>
       </c>
       <c r="G19" t="n">
-        <v>35398.11162349582</v>
+        <v>36383.69968795776</v>
       </c>
     </row>
     <row r="20">
@@ -4321,16 +4321,16 @@
         <v>16146.56093754155</v>
       </c>
       <c r="D20" t="n">
-        <v>19533.13890449012</v>
+        <v>19704.56758804548</v>
       </c>
       <c r="E20" t="n">
         <v>19855.58052111302</v>
       </c>
       <c r="F20" t="n">
-        <v>35651.99594339728</v>
+        <v>35775.40101224184</v>
       </c>
       <c r="G20" t="n">
-        <v>36963.0694822669</v>
+        <v>36427.75677025318</v>
       </c>
     </row>
     <row r="21">
@@ -4344,16 +4344,16 @@
         <v>8224.40285616714</v>
       </c>
       <c r="D21" t="n">
-        <v>12296.72215553415</v>
+        <v>12613.70282776464</v>
       </c>
       <c r="E21" t="n">
         <v>12264.18400963632</v>
       </c>
       <c r="F21" t="n">
-        <v>33780.36408749223</v>
+        <v>34237.58422842622</v>
       </c>
       <c r="G21" t="n">
-        <v>33906.03996685147</v>
+        <v>34655.05086314678</v>
       </c>
     </row>
   </sheetData>
@@ -4415,16 +4415,16 @@
         <v>28821.40504053046</v>
       </c>
       <c r="C2" t="n">
-        <v>26243.78500016212</v>
+        <v>26437.0598387594</v>
       </c>
       <c r="D2" t="n">
         <v>19528.73090641264</v>
       </c>
       <c r="E2" t="n">
-        <v>32806.06901311874</v>
+        <v>33715.64120364189</v>
       </c>
       <c r="F2" t="n">
-        <v>37708.4177672863</v>
+        <v>39526.7817773819</v>
       </c>
     </row>
     <row r="3">
@@ -4435,16 +4435,16 @@
         <v>32369.65498197662</v>
       </c>
       <c r="C3" t="n">
-        <v>29324.17711392631</v>
+        <v>29347.97695229282</v>
       </c>
       <c r="D3" t="n">
         <v>23129.51227480709</v>
       </c>
       <c r="E3" t="n">
-        <v>30125.8351354599</v>
+        <v>31264.35166168213</v>
       </c>
       <c r="F3" t="n">
-        <v>38280.5431201458</v>
+        <v>37657.15736532211</v>
       </c>
     </row>
     <row r="4">
@@ -4455,16 +4455,16 @@
         <v>36742.89039458219</v>
       </c>
       <c r="C4" t="n">
-        <v>33366.40438303646</v>
+        <v>33348.1613568833</v>
       </c>
       <c r="D4" t="n">
         <v>28141.42346625904</v>
       </c>
       <c r="E4" t="n">
-        <v>30516.86973690987</v>
+        <v>31520.12425684929</v>
       </c>
       <c r="F4" t="n">
-        <v>35878.1831805706</v>
+        <v>35353.05541038513</v>
       </c>
     </row>
     <row r="5">
@@ -4475,16 +4475,16 @@
         <v>32394.59301656722</v>
       </c>
       <c r="C5" t="n">
-        <v>28228.19670407232</v>
+        <v>28249.38028458415</v>
       </c>
       <c r="D5" t="n">
         <v>19907.21823224366</v>
       </c>
       <c r="E5" t="n">
-        <v>31196.23593473434</v>
+        <v>31581.6429271698</v>
       </c>
       <c r="F5" t="n">
-        <v>37366.53622245789</v>
+        <v>37377.55079746246</v>
       </c>
     </row>
     <row r="6">
@@ -4495,16 +4495,16 @@
         <v>29450.34034542029</v>
       </c>
       <c r="C6" t="n">
-        <v>25830.34079207206</v>
+        <v>26009.40822998063</v>
       </c>
       <c r="D6" t="n">
         <v>17204.30476352941</v>
       </c>
       <c r="E6" t="n">
-        <v>32454.56518507004</v>
+        <v>34225.83191752434</v>
       </c>
       <c r="F6" t="n">
-        <v>39128.18754720688</v>
+        <v>39680.42547297478</v>
       </c>
     </row>
     <row r="7">
@@ -4515,16 +4515,16 @@
         <v>34321.79295254266</v>
       </c>
       <c r="C7" t="n">
-        <v>30355.03460140862</v>
+        <v>30359.56800737021</v>
       </c>
       <c r="D7" t="n">
         <v>22264.59026738248</v>
       </c>
       <c r="E7" t="n">
-        <v>34177.89238929749</v>
+        <v>34337.81343007088</v>
       </c>
       <c r="F7" t="n">
-        <v>39145.23882436752</v>
+        <v>38889.96470403671</v>
       </c>
     </row>
     <row r="8">
@@ -4535,16 +4535,16 @@
         <v>27408.96924065984</v>
       </c>
       <c r="C8" t="n">
-        <v>23933.93836934627</v>
+        <v>24137.44504916402</v>
       </c>
       <c r="D8" t="n">
         <v>14683.00488414149</v>
       </c>
       <c r="E8" t="n">
-        <v>34243.92483520508</v>
+        <v>35735.69157028198</v>
       </c>
       <c r="F8" t="n">
-        <v>39180.558344841</v>
+        <v>39784.66515564919</v>
       </c>
     </row>
     <row r="9">
@@ -4555,16 +4555,16 @@
         <v>31403.73608336944</v>
       </c>
       <c r="C9" t="n">
-        <v>27382.8538199851</v>
+        <v>27498.11389253203</v>
       </c>
       <c r="D9" t="n">
         <v>18388.23141479356</v>
       </c>
       <c r="E9" t="n">
-        <v>33475.31445288658</v>
+        <v>35041.64271020889</v>
       </c>
       <c r="F9" t="n">
-        <v>39428.70943164825</v>
+        <v>39112.30510759354</v>
       </c>
     </row>
     <row r="10">
@@ -4575,16 +4575,16 @@
         <v>36122.06155423502</v>
       </c>
       <c r="C10" t="n">
-        <v>32017.40968344181</v>
+        <v>31947.83058383822</v>
       </c>
       <c r="D10" t="n">
         <v>24411.43665927032</v>
       </c>
       <c r="E10" t="n">
-        <v>34298.62299466133</v>
+        <v>32358.23578238487</v>
       </c>
       <c r="F10" t="n">
-        <v>37582.1661233902</v>
+        <v>38923.99506545067</v>
       </c>
     </row>
     <row r="11">
@@ -4595,16 +4595,16 @@
         <v>40255.90661725717</v>
       </c>
       <c r="C11" t="n">
-        <v>35602.36674956624</v>
+        <v>35619.82925544143</v>
       </c>
       <c r="D11" t="n">
         <v>28095.39572557426</v>
       </c>
       <c r="E11" t="n">
-        <v>33927.11829352379</v>
+        <v>35068.92131590843</v>
       </c>
       <c r="F11" t="n">
-        <v>38748.77944159508</v>
+        <v>38707.62260890007</v>
       </c>
     </row>
     <row r="12">
@@ -4615,16 +4615,16 @@
         <v>33267.57036497068</v>
       </c>
       <c r="C12" t="n">
-        <v>28220.59751855483</v>
+        <v>28304.56710515951</v>
       </c>
       <c r="D12" t="n">
         <v>18353.19117831365</v>
       </c>
       <c r="E12" t="n">
-        <v>32175.75961470604</v>
+        <v>33205.88708496094</v>
       </c>
       <c r="F12" t="n">
-        <v>37413.70569300652</v>
+        <v>37763.47345352173</v>
       </c>
     </row>
     <row r="13">
@@ -4635,16 +4635,16 @@
         <v>27276.97714991415</v>
       </c>
       <c r="C13" t="n">
-        <v>22294.37076882497</v>
+        <v>22454.67104537241</v>
       </c>
       <c r="D13" t="n">
         <v>10506.09552529317</v>
       </c>
       <c r="E13" t="n">
-        <v>32780.179261446</v>
+        <v>34258.28778600693</v>
       </c>
       <c r="F13" t="n">
-        <v>38514.18343257904</v>
+        <v>38455.52153873444</v>
       </c>
     </row>
     <row r="14">
@@ -4655,16 +4655,16 @@
         <v>31657.3821904446</v>
       </c>
       <c r="C14" t="n">
-        <v>26371.12617588643</v>
+        <v>26574.73686170968</v>
       </c>
       <c r="D14" t="n">
         <v>15637.361206851</v>
       </c>
       <c r="E14" t="n">
-        <v>32291.25795316696</v>
+        <v>33830.49324369431</v>
       </c>
       <c r="F14" t="n">
-        <v>36850.59757804871</v>
+        <v>38581.94850826263</v>
       </c>
     </row>
     <row r="15">
@@ -4675,16 +4675,16 @@
         <v>35205.63213189076</v>
       </c>
       <c r="C15" t="n">
-        <v>30323.21796546133</v>
+        <v>30424.22791319714</v>
       </c>
       <c r="D15" t="n">
         <v>21822.9740446377</v>
       </c>
       <c r="E15" t="n">
-        <v>30524.85908532143</v>
+        <v>31618.17253828049</v>
       </c>
       <c r="F15" t="n">
-        <v>35854.22201085091</v>
+        <v>37231.37391114235</v>
       </c>
     </row>
     <row r="16">
@@ -4695,16 +4695,16 @@
         <v>39578.86754449634</v>
       </c>
       <c r="C16" t="n">
-        <v>34306.70248301864</v>
+        <v>34422.23975610126</v>
       </c>
       <c r="D16" t="n">
         <v>26784.80634910359</v>
       </c>
       <c r="E16" t="n">
-        <v>29448.07093262672</v>
+        <v>31870.18766450882</v>
       </c>
       <c r="F16" t="n">
-        <v>34222.02288222313</v>
+        <v>35242.99216651917</v>
       </c>
     </row>
     <row r="17">
@@ -4715,16 +4715,16 @@
         <v>35230.57016648137</v>
       </c>
       <c r="C17" t="n">
-        <v>27796.91846843692</v>
+        <v>27587.29479088871</v>
       </c>
       <c r="D17" t="n">
         <v>14879.81879972061</v>
       </c>
       <c r="E17" t="n">
-        <v>29452.31656312943</v>
+        <v>28326.9253950119</v>
       </c>
       <c r="F17" t="n">
-        <v>34574.86743569374</v>
+        <v>32632.94354581833</v>
       </c>
     </row>
     <row r="18">
@@ -4735,16 +4735,16 @@
         <v>32286.31749533443</v>
       </c>
       <c r="C18" t="n">
-        <v>25019.06390169228</v>
+        <v>25064.38409947684</v>
       </c>
       <c r="D18" t="n">
         <v>11361.82956669037</v>
       </c>
       <c r="E18" t="n">
-        <v>30224.14812421799</v>
+        <v>31226.2372443676</v>
       </c>
       <c r="F18" t="n">
-        <v>34935.86978769302</v>
+        <v>34599.12769031525</v>
       </c>
     </row>
     <row r="19">
@@ -4755,16 +4755,16 @@
         <v>37157.77010245681</v>
       </c>
       <c r="C19" t="n">
-        <v>30383.52465756608</v>
+        <v>30342.27289253844</v>
       </c>
       <c r="D19" t="n">
         <v>19550.02222848214</v>
       </c>
       <c r="E19" t="n">
-        <v>28894.83605718613</v>
+        <v>28886.58200144768</v>
       </c>
       <c r="F19" t="n">
-        <v>33267.20292758942</v>
+        <v>33828.99438142776</v>
       </c>
     </row>
     <row r="20">
@@ -4775,16 +4775,16 @@
         <v>30244.94639057399</v>
       </c>
       <c r="C20" t="n">
-        <v>23665.8518143553</v>
+        <v>23635.45071768269</v>
       </c>
       <c r="D20" t="n">
         <v>11451.98723247274</v>
       </c>
       <c r="E20" t="n">
-        <v>27900.23437285423</v>
+        <v>27111.30168712139</v>
       </c>
       <c r="F20" t="n">
-        <v>32114.26844644547</v>
+        <v>32703.04973435402</v>
       </c>
     </row>
     <row r="21">
@@ -4795,16 +4795,16 @@
         <v>34239.71323328358</v>
       </c>
       <c r="C21" t="n">
-        <v>26950.70933213821</v>
+        <v>26898.96975698123</v>
       </c>
       <c r="D21" t="n">
         <v>14844.27278357647</v>
       </c>
       <c r="E21" t="n">
-        <v>27381.27222073078</v>
+        <v>27213.91874825954</v>
       </c>
       <c r="F21" t="n">
-        <v>30984.25349450111</v>
+        <v>31207.88649487495</v>
       </c>
     </row>
     <row r="22">
@@ -4815,16 +4815,16 @@
         <v>38958.03870414916</v>
       </c>
       <c r="C22" t="n">
-        <v>31991.57399647591</v>
+        <v>31844.35015974577</v>
       </c>
       <c r="D22" t="n">
         <v>21971.39779665363</v>
       </c>
       <c r="E22" t="n">
-        <v>26596.24138975143</v>
+        <v>26270.67028534412</v>
       </c>
       <c r="F22" t="n">
-        <v>31329.43184876442</v>
+        <v>31001.77574443817</v>
       </c>
     </row>
     <row r="23">
@@ -4835,16 +4835,16 @@
         <v>43091.88376717131</v>
       </c>
       <c r="C23" t="n">
-        <v>35264.98271595239</v>
+        <v>35089.95596245996</v>
       </c>
       <c r="D23" t="n">
         <v>25009.29998463495</v>
       </c>
       <c r="E23" t="n">
-        <v>25967.02176046371</v>
+        <v>26728.357847929</v>
       </c>
       <c r="F23" t="n">
-        <v>31038.60787820816</v>
+        <v>29652.20841026306</v>
       </c>
     </row>
     <row r="24">
@@ -4855,16 +4855,16 @@
         <v>36103.54751488482</v>
       </c>
       <c r="C24" t="n">
-        <v>27519.98497794937</v>
+        <v>27480.55493337564</v>
       </c>
       <c r="D24" t="n">
         <v>13950.16181842284</v>
       </c>
       <c r="E24" t="n">
-        <v>26032.28242981434</v>
+        <v>27024.20094442368</v>
       </c>
       <c r="F24" t="n">
-        <v>29640.05593752861</v>
+        <v>29172.73405957222</v>
       </c>
     </row>
     <row r="25">
@@ -4875,16 +4875,16 @@
         <v>30112.95429982829</v>
       </c>
       <c r="C25" t="n">
-        <v>20951.61986577378</v>
+        <v>20888.8084142668</v>
       </c>
       <c r="D25" t="n">
         <v>4576.7507934482</v>
       </c>
       <c r="E25" t="n">
-        <v>26851.23189508915</v>
+        <v>25650.17396569252</v>
       </c>
       <c r="F25" t="n">
-        <v>28285.86138176918</v>
+        <v>28762.25893950462</v>
       </c>
     </row>
     <row r="26">
@@ -4895,16 +4895,16 @@
         <v>34493.35934035875</v>
       </c>
       <c r="C26" t="n">
-        <v>25744.60280892272</v>
+        <v>25599.81658371786</v>
       </c>
       <c r="D26" t="n">
         <v>11826.75426021939</v>
       </c>
       <c r="E26" t="n">
-        <v>24441.60281729698</v>
+        <v>24371.98135256767</v>
       </c>
       <c r="F26" t="n">
-        <v>28280.60333168507</v>
+        <v>27061.24621915817</v>
       </c>
     </row>
     <row r="27">
@@ -4915,16 +4915,16 @@
         <v>38041.60928180491</v>
       </c>
       <c r="C27" t="n">
-        <v>30113.05966690927</v>
+        <v>30083.53197416525</v>
       </c>
       <c r="D27" t="n">
         <v>20557.20605378826</v>
       </c>
       <c r="E27" t="n">
-        <v>19053.59862446785</v>
+        <v>20978.92674005032</v>
       </c>
       <c r="F27" t="n">
-        <v>21793.15960204601</v>
+        <v>22184.39875006676</v>
       </c>
     </row>
     <row r="28">
@@ -4935,16 +4935,16 @@
         <v>42414.84469441049</v>
       </c>
       <c r="C28" t="n">
-        <v>33981.9884263944</v>
+        <v>33762.78686881325</v>
       </c>
       <c r="D28" t="n">
         <v>25360.21140332133</v>
       </c>
       <c r="E28" t="n">
-        <v>17332.99068641663</v>
+        <v>17307.89677560329</v>
       </c>
       <c r="F28" t="n">
-        <v>19672.77312636375</v>
+        <v>20023.88161230087</v>
       </c>
     </row>
     <row r="29">
@@ -4955,16 +4955,16 @@
         <v>38066.54731639552</v>
       </c>
       <c r="C29" t="n">
-        <v>25461.15742258302</v>
+        <v>25277.77690319593</v>
       </c>
       <c r="D29" t="n">
         <v>9777.931940821163</v>
       </c>
       <c r="E29" t="n">
-        <v>10015.10850596428</v>
+        <v>10633.64100664854</v>
       </c>
       <c r="F29" t="n">
-        <v>13336.3096897006</v>
+        <v>13954.22855067253</v>
       </c>
     </row>
     <row r="30">
@@ -4975,16 +4975,16 @@
         <v>35122.29464524858</v>
       </c>
       <c r="C30" t="n">
-        <v>22500.44905410258</v>
+        <v>22177.79094400538</v>
       </c>
       <c r="D30" t="n">
         <v>5532.152051144816</v>
       </c>
       <c r="E30" t="n">
-        <v>13081.83914518356</v>
+        <v>11122.6156001687</v>
       </c>
       <c r="F30" t="n">
-        <v>12614.4175722599</v>
+        <v>12498.98111343384</v>
       </c>
     </row>
     <row r="31">
@@ -4995,16 +4995,16 @@
         <v>39993.74725237095</v>
       </c>
       <c r="C31" t="n">
-        <v>27689.94408363304</v>
+        <v>27442.86956990968</v>
       </c>
       <c r="D31" t="n">
         <v>13522.308384706</v>
       </c>
       <c r="E31" t="n">
-        <v>9891.702465832233</v>
+        <v>9617.060019791126</v>
       </c>
       <c r="F31" t="n">
-        <v>10844.85682696104</v>
+        <v>11763.69205504656</v>
       </c>
     </row>
     <row r="32">
@@ -5015,16 +5015,16 @@
         <v>33080.92354048813</v>
       </c>
       <c r="C32" t="n">
-        <v>21577.77162969712</v>
+        <v>21338.98098994368</v>
       </c>
       <c r="D32" t="n">
         <v>6891.437929709256</v>
       </c>
       <c r="E32" t="n">
-        <v>9911.240960538387</v>
+        <v>8612.885040283203</v>
       </c>
       <c r="F32" t="n">
-        <v>10485.42467069626</v>
+        <v>11521.65587937832</v>
       </c>
     </row>
     <row r="33">
@@ -5035,16 +5035,16 @@
         <v>37075.69038319773</v>
       </c>
       <c r="C33" t="n">
-        <v>25177.79727909769</v>
+        <v>24912.49484534605</v>
       </c>
       <c r="D33" t="n">
         <v>11225.52198028152</v>
       </c>
       <c r="E33" t="n">
-        <v>8489.106003463268</v>
+        <v>8454.527319729328</v>
       </c>
       <c r="F33" t="n">
-        <v>10082.08719462156</v>
+        <v>10024.86486172676</v>
       </c>
     </row>
     <row r="34">
@@ -5055,16 +5055,16 @@
         <v>41794.01585406331</v>
       </c>
       <c r="C34" t="n">
-        <v>29203.5555095517</v>
+        <v>28827.1704796101</v>
       </c>
       <c r="D34" t="n">
         <v>14991.45784198569</v>
       </c>
       <c r="E34" t="n">
-        <v>10201.44097810984</v>
+        <v>9142.141557216644</v>
       </c>
       <c r="F34" t="n">
-        <v>10828.27308481932</v>
+        <v>10439.99814319611</v>
       </c>
     </row>
     <row r="35">
@@ -5075,16 +5075,16 @@
         <v>45927.86091708546</v>
       </c>
       <c r="C35" t="n">
-        <v>33097.38465516741</v>
+        <v>32787.79711585079</v>
       </c>
       <c r="D35" t="n">
         <v>19839.62288491453</v>
       </c>
       <c r="E35" t="n">
-        <v>8879.085213363171</v>
+        <v>9636.606249451637</v>
       </c>
       <c r="F35" t="n">
-        <v>11091.38099503517</v>
+        <v>10805.51942741871</v>
       </c>
     </row>
     <row r="36">
@@ -5095,16 +5095,16 @@
         <v>38939.52466479897</v>
       </c>
       <c r="C36" t="n">
-        <v>26809.15570385444</v>
+        <v>26615.16273601057</v>
       </c>
       <c r="D36" t="n">
         <v>12731.61582631851</v>
       </c>
       <c r="E36" t="n">
-        <v>8714.886742830276</v>
+        <v>9656.774713218212</v>
       </c>
       <c r="F36" t="n">
-        <v>11564.26774293184</v>
+        <v>12013.15808409452</v>
       </c>
     </row>
     <row r="37">
@@ -5115,16 +5115,16 @@
         <v>32948.93144974244</v>
       </c>
       <c r="C37" t="n">
-        <v>21967.64087296535</v>
+        <v>21781.06622293617</v>
       </c>
       <c r="D37" t="n">
         <v>8127.890938154369</v>
       </c>
       <c r="E37" t="n">
-        <v>9732.963154196739</v>
+        <v>9698.016630411148</v>
       </c>
       <c r="F37" t="n">
-        <v>11313.29425722361</v>
+        <v>11791.9770642519</v>
       </c>
     </row>
     <row r="38">
@@ -5135,16 +5135,16 @@
         <v>37329.3364902729</v>
       </c>
       <c r="C38" t="n">
-        <v>24837.17165606148</v>
+        <v>24603.18006663763</v>
       </c>
       <c r="D38" t="n">
         <v>9212.158812765581</v>
       </c>
       <c r="E38" t="n">
-        <v>10473.90044814348</v>
+        <v>10046.78830069304</v>
       </c>
       <c r="F38" t="n">
-        <v>12370.55766624212</v>
+        <v>13080.22168028355</v>
       </c>
     </row>
     <row r="39">
@@ -5155,16 +5155,16 @@
         <v>40877.58643171906</v>
       </c>
       <c r="C39" t="n">
-        <v>27566.73880629032</v>
+        <v>27311.61430632122</v>
       </c>
       <c r="D39" t="n">
         <v>10191.64995863509</v>
       </c>
       <c r="E39" t="n">
-        <v>14100.38223212957</v>
+        <v>14608.06080472469</v>
       </c>
       <c r="F39" t="n">
-        <v>17358.51087915897</v>
+        <v>16349.17324733734</v>
       </c>
     </row>
   </sheetData>

--- a/fcst_results/orig_series_HOU-Int_results.xlsx
+++ b/fcst_results/orig_series_HOU-Int_results.xlsx
@@ -479,10 +479,10 @@
         <v>44470</v>
       </c>
       <c r="B2" t="n">
-        <v>39526.7817773819</v>
+        <v>38948.4615855217</v>
       </c>
       <c r="C2" t="n">
-        <v>33715.64120364189</v>
+        <v>32777.96534562111</v>
       </c>
       <c r="D2" t="n">
         <v>28821.40504053046</v>
@@ -491,7 +491,7 @@
         <v>19528.73090641264</v>
       </c>
       <c r="F2" t="n">
-        <v>26437.0598387594</v>
+        <v>26477.83072554918</v>
       </c>
     </row>
     <row r="3">
@@ -499,10 +499,10 @@
         <v>44501</v>
       </c>
       <c r="B3" t="n">
-        <v>37657.15736532211</v>
+        <v>38594.70946407318</v>
       </c>
       <c r="C3" t="n">
-        <v>31264.35166168213</v>
+        <v>31307.77397656441</v>
       </c>
       <c r="D3" t="n">
         <v>32369.65498197662</v>
@@ -511,7 +511,7 @@
         <v>23129.51227480709</v>
       </c>
       <c r="F3" t="n">
-        <v>29347.97695229282</v>
+        <v>29430.89110619061</v>
       </c>
     </row>
     <row r="4">
@@ -519,10 +519,10 @@
         <v>44531</v>
       </c>
       <c r="B4" t="n">
-        <v>35353.05541038513</v>
+        <v>36476.51455879211</v>
       </c>
       <c r="C4" t="n">
-        <v>31520.12425684929</v>
+        <v>31310.65825510025</v>
       </c>
       <c r="D4" t="n">
         <v>36742.89039458219</v>
@@ -531,7 +531,7 @@
         <v>28141.42346625904</v>
       </c>
       <c r="F4" t="n">
-        <v>33348.1613568833</v>
+        <v>33339.61459228666</v>
       </c>
     </row>
     <row r="5">
@@ -539,10 +539,10 @@
         <v>44562</v>
       </c>
       <c r="B5" t="n">
-        <v>37377.55079746246</v>
+        <v>38656.63378977776</v>
       </c>
       <c r="C5" t="n">
-        <v>31581.6429271698</v>
+        <v>31401.60756731033</v>
       </c>
       <c r="D5" t="n">
         <v>32394.59301656722</v>
@@ -551,7 +551,7 @@
         <v>19907.21823224366</v>
       </c>
       <c r="F5" t="n">
-        <v>28249.38028458415</v>
+        <v>28357.65086586473</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         <v>44593</v>
       </c>
       <c r="B6" t="n">
-        <v>39680.42547297478</v>
+        <v>37621.60751509666</v>
       </c>
       <c r="C6" t="n">
-        <v>34225.83191752434</v>
+        <v>33276.33704924583</v>
       </c>
       <c r="D6" t="n">
         <v>29450.34034542029</v>
@@ -571,7 +571,7 @@
         <v>17204.30476352941</v>
       </c>
       <c r="F6" t="n">
-        <v>26009.40822998063</v>
+        <v>25996.31135428154</v>
       </c>
     </row>
     <row r="7">
@@ -579,10 +579,10 @@
         <v>44621</v>
       </c>
       <c r="B7" t="n">
-        <v>38889.96470403671</v>
+        <v>39372.69804883003</v>
       </c>
       <c r="C7" t="n">
-        <v>34337.81343007088</v>
+        <v>34275.370002985</v>
       </c>
       <c r="D7" t="n">
         <v>34321.79295254266</v>
@@ -591,7 +591,7 @@
         <v>22264.59026738248</v>
       </c>
       <c r="F7" t="n">
-        <v>30359.56800737021</v>
+        <v>30453.75473513019</v>
       </c>
     </row>
     <row r="8">
@@ -599,10 +599,10 @@
         <v>44652</v>
       </c>
       <c r="B8" t="n">
-        <v>39784.66515564919</v>
+        <v>38942.02266573906</v>
       </c>
       <c r="C8" t="n">
-        <v>35735.69157028198</v>
+        <v>33583.31160449982</v>
       </c>
       <c r="D8" t="n">
         <v>27408.96924065984</v>
@@ -611,7 +611,7 @@
         <v>14683.00488414149</v>
       </c>
       <c r="F8" t="n">
-        <v>24137.44504916402</v>
+        <v>24151.92582613196</v>
       </c>
     </row>
     <row r="9">
@@ -619,10 +619,10 @@
         <v>44682</v>
       </c>
       <c r="B9" t="n">
-        <v>39112.30510759354</v>
+        <v>38517.26710104942</v>
       </c>
       <c r="C9" t="n">
-        <v>35041.64271020889</v>
+        <v>33876.71045541763</v>
       </c>
       <c r="D9" t="n">
         <v>31403.73608336944</v>
@@ -631,7 +631,7 @@
         <v>18388.23141479356</v>
       </c>
       <c r="F9" t="n">
-        <v>27498.11389253203</v>
+        <v>27522.10895634121</v>
       </c>
     </row>
     <row r="10">
@@ -639,10 +639,10 @@
         <v>44713</v>
       </c>
       <c r="B10" t="n">
-        <v>38923.99506545067</v>
+        <v>39151.57117366791</v>
       </c>
       <c r="C10" t="n">
-        <v>32358.23578238487</v>
+        <v>34786.95644640923</v>
       </c>
       <c r="D10" t="n">
         <v>36122.06155423502</v>
@@ -651,7 +651,7 @@
         <v>24411.43665927032</v>
       </c>
       <c r="F10" t="n">
-        <v>31947.83058383822</v>
+        <v>32165.80773538344</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +659,10 @@
         <v>44743</v>
       </c>
       <c r="B11" t="n">
-        <v>38707.62260890007</v>
+        <v>39526.67520689964</v>
       </c>
       <c r="C11" t="n">
-        <v>35068.92131590843</v>
+        <v>34574.57178854942</v>
       </c>
       <c r="D11" t="n">
         <v>40255.90661725717</v>
@@ -671,7 +671,7 @@
         <v>28095.39572557426</v>
       </c>
       <c r="F11" t="n">
-        <v>35619.82925544143</v>
+        <v>35597.3277703027</v>
       </c>
     </row>
     <row r="12">
@@ -679,10 +679,10 @@
         <v>44774</v>
       </c>
       <c r="B12" t="n">
-        <v>37763.47345352173</v>
+        <v>37385.4198243618</v>
       </c>
       <c r="C12" t="n">
-        <v>33205.88708496094</v>
+        <v>31598.4948143959</v>
       </c>
       <c r="D12" t="n">
         <v>33267.57036497068</v>
@@ -691,7 +691,7 @@
         <v>18353.19117831365</v>
       </c>
       <c r="F12" t="n">
-        <v>28304.56710515951</v>
+        <v>28244.06063189</v>
       </c>
     </row>
     <row r="13">
@@ -699,10 +699,10 @@
         <v>44805</v>
       </c>
       <c r="B13" t="n">
-        <v>38455.52153873444</v>
+        <v>39560.37210583687</v>
       </c>
       <c r="C13" t="n">
-        <v>34258.28778600693</v>
+        <v>31525.95813131332</v>
       </c>
       <c r="D13" t="n">
         <v>27276.97714991415</v>
@@ -711,7 +711,7 @@
         <v>10506.09552529317</v>
       </c>
       <c r="F13" t="n">
-        <v>22454.67104537241</v>
+        <v>22514.87738253175</v>
       </c>
     </row>
     <row r="14">
@@ -719,10 +719,10 @@
         <v>44835</v>
       </c>
       <c r="B14" t="n">
-        <v>38581.94850826263</v>
+        <v>37548.97457480431</v>
       </c>
       <c r="C14" t="n">
-        <v>33830.49324369431</v>
+        <v>32199.3013780117</v>
       </c>
       <c r="D14" t="n">
         <v>31657.3821904446</v>
@@ -731,7 +731,7 @@
         <v>15637.361206851</v>
       </c>
       <c r="F14" t="n">
-        <v>26574.73686170968</v>
+        <v>26530.08265111835</v>
       </c>
     </row>
     <row r="15">
@@ -739,10 +739,10 @@
         <v>44866</v>
       </c>
       <c r="B15" t="n">
-        <v>37231.37391114235</v>
+        <v>36610.34645795822</v>
       </c>
       <c r="C15" t="n">
-        <v>31618.17253828049</v>
+        <v>31001.80324649811</v>
       </c>
       <c r="D15" t="n">
         <v>35205.63213189076</v>
@@ -751,7 +751,7 @@
         <v>21822.9740446377</v>
       </c>
       <c r="F15" t="n">
-        <v>30424.22791319714</v>
+        <v>30358.53266299726</v>
       </c>
     </row>
     <row r="16">
@@ -759,10 +759,10 @@
         <v>44896</v>
       </c>
       <c r="B16" t="n">
-        <v>35242.99216651917</v>
+        <v>34985.77571320534</v>
       </c>
       <c r="C16" t="n">
-        <v>31870.18766450882</v>
+        <v>30709.81731390953</v>
       </c>
       <c r="D16" t="n">
         <v>39578.86754449634</v>
@@ -771,7 +771,7 @@
         <v>26784.80634910359</v>
       </c>
       <c r="F16" t="n">
-        <v>34422.23975610126</v>
+        <v>34248.78969349036</v>
       </c>
     </row>
     <row r="17">
@@ -779,10 +779,10 @@
         <v>44927</v>
       </c>
       <c r="B17" t="n">
-        <v>32632.94354581833</v>
+        <v>34062.59687852859</v>
       </c>
       <c r="C17" t="n">
-        <v>28326.9253950119</v>
+        <v>27154.1688041687</v>
       </c>
       <c r="D17" t="n">
         <v>35230.57016648137</v>
@@ -791,7 +791,7 @@
         <v>14879.81879972061</v>
       </c>
       <c r="F17" t="n">
-        <v>27587.29479088871</v>
+        <v>27558.47503063597</v>
       </c>
     </row>
     <row r="18">
@@ -799,10 +799,10 @@
         <v>44958</v>
       </c>
       <c r="B18" t="n">
-        <v>34599.12769031525</v>
+        <v>34882.42640972137</v>
       </c>
       <c r="C18" t="n">
-        <v>31226.2372443676</v>
+        <v>30629.81382155418</v>
       </c>
       <c r="D18" t="n">
         <v>32286.31749533443</v>
@@ -811,7 +811,7 @@
         <v>11361.82956669037</v>
       </c>
       <c r="F18" t="n">
-        <v>25064.38409947684</v>
+        <v>25144.35788096058</v>
       </c>
     </row>
     <row r="19">
@@ -819,10 +819,10 @@
         <v>44986</v>
       </c>
       <c r="B19" t="n">
-        <v>33828.99438142776</v>
+        <v>33532.8865776062</v>
       </c>
       <c r="C19" t="n">
-        <v>28886.58200144768</v>
+        <v>28347.66366708279</v>
       </c>
       <c r="D19" t="n">
         <v>37157.77010245681</v>
@@ -831,7 +831,7 @@
         <v>19550.02222848214</v>
       </c>
       <c r="F19" t="n">
-        <v>30342.27289253844</v>
+        <v>30239.81788225178</v>
       </c>
     </row>
     <row r="20">
@@ -839,10 +839,10 @@
         <v>45017</v>
       </c>
       <c r="B20" t="n">
-        <v>32703.04973435402</v>
+        <v>32387.8142478466</v>
       </c>
       <c r="C20" t="n">
-        <v>27111.30168712139</v>
+        <v>26878.91443729401</v>
       </c>
       <c r="D20" t="n">
         <v>30244.94639057399</v>
@@ -851,7 +851,7 @@
         <v>11451.98723247274</v>
       </c>
       <c r="F20" t="n">
-        <v>23635.45071768269</v>
+        <v>23661.94437116255</v>
       </c>
     </row>
     <row r="21">
@@ -859,10 +859,10 @@
         <v>45047</v>
       </c>
       <c r="B21" t="n">
-        <v>31207.88649487495</v>
+        <v>31437.22273492813</v>
       </c>
       <c r="C21" t="n">
-        <v>27213.91874825954</v>
+        <v>26066.49327349663</v>
       </c>
       <c r="D21" t="n">
         <v>34239.71323328358</v>
@@ -871,7 +871,7 @@
         <v>14844.27278357647</v>
       </c>
       <c r="F21" t="n">
-        <v>26898.96975698123</v>
+        <v>26806.45680025881</v>
       </c>
     </row>
     <row r="22">
@@ -879,10 +879,10 @@
         <v>45078</v>
       </c>
       <c r="B22" t="n">
-        <v>31001.77574443817</v>
+        <v>31988.58403253555</v>
       </c>
       <c r="C22" t="n">
-        <v>26270.67028534412</v>
+        <v>25697.40703475475</v>
       </c>
       <c r="D22" t="n">
         <v>38958.03870414916</v>
@@ -891,7 +891,7 @@
         <v>21971.39779665363</v>
       </c>
       <c r="F22" t="n">
-        <v>31844.35015974577</v>
+        <v>31713.44408676047</v>
       </c>
     </row>
     <row r="23">
@@ -899,10 +899,10 @@
         <v>45108</v>
       </c>
       <c r="B23" t="n">
-        <v>29652.20841026306</v>
+        <v>30193.48676514626</v>
       </c>
       <c r="C23" t="n">
-        <v>26728.357847929</v>
+        <v>25687.08516788483</v>
       </c>
       <c r="D23" t="n">
         <v>43091.88376717131</v>
@@ -911,7 +911,7 @@
         <v>25009.29998463495</v>
       </c>
       <c r="F23" t="n">
-        <v>35089.95596245996</v>
+        <v>34838.21843250825</v>
       </c>
     </row>
     <row r="24">
@@ -919,10 +919,10 @@
         <v>45139</v>
       </c>
       <c r="B24" t="n">
-        <v>29172.73405957222</v>
+        <v>28824.82612586021</v>
       </c>
       <c r="C24" t="n">
-        <v>27024.20094442368</v>
+        <v>25509.42357957363</v>
       </c>
       <c r="D24" t="n">
         <v>36103.54751488482</v>
@@ -931,7 +931,7 @@
         <v>13950.16181842284</v>
       </c>
       <c r="F24" t="n">
-        <v>27480.55493337564</v>
+        <v>27311.17192451621</v>
       </c>
     </row>
     <row r="25">
@@ -939,10 +939,10 @@
         <v>45170</v>
       </c>
       <c r="B25" t="n">
-        <v>28762.25893950462</v>
+        <v>29710.11399745941</v>
       </c>
       <c r="C25" t="n">
-        <v>25650.17396569252</v>
+        <v>25756.54333913326</v>
       </c>
       <c r="D25" t="n">
         <v>30112.95429982829</v>
@@ -951,7 +951,7 @@
         <v>4576.7507934482</v>
       </c>
       <c r="F25" t="n">
-        <v>20888.8084142668</v>
+        <v>21027.62864874964</v>
       </c>
     </row>
     <row r="26">
@@ -959,10 +959,10 @@
         <v>45200</v>
       </c>
       <c r="B26" t="n">
-        <v>27061.24621915817</v>
+        <v>27139.45348322392</v>
       </c>
       <c r="C26" t="n">
-        <v>24371.98135256767</v>
+        <v>24023.19850957394</v>
       </c>
       <c r="D26" t="n">
         <v>34493.35934035875</v>
@@ -971,7 +971,7 @@
         <v>11826.75426021939</v>
       </c>
       <c r="F26" t="n">
-        <v>25599.81658371786</v>
+        <v>25533.14353697722</v>
       </c>
     </row>
     <row r="27">
@@ -979,10 +979,10 @@
         <v>45231</v>
       </c>
       <c r="B27" t="n">
-        <v>22184.39875006676</v>
+        <v>24971.26842737198</v>
       </c>
       <c r="C27" t="n">
-        <v>20978.92674005032</v>
+        <v>20145.0299052</v>
       </c>
       <c r="D27" t="n">
         <v>38041.60928180491</v>
@@ -991,7 +991,7 @@
         <v>20557.20605378826</v>
       </c>
       <c r="F27" t="n">
-        <v>30083.53197416525</v>
+        <v>29941.64264676594</v>
       </c>
     </row>
     <row r="28">
@@ -999,10 +999,10 @@
         <v>45261</v>
       </c>
       <c r="B28" t="n">
-        <v>20023.88161230087</v>
+        <v>20706.36929392815</v>
       </c>
       <c r="C28" t="n">
-        <v>17307.89677560329</v>
+        <v>18056.84662282467</v>
       </c>
       <c r="D28" t="n">
         <v>42414.84469441049</v>
@@ -1011,7 +1011,7 @@
         <v>25360.21140332133</v>
       </c>
       <c r="F28" t="n">
-        <v>33762.78686881325</v>
+        <v>33498.83473966572</v>
       </c>
     </row>
     <row r="29">
@@ -1019,10 +1019,10 @@
         <v>45292</v>
       </c>
       <c r="B29" t="n">
-        <v>13954.22855067253</v>
+        <v>12395.48570525646</v>
       </c>
       <c r="C29" t="n">
-        <v>10633.64100664854</v>
+        <v>11101.6134802103</v>
       </c>
       <c r="D29" t="n">
         <v>38066.54731639552</v>
@@ -1031,7 +1031,7 @@
         <v>9777.931940821163</v>
       </c>
       <c r="F29" t="n">
-        <v>25277.77690319593</v>
+        <v>24913.80880826334</v>
       </c>
     </row>
     <row r="30">
@@ -1039,10 +1039,10 @@
         <v>45323</v>
       </c>
       <c r="B30" t="n">
-        <v>12498.98111343384</v>
+        <v>12160.21761465073</v>
       </c>
       <c r="C30" t="n">
-        <v>11122.6156001687</v>
+        <v>11428.87682074308</v>
       </c>
       <c r="D30" t="n">
         <v>35122.29464524858</v>
@@ -1051,7 +1051,7 @@
         <v>5532.152051144816</v>
       </c>
       <c r="F30" t="n">
-        <v>22177.79094400538</v>
+        <v>21933.91657026191</v>
       </c>
     </row>
     <row r="31">
@@ -1059,10 +1059,10 @@
         <v>45352</v>
       </c>
       <c r="B31" t="n">
-        <v>11763.69205504656</v>
+        <v>13094.98684871197</v>
       </c>
       <c r="C31" t="n">
-        <v>9617.060019791126</v>
+        <v>10407.52938312292</v>
       </c>
       <c r="D31" t="n">
         <v>39993.74725237095</v>
@@ -1071,7 +1071,7 @@
         <v>13522.308384706</v>
       </c>
       <c r="F31" t="n">
-        <v>27442.86956990968</v>
+        <v>27178.39542604894</v>
       </c>
     </row>
     <row r="32">
@@ -1079,10 +1079,10 @@
         <v>45383</v>
       </c>
       <c r="B32" t="n">
-        <v>11521.65587937832</v>
+        <v>11022.8922713995</v>
       </c>
       <c r="C32" t="n">
-        <v>8612.885040283203</v>
+        <v>8841.093695878983</v>
       </c>
       <c r="D32" t="n">
         <v>33080.92354048813</v>
@@ -1091,7 +1091,7 @@
         <v>6891.437929709256</v>
       </c>
       <c r="F32" t="n">
-        <v>21338.98098994368</v>
+        <v>21047.4644942528</v>
       </c>
     </row>
     <row r="33">
@@ -1099,10 +1099,10 @@
         <v>45413</v>
       </c>
       <c r="B33" t="n">
-        <v>10024.86486172676</v>
+        <v>10341.49178057909</v>
       </c>
       <c r="C33" t="n">
-        <v>8454.527319729328</v>
+        <v>9306.773185193539</v>
       </c>
       <c r="D33" t="n">
         <v>37075.69038319773</v>
@@ -1111,7 +1111,7 @@
         <v>11225.52198028152</v>
       </c>
       <c r="F33" t="n">
-        <v>24912.49484534605</v>
+        <v>24634.14252892585</v>
       </c>
     </row>
     <row r="34">
@@ -1119,10 +1119,10 @@
         <v>45444</v>
       </c>
       <c r="B34" t="n">
-        <v>10439.99814319611</v>
+        <v>11419.41954988241</v>
       </c>
       <c r="C34" t="n">
-        <v>9142.141557216644</v>
+        <v>8983.133241057396</v>
       </c>
       <c r="D34" t="n">
         <v>41794.01585406331</v>
@@ -1131,7 +1131,7 @@
         <v>14991.45784198569</v>
       </c>
       <c r="F34" t="n">
-        <v>28827.1704796101</v>
+        <v>28425.59288355899</v>
       </c>
     </row>
     <row r="35">
@@ -1139,10 +1139,10 @@
         <v>45474</v>
       </c>
       <c r="B35" t="n">
-        <v>10805.51942741871</v>
+        <v>10598.53548657894</v>
       </c>
       <c r="C35" t="n">
-        <v>9636.606249451637</v>
+        <v>9355.147589743137</v>
       </c>
       <c r="D35" t="n">
         <v>45927.86091708546</v>
@@ -1151,7 +1151,7 @@
         <v>19839.62288491453</v>
       </c>
       <c r="F35" t="n">
-        <v>32787.79711585079</v>
+        <v>32245.94552910663</v>
       </c>
     </row>
     <row r="36">
@@ -1159,10 +1159,10 @@
         <v>45505</v>
       </c>
       <c r="B36" t="n">
-        <v>12013.15808409452</v>
+        <v>11963.20832717419</v>
       </c>
       <c r="C36" t="n">
-        <v>9656.774713218212</v>
+        <v>9719.542148947716</v>
       </c>
       <c r="D36" t="n">
         <v>38939.52466479897</v>
@@ -1171,7 +1171,7 @@
         <v>12731.61582631851</v>
       </c>
       <c r="F36" t="n">
-        <v>26615.16273601057</v>
+        <v>26241.30900164179</v>
       </c>
     </row>
     <row r="37">
@@ -1179,10 +1179,10 @@
         <v>45536</v>
       </c>
       <c r="B37" t="n">
-        <v>11791.9770642519</v>
+        <v>12506.89998781681</v>
       </c>
       <c r="C37" t="n">
-        <v>9698.016630411148</v>
+        <v>10035.75567746162</v>
       </c>
       <c r="D37" t="n">
         <v>32948.93144974244</v>
@@ -1191,7 +1191,7 @@
         <v>8127.890938154369</v>
       </c>
       <c r="F37" t="n">
-        <v>21781.06622293617</v>
+        <v>21571.53203371033</v>
       </c>
     </row>
     <row r="38">
@@ -1199,10 +1199,10 @@
         <v>45566</v>
       </c>
       <c r="B38" t="n">
-        <v>13080.22168028355</v>
+        <v>12415.76073950529</v>
       </c>
       <c r="C38" t="n">
-        <v>10046.78830069304</v>
+        <v>11198.57199251652</v>
       </c>
       <c r="D38" t="n">
         <v>37329.3364902729</v>
@@ -1211,7 +1211,7 @@
         <v>9212.158812765581</v>
       </c>
       <c r="F38" t="n">
-        <v>24603.18006663763</v>
+        <v>24342.09858434091</v>
       </c>
     </row>
     <row r="39">
@@ -1219,10 +1219,10 @@
         <v>45597</v>
       </c>
       <c r="B39" t="n">
-        <v>16349.17324733734</v>
+        <v>16401.41341018677</v>
       </c>
       <c r="C39" t="n">
-        <v>14608.06080472469</v>
+        <v>14925.0993950367</v>
       </c>
       <c r="D39" t="n">
         <v>40877.58643171906</v>
@@ -1231,7 +1231,7 @@
         <v>10191.64995863509</v>
       </c>
       <c r="F39" t="n">
-        <v>27311.61430632122</v>
+        <v>27051.67671392647</v>
       </c>
     </row>
   </sheetData>
@@ -1475,7 +1475,7 @@
         <v>0.95</v>
       </c>
       <c r="R2" t="n">
-        <v>11702.53419150814</v>
+        <v>18113.96266987659</v>
       </c>
       <c r="S2" t="n">
         <v>7080.303663366503</v>
@@ -1545,19 +1545,19 @@
         <v>20</v>
       </c>
       <c r="K3" t="n">
-        <v>17131.03333194736</v>
+        <v>17229.63311750007</v>
       </c>
       <c r="L3" t="n">
-        <v>4522.070831000647</v>
+        <v>4547.061456220174</v>
       </c>
       <c r="M3" t="n">
-        <v>15265.06334496136</v>
+        <v>15316.8398647697</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.9362186088646851</v>
+        <v>-0.9585710427335521</v>
       </c>
       <c r="O3" t="n">
-        <v>12613.70282776464</v>
+        <v>13065.97016626734</v>
       </c>
       <c r="P3" t="n">
         <v>24441</v>
@@ -1566,19 +1566,19 @@
         <v>0.95</v>
       </c>
       <c r="R3" t="n">
-        <v>13043.6234330555</v>
+        <v>13183.25177159369</v>
       </c>
       <c r="S3" t="n">
-        <v>6280.018297935514</v>
+        <v>6387.31137856444</v>
       </c>
       <c r="T3" t="n">
-        <v>899.4703310280031</v>
+        <v>923.3218145520876</v>
       </c>
       <c r="U3" t="n">
-        <v>4676.827404357068</v>
+        <v>4738.28759286736</v>
       </c>
       <c r="V3" t="n">
-        <v>0.7901074242975221</v>
+        <v>0.7828741980869616</v>
       </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
@@ -1591,20 +1591,20 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>(0.5387203741162324, 0.3472605867432351, 0.0650444596754204, 0.04897457946511204)</t>
+          <t>(0.5266473307206125, 0.3405364854293568, 0.08493915378452045, 0.04787703006551022)</t>
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>17131.03333194736</v>
+        <v>17229.63311750007</v>
       </c>
       <c r="AD3" t="n">
-        <v>4522.070831000647</v>
+        <v>4547.061456220174</v>
       </c>
       <c r="AE3" t="n">
-        <v>15265.06334496136</v>
+        <v>15316.8398647697</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.9362186088646851</v>
+        <v>-0.9585710427335521</v>
       </c>
       <c r="AG3" t="b">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>0.95</v>
       </c>
       <c r="R4" t="n">
-        <v>19317.95449389951</v>
+        <v>19988.06888214797</v>
       </c>
       <c r="S4" t="n">
         <v>10099.32788859162</v>
@@ -1741,19 +1741,19 @@
         <v>20</v>
       </c>
       <c r="K5" t="n">
-        <v>25618.39596504458</v>
+        <v>25360.956208796</v>
       </c>
       <c r="L5" t="n">
-        <v>5967.122951993867</v>
+        <v>5888.09267919145</v>
       </c>
       <c r="M5" t="n">
-        <v>22067.78154402822</v>
+        <v>21875.91618053615</v>
       </c>
       <c r="N5" t="n">
-        <v>-3.330032314772079</v>
+        <v>-3.243444416655081</v>
       </c>
       <c r="O5" t="n">
-        <v>34237.58422842622</v>
+        <v>34135.72173345089</v>
       </c>
       <c r="P5" t="n">
         <v>24441</v>
@@ -1762,19 +1762,19 @@
         <v>0.95</v>
       </c>
       <c r="R5" t="n">
-        <v>26138.8682333159</v>
+        <v>31894.04008226239</v>
       </c>
       <c r="S5" t="n">
-        <v>12626.53650243408</v>
+        <v>12746.67298812455</v>
       </c>
       <c r="T5" t="n">
-        <v>1782.060190625364</v>
+        <v>1799.47486256019</v>
       </c>
       <c r="U5" t="n">
-        <v>9146.073041440121</v>
+        <v>9173.158253696349</v>
       </c>
       <c r="V5" t="n">
-        <v>0.1515158460946269</v>
+        <v>0.1352930545594472</v>
       </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
@@ -1785,16 +1785,16 @@
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="n">
-        <v>25618.39596504458</v>
+        <v>25360.956208796</v>
       </c>
       <c r="AD5" t="n">
-        <v>5967.122951993867</v>
+        <v>5888.09267919145</v>
       </c>
       <c r="AE5" t="n">
-        <v>22067.78154402822</v>
+        <v>21875.91618053615</v>
       </c>
       <c r="AF5" t="n">
-        <v>-3.330032314772079</v>
+        <v>-3.243444416655081</v>
       </c>
       <c r="AG5" t="b">
         <v>0</v>
@@ -1838,19 +1838,19 @@
         <v>20</v>
       </c>
       <c r="K6" t="n">
-        <v>25871.20436809296</v>
+        <v>26018.62128884028</v>
       </c>
       <c r="L6" t="n">
-        <v>6033.01940232299</v>
+        <v>6044.43824682496</v>
       </c>
       <c r="M6" t="n">
-        <v>22352.78564781696</v>
+        <v>22492.11291103959</v>
       </c>
       <c r="N6" t="n">
-        <v>-3.415913552654072</v>
+        <v>-3.466381636569537</v>
       </c>
       <c r="O6" t="n">
-        <v>34655.05086314678</v>
+        <v>34646.02787312865</v>
       </c>
       <c r="P6" t="n">
         <v>24441</v>
@@ -1859,19 +1859,19 @@
         <v>0.95</v>
       </c>
       <c r="R6" t="n">
-        <v>29128.17923163882</v>
+        <v>26161.5688885659</v>
       </c>
       <c r="S6" t="n">
-        <v>12542.34671819033</v>
+        <v>12671.75048764171</v>
       </c>
       <c r="T6" t="n">
-        <v>1755.056248406011</v>
+        <v>1818.640326424338</v>
       </c>
       <c r="U6" t="n">
-        <v>9132.215488862779</v>
+        <v>9169.198822152402</v>
       </c>
       <c r="V6" t="n">
-        <v>0.1627929764611604</v>
+        <v>0.1454283434671469</v>
       </c>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
@@ -1882,16 +1882,16 @@
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="n">
-        <v>25871.20436809296</v>
+        <v>26018.62128884028</v>
       </c>
       <c r="AD6" t="n">
-        <v>6033.01940232299</v>
+        <v>6044.43824682496</v>
       </c>
       <c r="AE6" t="n">
-        <v>22352.78564781696</v>
+        <v>22492.11291103959</v>
       </c>
       <c r="AF6" t="n">
-        <v>-3.415913552654072</v>
+        <v>-3.466381636569537</v>
       </c>
       <c r="AG6" t="b">
         <v>0</v>
@@ -3391,16 +3391,16 @@
         <v>27030.75485166851</v>
       </c>
       <c r="D2" t="n">
-        <v>27966.6101562472</v>
+        <v>28189.13881966089</v>
       </c>
       <c r="E2" t="n">
         <v>25636.74796623187</v>
       </c>
       <c r="F2" t="n">
-        <v>39268.07154840231</v>
+        <v>39081.84928238392</v>
       </c>
       <c r="G2" t="n">
-        <v>39771.43191185594</v>
+        <v>39760.9599096477</v>
       </c>
     </row>
     <row r="3">
@@ -3414,16 +3414,16 @@
         <v>36911.28760734187</v>
       </c>
       <c r="D3" t="n">
-        <v>35600.12454163723</v>
+        <v>35639.78640354434</v>
       </c>
       <c r="E3" t="n">
         <v>32162.12668011403</v>
       </c>
       <c r="F3" t="n">
-        <v>39542.48996129632</v>
+        <v>39391.45389926434</v>
       </c>
       <c r="G3" t="n">
-        <v>40318.93726631999</v>
+        <v>39733.06123936176</v>
       </c>
     </row>
     <row r="4">
@@ -3437,16 +3437,16 @@
         <v>23449.95451410332</v>
       </c>
       <c r="D4" t="n">
-        <v>27245.30354764434</v>
+        <v>27415.46920149417</v>
       </c>
       <c r="E4" t="n">
         <v>28839.64631935495</v>
       </c>
       <c r="F4" t="n">
-        <v>39986.2610565722</v>
+        <v>38965.10848432779</v>
       </c>
       <c r="G4" t="n">
-        <v>40767.64013928175</v>
+        <v>40416.00132828951</v>
       </c>
     </row>
     <row r="5">
@@ -3460,16 +3460,16 @@
         <v>25985.32039589823</v>
       </c>
       <c r="D5" t="n">
-        <v>29640.15958068021</v>
+        <v>29787.68874149851</v>
       </c>
       <c r="E5" t="n">
         <v>31897.31050924737</v>
       </c>
       <c r="F5" t="n">
-        <v>40224.14401486516</v>
+        <v>39059.03944018483</v>
       </c>
       <c r="G5" t="n">
-        <v>39781.89502441883</v>
+        <v>40160.16326189041</v>
       </c>
     </row>
     <row r="6">
@@ -3483,16 +3483,16 @@
         <v>31049.78982627104</v>
       </c>
       <c r="D6" t="n">
-        <v>33544.82635172524</v>
+        <v>33726.79285212629</v>
       </c>
       <c r="E6" t="n">
         <v>35450.02448003698</v>
       </c>
       <c r="F6" t="n">
-        <v>39110.58160385489</v>
+        <v>39716.4168600738</v>
       </c>
       <c r="G6" t="n">
-        <v>40089.14487302303</v>
+        <v>40290.68498569727</v>
       </c>
     </row>
     <row r="7">
@@ -3506,16 +3506,16 @@
         <v>33100.84343347824</v>
       </c>
       <c r="D7" t="n">
-        <v>35711.42236926785</v>
+        <v>35948.84168400211</v>
       </c>
       <c r="E7" t="n">
         <v>37736.95180859242</v>
       </c>
       <c r="F7" t="n">
-        <v>41656.14833796024</v>
+        <v>42074.30540180206</v>
       </c>
       <c r="G7" t="n">
-        <v>42170.16145974398</v>
+        <v>43691.2232375741</v>
       </c>
     </row>
     <row r="8">
@@ -3529,16 +3529,16 @@
         <v>24012.11030894395</v>
       </c>
       <c r="D8" t="n">
-        <v>27144.73427974002</v>
+        <v>27395.90876582281</v>
       </c>
       <c r="E8" t="n">
         <v>26640.85106003355</v>
       </c>
       <c r="F8" t="n">
-        <v>43366.19409829378</v>
+        <v>42244.21418088675</v>
       </c>
       <c r="G8" t="n">
-        <v>43632.28883993626</v>
+        <v>43645.67664581537</v>
       </c>
     </row>
     <row r="9">
@@ -3552,16 +3552,16 @@
         <v>16089.95222756954</v>
       </c>
       <c r="D9" t="n">
-        <v>20550.81319165503</v>
+        <v>20991.97908165592</v>
       </c>
       <c r="E9" t="n">
         <v>20404.64347404926</v>
       </c>
       <c r="F9" t="n">
-        <v>41665.73137563467</v>
+        <v>42148.90928095579</v>
       </c>
       <c r="G9" t="n">
-        <v>42613.42683297396</v>
+        <v>41557.09793412685</v>
       </c>
     </row>
     <row r="10">
@@ -3575,16 +3575,16 @@
         <v>22019.41356538294</v>
       </c>
       <c r="D10" t="n">
-        <v>25427.50087715147</v>
+        <v>25799.60024659942</v>
       </c>
       <c r="E10" t="n">
         <v>25002.86854929137</v>
       </c>
       <c r="F10" t="n">
-        <v>42803.7027772665</v>
+        <v>42686.48984026909</v>
       </c>
       <c r="G10" t="n">
-        <v>42849.5693962574</v>
+        <v>43089.38041985035</v>
       </c>
     </row>
     <row r="11">
@@ -3598,16 +3598,16 @@
         <v>29245.17185939339</v>
       </c>
       <c r="D11" t="n">
-        <v>30083.79667400384</v>
+        <v>30390.90971522466</v>
       </c>
       <c r="E11" t="n">
         <v>27099.40536418543</v>
       </c>
       <c r="F11" t="n">
-        <v>42887.87784123421</v>
+        <v>42835.92477840185</v>
       </c>
       <c r="G11" t="n">
-        <v>43464.43653213978</v>
+        <v>44326.77954137325</v>
       </c>
     </row>
     <row r="12">
@@ -3621,16 +3621,16 @@
         <v>31762.93829269388</v>
       </c>
       <c r="D12" t="n">
-        <v>33041.27646907712</v>
+        <v>33162.7731945872</v>
       </c>
       <c r="E12" t="n">
         <v>32089.60548487016</v>
       </c>
       <c r="F12" t="n">
-        <v>41700.78423494101</v>
+        <v>41239.79685986042</v>
       </c>
       <c r="G12" t="n">
-        <v>42350.01676422358</v>
+        <v>41864.5769380331</v>
       </c>
     </row>
     <row r="13">
@@ -3644,16 +3644,16 @@
         <v>26423.45062859761</v>
       </c>
       <c r="D13" t="n">
-        <v>27981.85628065125</v>
+        <v>28208.62857793114</v>
       </c>
       <c r="E13" t="n">
         <v>25599.6216942816</v>
       </c>
       <c r="F13" t="n">
-        <v>43023.5535838604</v>
+        <v>41611.87197774649</v>
       </c>
       <c r="G13" t="n">
-        <v>42038.57692945004</v>
+        <v>42623.91463899612</v>
       </c>
     </row>
     <row r="14">
@@ -3667,16 +3667,16 @@
         <v>19165.20548026611</v>
       </c>
       <c r="D14" t="n">
-        <v>22271.69467673137</v>
+        <v>22676.41811056552</v>
       </c>
       <c r="E14" t="n">
         <v>21143.16410197598</v>
       </c>
       <c r="F14" t="n">
-        <v>40645.5991371274</v>
+        <v>40572.44920885563</v>
       </c>
       <c r="G14" t="n">
-        <v>40042.18976634741</v>
+        <v>40455.8407677412</v>
       </c>
     </row>
     <row r="15">
@@ -3690,16 +3690,16 @@
         <v>29045.73823593947</v>
       </c>
       <c r="D15" t="n">
-        <v>29471.63205942192</v>
+        <v>29680.06283225412</v>
       </c>
       <c r="E15" t="n">
         <v>26548.24840430291</v>
       </c>
       <c r="F15" t="n">
-        <v>40256.7601236105</v>
+        <v>39949.8154861629</v>
       </c>
       <c r="G15" t="n">
-        <v>40561.0744137764</v>
+        <v>40713.7115997076</v>
       </c>
     </row>
     <row r="16">
@@ -3713,16 +3713,16 @@
         <v>15584.40514270092</v>
       </c>
       <c r="D16" t="n">
-        <v>20046.28152194393</v>
+        <v>20505.84775185532</v>
       </c>
       <c r="E16" t="n">
         <v>20867.09090914073</v>
       </c>
       <c r="F16" t="n">
-        <v>38310.85231769085</v>
+        <v>38944.14373740554</v>
       </c>
       <c r="G16" t="n">
-        <v>39049.19761505723</v>
+        <v>39360.71153020859</v>
       </c>
     </row>
     <row r="17">
@@ -3736,16 +3736,16 @@
         <v>18119.77102449583</v>
       </c>
       <c r="D17" t="n">
-        <v>22500.89837120555</v>
+        <v>22810.57916078275</v>
       </c>
       <c r="E17" t="n">
         <v>24097.3534809364</v>
       </c>
       <c r="F17" t="n">
-        <v>38373.90953528881</v>
+        <v>38201.9314443171</v>
       </c>
       <c r="G17" t="n">
-        <v>38292.05368101597</v>
+        <v>37951.02416786551</v>
       </c>
     </row>
     <row r="18">
@@ -3759,16 +3759,16 @@
         <v>23184.24045486865</v>
       </c>
       <c r="D18" t="n">
-        <v>26848.64720189723</v>
+        <v>27076.29047311208</v>
       </c>
       <c r="E18" t="n">
         <v>28642.71939095779</v>
       </c>
       <c r="F18" t="n">
-        <v>38824.59875011444</v>
+        <v>38624.11551749706</v>
       </c>
       <c r="G18" t="n">
-        <v>38530.4364349246</v>
+        <v>38260.130964607</v>
       </c>
     </row>
     <row r="19">
@@ -3782,16 +3782,16 @@
         <v>25235.29406207584</v>
       </c>
       <c r="D19" t="n">
-        <v>28570.16633305557</v>
+        <v>28654.74507365538</v>
       </c>
       <c r="E19" t="n">
         <v>31296.832209261</v>
       </c>
       <c r="F19" t="n">
-        <v>35750.41715788841</v>
+        <v>35311.31411415339</v>
       </c>
       <c r="G19" t="n">
-        <v>36383.69968795776</v>
+        <v>35666.75769335032</v>
       </c>
     </row>
     <row r="20">
@@ -3805,16 +3805,16 @@
         <v>16146.56093754155</v>
       </c>
       <c r="D20" t="n">
-        <v>19704.56758804548</v>
+        <v>20022.49066657848</v>
       </c>
       <c r="E20" t="n">
         <v>19855.58052111302</v>
       </c>
       <c r="F20" t="n">
-        <v>35775.40101224184</v>
+        <v>35499.31134602427</v>
       </c>
       <c r="G20" t="n">
-        <v>36427.75677025318</v>
+        <v>36387.31085944176</v>
       </c>
     </row>
     <row r="21">
@@ -3828,16 +3828,16 @@
         <v>8224.40285616714</v>
       </c>
       <c r="D21" t="n">
-        <v>12613.70282776464</v>
+        <v>13065.97016626734</v>
       </c>
       <c r="E21" t="n">
         <v>12264.18400963632</v>
       </c>
       <c r="F21" t="n">
-        <v>34237.58422842622</v>
+        <v>34135.72173345089</v>
       </c>
       <c r="G21" t="n">
-        <v>34655.05086314678</v>
+        <v>34646.02787312865</v>
       </c>
     </row>
   </sheetData>
@@ -3907,16 +3907,16 @@
         <v>27030.75485166851</v>
       </c>
       <c r="D2" t="n">
-        <v>27966.6101562472</v>
+        <v>28189.13881966089</v>
       </c>
       <c r="E2" t="n">
         <v>25636.74796623187</v>
       </c>
       <c r="F2" t="n">
-        <v>39268.07154840231</v>
+        <v>39081.84928238392</v>
       </c>
       <c r="G2" t="n">
-        <v>39771.43191185594</v>
+        <v>39760.9599096477</v>
       </c>
     </row>
     <row r="3">
@@ -3930,16 +3930,16 @@
         <v>36911.28760734187</v>
       </c>
       <c r="D3" t="n">
-        <v>35600.12454163723</v>
+        <v>35639.78640354434</v>
       </c>
       <c r="E3" t="n">
         <v>32162.12668011403</v>
       </c>
       <c r="F3" t="n">
-        <v>39542.48996129632</v>
+        <v>39391.45389926434</v>
       </c>
       <c r="G3" t="n">
-        <v>40318.93726631999</v>
+        <v>39733.06123936176</v>
       </c>
     </row>
     <row r="4">
@@ -3953,16 +3953,16 @@
         <v>23449.95451410332</v>
       </c>
       <c r="D4" t="n">
-        <v>27245.30354764434</v>
+        <v>27415.46920149417</v>
       </c>
       <c r="E4" t="n">
         <v>28839.64631935495</v>
       </c>
       <c r="F4" t="n">
-        <v>39986.2610565722</v>
+        <v>38965.10848432779</v>
       </c>
       <c r="G4" t="n">
-        <v>40767.64013928175</v>
+        <v>40416.00132828951</v>
       </c>
     </row>
     <row r="5">
@@ -3976,16 +3976,16 @@
         <v>25985.32039589823</v>
       </c>
       <c r="D5" t="n">
-        <v>29640.15958068021</v>
+        <v>29787.68874149851</v>
       </c>
       <c r="E5" t="n">
         <v>31897.31050924737</v>
       </c>
       <c r="F5" t="n">
-        <v>40224.14401486516</v>
+        <v>39059.03944018483</v>
       </c>
       <c r="G5" t="n">
-        <v>39781.89502441883</v>
+        <v>40160.16326189041</v>
       </c>
     </row>
     <row r="6">
@@ -3999,16 +3999,16 @@
         <v>31049.78982627104</v>
       </c>
       <c r="D6" t="n">
-        <v>33544.82635172524</v>
+        <v>33726.79285212629</v>
       </c>
       <c r="E6" t="n">
         <v>35450.02448003698</v>
       </c>
       <c r="F6" t="n">
-        <v>39110.58160385489</v>
+        <v>39716.4168600738</v>
       </c>
       <c r="G6" t="n">
-        <v>40089.14487302303</v>
+        <v>40290.68498569727</v>
       </c>
     </row>
     <row r="7">
@@ -4022,16 +4022,16 @@
         <v>33100.84343347824</v>
       </c>
       <c r="D7" t="n">
-        <v>35711.42236926785</v>
+        <v>35948.84168400211</v>
       </c>
       <c r="E7" t="n">
         <v>37736.95180859242</v>
       </c>
       <c r="F7" t="n">
-        <v>41656.14833796024</v>
+        <v>42074.30540180206</v>
       </c>
       <c r="G7" t="n">
-        <v>42170.16145974398</v>
+        <v>43691.2232375741</v>
       </c>
     </row>
     <row r="8">
@@ -4045,16 +4045,16 @@
         <v>24012.11030894395</v>
       </c>
       <c r="D8" t="n">
-        <v>27144.73427974002</v>
+        <v>27395.90876582281</v>
       </c>
       <c r="E8" t="n">
         <v>26640.85106003355</v>
       </c>
       <c r="F8" t="n">
-        <v>43366.19409829378</v>
+        <v>42244.21418088675</v>
       </c>
       <c r="G8" t="n">
-        <v>43632.28883993626</v>
+        <v>43645.67664581537</v>
       </c>
     </row>
     <row r="9">
@@ -4068,16 +4068,16 @@
         <v>16089.95222756954</v>
       </c>
       <c r="D9" t="n">
-        <v>20550.81319165503</v>
+        <v>20991.97908165592</v>
       </c>
       <c r="E9" t="n">
         <v>20404.64347404926</v>
       </c>
       <c r="F9" t="n">
-        <v>41665.73137563467</v>
+        <v>42148.90928095579</v>
       </c>
       <c r="G9" t="n">
-        <v>42613.42683297396</v>
+        <v>41557.09793412685</v>
       </c>
     </row>
     <row r="10">
@@ -4091,16 +4091,16 @@
         <v>22019.41356538294</v>
       </c>
       <c r="D10" t="n">
-        <v>25427.50087715147</v>
+        <v>25799.60024659942</v>
       </c>
       <c r="E10" t="n">
         <v>25002.86854929137</v>
       </c>
       <c r="F10" t="n">
-        <v>42803.7027772665</v>
+        <v>42686.48984026909</v>
       </c>
       <c r="G10" t="n">
-        <v>42849.5693962574</v>
+        <v>43089.38041985035</v>
       </c>
     </row>
     <row r="11">
@@ -4114,16 +4114,16 @@
         <v>29245.17185939339</v>
       </c>
       <c r="D11" t="n">
-        <v>30083.79667400384</v>
+        <v>30390.90971522466</v>
       </c>
       <c r="E11" t="n">
         <v>27099.40536418543</v>
       </c>
       <c r="F11" t="n">
-        <v>42887.87784123421</v>
+        <v>42835.92477840185</v>
       </c>
       <c r="G11" t="n">
-        <v>43464.43653213978</v>
+        <v>44326.77954137325</v>
       </c>
     </row>
     <row r="12">
@@ -4137,16 +4137,16 @@
         <v>31762.93829269388</v>
       </c>
       <c r="D12" t="n">
-        <v>33041.27646907712</v>
+        <v>33162.7731945872</v>
       </c>
       <c r="E12" t="n">
         <v>32089.60548487016</v>
       </c>
       <c r="F12" t="n">
-        <v>41700.78423494101</v>
+        <v>41239.79685986042</v>
       </c>
       <c r="G12" t="n">
-        <v>42350.01676422358</v>
+        <v>41864.5769380331</v>
       </c>
     </row>
     <row r="13">
@@ -4160,16 +4160,16 @@
         <v>26423.45062859761</v>
       </c>
       <c r="D13" t="n">
-        <v>27981.85628065125</v>
+        <v>28208.62857793114</v>
       </c>
       <c r="E13" t="n">
         <v>25599.6216942816</v>
       </c>
       <c r="F13" t="n">
-        <v>43023.5535838604</v>
+        <v>41611.87197774649</v>
       </c>
       <c r="G13" t="n">
-        <v>42038.57692945004</v>
+        <v>42623.91463899612</v>
       </c>
     </row>
     <row r="14">
@@ -4183,16 +4183,16 @@
         <v>19165.20548026611</v>
       </c>
       <c r="D14" t="n">
-        <v>22271.69467673137</v>
+        <v>22676.41811056552</v>
       </c>
       <c r="E14" t="n">
         <v>21143.16410197598</v>
       </c>
       <c r="F14" t="n">
-        <v>40645.5991371274</v>
+        <v>40572.44920885563</v>
       </c>
       <c r="G14" t="n">
-        <v>40042.18976634741</v>
+        <v>40455.8407677412</v>
       </c>
     </row>
     <row r="15">
@@ -4206,16 +4206,16 @@
         <v>29045.73823593947</v>
       </c>
       <c r="D15" t="n">
-        <v>29471.63205942192</v>
+        <v>29680.06283225412</v>
       </c>
       <c r="E15" t="n">
         <v>26548.24840430291</v>
       </c>
       <c r="F15" t="n">
-        <v>40256.7601236105</v>
+        <v>39949.8154861629</v>
       </c>
       <c r="G15" t="n">
-        <v>40561.0744137764</v>
+        <v>40713.7115997076</v>
       </c>
     </row>
     <row r="16">
@@ -4229,16 +4229,16 @@
         <v>15584.40514270092</v>
       </c>
       <c r="D16" t="n">
-        <v>20046.28152194393</v>
+        <v>20505.84775185532</v>
       </c>
       <c r="E16" t="n">
         <v>20867.09090914073</v>
       </c>
       <c r="F16" t="n">
-        <v>38310.85231769085</v>
+        <v>38944.14373740554</v>
       </c>
       <c r="G16" t="n">
-        <v>39049.19761505723</v>
+        <v>39360.71153020859</v>
       </c>
     </row>
     <row r="17">
@@ -4252,16 +4252,16 @@
         <v>18119.77102449583</v>
       </c>
       <c r="D17" t="n">
-        <v>22500.89837120555</v>
+        <v>22810.57916078275</v>
       </c>
       <c r="E17" t="n">
         <v>24097.3534809364</v>
       </c>
       <c r="F17" t="n">
-        <v>38373.90953528881</v>
+        <v>38201.9314443171</v>
       </c>
       <c r="G17" t="n">
-        <v>38292.05368101597</v>
+        <v>37951.02416786551</v>
       </c>
     </row>
     <row r="18">
@@ -4275,16 +4275,16 @@
         <v>23184.24045486865</v>
       </c>
       <c r="D18" t="n">
-        <v>26848.64720189723</v>
+        <v>27076.29047311208</v>
       </c>
       <c r="E18" t="n">
         <v>28642.71939095779</v>
       </c>
       <c r="F18" t="n">
-        <v>38824.59875011444</v>
+        <v>38624.11551749706</v>
       </c>
       <c r="G18" t="n">
-        <v>38530.4364349246</v>
+        <v>38260.130964607</v>
       </c>
     </row>
     <row r="19">
@@ -4298,16 +4298,16 @@
         <v>25235.29406207584</v>
       </c>
       <c r="D19" t="n">
-        <v>28570.16633305557</v>
+        <v>28654.74507365538</v>
       </c>
       <c r="E19" t="n">
         <v>31296.832209261</v>
       </c>
       <c r="F19" t="n">
-        <v>35750.41715788841</v>
+        <v>35311.31411415339</v>
       </c>
       <c r="G19" t="n">
-        <v>36383.69968795776</v>
+        <v>35666.75769335032</v>
       </c>
     </row>
     <row r="20">
@@ -4321,16 +4321,16 @@
         <v>16146.56093754155</v>
       </c>
       <c r="D20" t="n">
-        <v>19704.56758804548</v>
+        <v>20022.49066657848</v>
       </c>
       <c r="E20" t="n">
         <v>19855.58052111302</v>
       </c>
       <c r="F20" t="n">
-        <v>35775.40101224184</v>
+        <v>35499.31134602427</v>
       </c>
       <c r="G20" t="n">
-        <v>36427.75677025318</v>
+        <v>36387.31085944176</v>
       </c>
     </row>
     <row r="21">
@@ -4344,16 +4344,16 @@
         <v>8224.40285616714</v>
       </c>
       <c r="D21" t="n">
-        <v>12613.70282776464</v>
+        <v>13065.97016626734</v>
       </c>
       <c r="E21" t="n">
         <v>12264.18400963632</v>
       </c>
       <c r="F21" t="n">
-        <v>34237.58422842622</v>
+        <v>34135.72173345089</v>
       </c>
       <c r="G21" t="n">
-        <v>34655.05086314678</v>
+        <v>34646.02787312865</v>
       </c>
     </row>
   </sheetData>
@@ -4415,16 +4415,16 @@
         <v>28821.40504053046</v>
       </c>
       <c r="C2" t="n">
-        <v>26437.0598387594</v>
+        <v>26477.83072554918</v>
       </c>
       <c r="D2" t="n">
         <v>19528.73090641264</v>
       </c>
       <c r="E2" t="n">
-        <v>33715.64120364189</v>
+        <v>32777.96534562111</v>
       </c>
       <c r="F2" t="n">
-        <v>39526.7817773819</v>
+        <v>38948.4615855217</v>
       </c>
     </row>
     <row r="3">
@@ -4435,16 +4435,16 @@
         <v>32369.65498197662</v>
       </c>
       <c r="C3" t="n">
-        <v>29347.97695229282</v>
+        <v>29430.89110619061</v>
       </c>
       <c r="D3" t="n">
         <v>23129.51227480709</v>
       </c>
       <c r="E3" t="n">
-        <v>31264.35166168213</v>
+        <v>31307.77397656441</v>
       </c>
       <c r="F3" t="n">
-        <v>37657.15736532211</v>
+        <v>38594.70946407318</v>
       </c>
     </row>
     <row r="4">
@@ -4455,16 +4455,16 @@
         <v>36742.89039458219</v>
       </c>
       <c r="C4" t="n">
-        <v>33348.1613568833</v>
+        <v>33339.61459228666</v>
       </c>
       <c r="D4" t="n">
         <v>28141.42346625904</v>
       </c>
       <c r="E4" t="n">
-        <v>31520.12425684929</v>
+        <v>31310.65825510025</v>
       </c>
       <c r="F4" t="n">
-        <v>35353.05541038513</v>
+        <v>36476.51455879211</v>
       </c>
     </row>
     <row r="5">
@@ -4475,16 +4475,16 @@
         <v>32394.59301656722</v>
       </c>
       <c r="C5" t="n">
-        <v>28249.38028458415</v>
+        <v>28357.65086586473</v>
       </c>
       <c r="D5" t="n">
         <v>19907.21823224366</v>
       </c>
       <c r="E5" t="n">
-        <v>31581.6429271698</v>
+        <v>31401.60756731033</v>
       </c>
       <c r="F5" t="n">
-        <v>37377.55079746246</v>
+        <v>38656.63378977776</v>
       </c>
     </row>
     <row r="6">
@@ -4495,16 +4495,16 @@
         <v>29450.34034542029</v>
       </c>
       <c r="C6" t="n">
-        <v>26009.40822998063</v>
+        <v>25996.31135428154</v>
       </c>
       <c r="D6" t="n">
         <v>17204.30476352941</v>
       </c>
       <c r="E6" t="n">
-        <v>34225.83191752434</v>
+        <v>33276.33704924583</v>
       </c>
       <c r="F6" t="n">
-        <v>39680.42547297478</v>
+        <v>37621.60751509666</v>
       </c>
     </row>
     <row r="7">
@@ -4515,16 +4515,16 @@
         <v>34321.79295254266</v>
       </c>
       <c r="C7" t="n">
-        <v>30359.56800737021</v>
+        <v>30453.75473513019</v>
       </c>
       <c r="D7" t="n">
         <v>22264.59026738248</v>
       </c>
       <c r="E7" t="n">
-        <v>34337.81343007088</v>
+        <v>34275.370002985</v>
       </c>
       <c r="F7" t="n">
-        <v>38889.96470403671</v>
+        <v>39372.69804883003</v>
       </c>
     </row>
     <row r="8">
@@ -4535,16 +4535,16 @@
         <v>27408.96924065984</v>
       </c>
       <c r="C8" t="n">
-        <v>24137.44504916402</v>
+        <v>24151.92582613196</v>
       </c>
       <c r="D8" t="n">
         <v>14683.00488414149</v>
       </c>
       <c r="E8" t="n">
-        <v>35735.69157028198</v>
+        <v>33583.31160449982</v>
       </c>
       <c r="F8" t="n">
-        <v>39784.66515564919</v>
+        <v>38942.02266573906</v>
       </c>
     </row>
     <row r="9">
@@ -4555,16 +4555,16 @@
         <v>31403.73608336944</v>
       </c>
       <c r="C9" t="n">
-        <v>27498.11389253203</v>
+        <v>27522.10895634121</v>
       </c>
       <c r="D9" t="n">
         <v>18388.23141479356</v>
       </c>
       <c r="E9" t="n">
-        <v>35041.64271020889</v>
+        <v>33876.71045541763</v>
       </c>
       <c r="F9" t="n">
-        <v>39112.30510759354</v>
+        <v>38517.26710104942</v>
       </c>
     </row>
     <row r="10">
@@ -4575,16 +4575,16 @@
         <v>36122.06155423502</v>
       </c>
       <c r="C10" t="n">
-        <v>31947.83058383822</v>
+        <v>32165.80773538344</v>
       </c>
       <c r="D10" t="n">
         <v>24411.43665927032</v>
       </c>
       <c r="E10" t="n">
-        <v>32358.23578238487</v>
+        <v>34786.95644640923</v>
       </c>
       <c r="F10" t="n">
-        <v>38923.99506545067</v>
+        <v>39151.57117366791</v>
       </c>
     </row>
     <row r="11">
@@ -4595,16 +4595,16 @@
         <v>40255.90661725717</v>
       </c>
       <c r="C11" t="n">
-        <v>35619.82925544143</v>
+        <v>35597.3277703027</v>
       </c>
       <c r="D11" t="n">
         <v>28095.39572557426</v>
       </c>
       <c r="E11" t="n">
-        <v>35068.92131590843</v>
+        <v>34574.57178854942</v>
       </c>
       <c r="F11" t="n">
-        <v>38707.62260890007</v>
+        <v>39526.67520689964</v>
       </c>
     </row>
     <row r="12">
@@ -4615,16 +4615,16 @@
         <v>33267.57036497068</v>
       </c>
       <c r="C12" t="n">
-        <v>28304.56710515951</v>
+        <v>28244.06063189</v>
       </c>
       <c r="D12" t="n">
         <v>18353.19117831365</v>
       </c>
       <c r="E12" t="n">
-        <v>33205.88708496094</v>
+        <v>31598.4948143959</v>
       </c>
       <c r="F12" t="n">
-        <v>37763.47345352173</v>
+        <v>37385.4198243618</v>
       </c>
     </row>
     <row r="13">
@@ -4635,16 +4635,16 @@
         <v>27276.97714991415</v>
       </c>
       <c r="C13" t="n">
-        <v>22454.67104537241</v>
+        <v>22514.87738253175</v>
       </c>
       <c r="D13" t="n">
         <v>10506.09552529317</v>
       </c>
       <c r="E13" t="n">
-        <v>34258.28778600693</v>
+        <v>31525.95813131332</v>
       </c>
       <c r="F13" t="n">
-        <v>38455.52153873444</v>
+        <v>39560.37210583687</v>
       </c>
     </row>
     <row r="14">
@@ -4655,16 +4655,16 @@
         <v>31657.3821904446</v>
       </c>
       <c r="C14" t="n">
-        <v>26574.73686170968</v>
+        <v>26530.08265111835</v>
       </c>
       <c r="D14" t="n">
         <v>15637.361206851</v>
       </c>
       <c r="E14" t="n">
-        <v>33830.49324369431</v>
+        <v>32199.3013780117</v>
       </c>
       <c r="F14" t="n">
-        <v>38581.94850826263</v>
+        <v>37548.97457480431</v>
       </c>
     </row>
     <row r="15">
@@ -4675,16 +4675,16 @@
         <v>35205.63213189076</v>
       </c>
       <c r="C15" t="n">
-        <v>30424.22791319714</v>
+        <v>30358.53266299726</v>
       </c>
       <c r="D15" t="n">
         <v>21822.9740446377</v>
       </c>
       <c r="E15" t="n">
-        <v>31618.17253828049</v>
+        <v>31001.80324649811</v>
       </c>
       <c r="F15" t="n">
-        <v>37231.37391114235</v>
+        <v>36610.34645795822</v>
       </c>
     </row>
     <row r="16">
@@ -4695,16 +4695,16 @@
         <v>39578.86754449634</v>
       </c>
       <c r="C16" t="n">
-        <v>34422.23975610126</v>
+        <v>34248.78969349036</v>
       </c>
       <c r="D16" t="n">
         <v>26784.80634910359</v>
       </c>
       <c r="E16" t="n">
-        <v>31870.18766450882</v>
+        <v>30709.81731390953</v>
       </c>
       <c r="F16" t="n">
-        <v>35242.99216651917</v>
+        <v>34985.77571320534</v>
       </c>
     </row>
     <row r="17">
@@ -4715,16 +4715,16 @@
         <v>35230.57016648137</v>
       </c>
       <c r="C17" t="n">
-        <v>27587.29479088871</v>
+        <v>27558.47503063597</v>
       </c>
       <c r="D17" t="n">
         <v>14879.81879972061</v>
       </c>
       <c r="E17" t="n">
-        <v>28326.9253950119</v>
+        <v>27154.1688041687</v>
       </c>
       <c r="F17" t="n">
-        <v>32632.94354581833</v>
+        <v>34062.59687852859</v>
       </c>
     </row>
     <row r="18">
@@ -4735,16 +4735,16 @@
         <v>32286.31749533443</v>
       </c>
       <c r="C18" t="n">
-        <v>25064.38409947684</v>
+        <v>25144.35788096058</v>
       </c>
       <c r="D18" t="n">
         <v>11361.82956669037</v>
       </c>
       <c r="E18" t="n">
-        <v>31226.2372443676</v>
+        <v>30629.81382155418</v>
       </c>
       <c r="F18" t="n">
-        <v>34599.12769031525</v>
+        <v>34882.42640972137</v>
       </c>
     </row>
     <row r="19">
@@ -4755,16 +4755,16 @@
         <v>37157.77010245681</v>
       </c>
       <c r="C19" t="n">
-        <v>30342.27289253844</v>
+        <v>30239.81788225178</v>
       </c>
       <c r="D19" t="n">
         <v>19550.02222848214</v>
       </c>
       <c r="E19" t="n">
-        <v>28886.58200144768</v>
+        <v>28347.66366708279</v>
       </c>
       <c r="F19" t="n">
-        <v>33828.99438142776</v>
+        <v>33532.8865776062</v>
       </c>
     </row>
     <row r="20">
@@ -4775,16 +4775,16 @@
         <v>30244.94639057399</v>
       </c>
       <c r="C20" t="n">
-        <v>23635.45071768269</v>
+        <v>23661.94437116255</v>
       </c>
       <c r="D20" t="n">
         <v>11451.98723247274</v>
       </c>
       <c r="E20" t="n">
-        <v>27111.30168712139</v>
+        <v>26878.91443729401</v>
       </c>
       <c r="F20" t="n">
-        <v>32703.04973435402</v>
+        <v>32387.8142478466</v>
       </c>
     </row>
     <row r="21">
@@ -4795,16 +4795,16 @@
         <v>34239.71323328358</v>
       </c>
       <c r="C21" t="n">
-        <v>26898.96975698123</v>
+        <v>26806.45680025881</v>
       </c>
       <c r="D21" t="n">
         <v>14844.27278357647</v>
       </c>
       <c r="E21" t="n">
-        <v>27213.91874825954</v>
+        <v>26066.49327349663</v>
       </c>
       <c r="F21" t="n">
-        <v>31207.88649487495</v>
+        <v>31437.22273492813</v>
       </c>
     </row>
     <row r="22">
@@ -4815,16 +4815,16 @@
         <v>38958.03870414916</v>
       </c>
       <c r="C22" t="n">
-        <v>31844.35015974577</v>
+        <v>31713.44408676047</v>
       </c>
       <c r="D22" t="n">
         <v>21971.39779665363</v>
       </c>
       <c r="E22" t="n">
-        <v>26270.67028534412</v>
+        <v>25697.40703475475</v>
       </c>
       <c r="F22" t="n">
-        <v>31001.77574443817</v>
+        <v>31988.58403253555</v>
       </c>
     </row>
     <row r="23">
@@ -4835,16 +4835,16 @@
         <v>43091.88376717131</v>
       </c>
       <c r="C23" t="n">
-        <v>35089.95596245996</v>
+        <v>34838.21843250825</v>
       </c>
       <c r="D23" t="n">
         <v>25009.29998463495</v>
       </c>
       <c r="E23" t="n">
-        <v>26728.357847929</v>
+        <v>25687.08516788483</v>
       </c>
       <c r="F23" t="n">
-        <v>29652.20841026306</v>
+        <v>30193.48676514626</v>
       </c>
     </row>
     <row r="24">
@@ -4855,16 +4855,16 @@
         <v>36103.54751488482</v>
       </c>
       <c r="C24" t="n">
-        <v>27480.55493337564</v>
+        <v>27311.17192451621</v>
       </c>
       <c r="D24" t="n">
         <v>13950.16181842284</v>
       </c>
       <c r="E24" t="n">
-        <v>27024.20094442368</v>
+        <v>25509.42357957363</v>
       </c>
       <c r="F24" t="n">
-        <v>29172.73405957222</v>
+        <v>28824.82612586021</v>
       </c>
     </row>
     <row r="25">
@@ -4875,16 +4875,16 @@
         <v>30112.95429982829</v>
       </c>
       <c r="C25" t="n">
-        <v>20888.8084142668</v>
+        <v>21027.62864874964</v>
       </c>
       <c r="D25" t="n">
         <v>4576.7507934482</v>
       </c>
       <c r="E25" t="n">
-        <v>25650.17396569252</v>
+        <v>25756.54333913326</v>
       </c>
       <c r="F25" t="n">
-        <v>28762.25893950462</v>
+        <v>29710.11399745941</v>
       </c>
     </row>
     <row r="26">
@@ -4895,16 +4895,16 @@
         <v>34493.35934035875</v>
       </c>
       <c r="C26" t="n">
-        <v>25599.81658371786</v>
+        <v>25533.14353697722</v>
       </c>
       <c r="D26" t="n">
         <v>11826.75426021939</v>
       </c>
       <c r="E26" t="n">
-        <v>24371.98135256767</v>
+        <v>24023.19850957394</v>
       </c>
       <c r="F26" t="n">
-        <v>27061.24621915817</v>
+        <v>27139.45348322392</v>
       </c>
     </row>
     <row r="27">
@@ -4915,16 +4915,16 @@
         <v>38041.60928180491</v>
       </c>
       <c r="C27" t="n">
-        <v>30083.53197416525</v>
+        <v>29941.64264676594</v>
       </c>
       <c r="D27" t="n">
         <v>20557.20605378826</v>
       </c>
       <c r="E27" t="n">
-        <v>20978.92674005032</v>
+        <v>20145.0299052</v>
       </c>
       <c r="F27" t="n">
-        <v>22184.39875006676</v>
+        <v>24971.26842737198</v>
       </c>
     </row>
     <row r="28">
@@ -4935,16 +4935,16 @@
         <v>42414.84469441049</v>
       </c>
       <c r="C28" t="n">
-        <v>33762.78686881325</v>
+        <v>33498.83473966572</v>
       </c>
       <c r="D28" t="n">
         <v>25360.21140332133</v>
       </c>
       <c r="E28" t="n">
-        <v>17307.89677560329</v>
+        <v>18056.84662282467</v>
       </c>
       <c r="F28" t="n">
-        <v>20023.88161230087</v>
+        <v>20706.36929392815</v>
       </c>
     </row>
     <row r="29">
@@ -4955,16 +4955,16 @@
         <v>38066.54731639552</v>
       </c>
       <c r="C29" t="n">
-        <v>25277.77690319593</v>
+        <v>24913.80880826334</v>
       </c>
       <c r="D29" t="n">
         <v>9777.931940821163</v>
       </c>
       <c r="E29" t="n">
-        <v>10633.64100664854</v>
+        <v>11101.6134802103</v>
       </c>
       <c r="F29" t="n">
-        <v>13954.22855067253</v>
+        <v>12395.48570525646</v>
       </c>
     </row>
     <row r="30">
@@ -4975,16 +4975,16 @@
         <v>35122.29464524858</v>
       </c>
       <c r="C30" t="n">
-        <v>22177.79094400538</v>
+        <v>21933.91657026191</v>
       </c>
       <c r="D30" t="n">
         <v>5532.152051144816</v>
       </c>
       <c r="E30" t="n">
-        <v>11122.6156001687</v>
+        <v>11428.87682074308</v>
       </c>
       <c r="F30" t="n">
-        <v>12498.98111343384</v>
+        <v>12160.21761465073</v>
       </c>
     </row>
     <row r="31">
@@ -4995,16 +4995,16 @@
         <v>39993.74725237095</v>
       </c>
       <c r="C31" t="n">
-        <v>27442.86956990968</v>
+        <v>27178.39542604894</v>
       </c>
       <c r="D31" t="n">
         <v>13522.308384706</v>
       </c>
       <c r="E31" t="n">
-        <v>9617.060019791126</v>
+        <v>10407.52938312292</v>
       </c>
       <c r="F31" t="n">
-        <v>11763.69205504656</v>
+        <v>13094.98684871197</v>
       </c>
     </row>
     <row r="32">
@@ -5015,16 +5015,16 @@
         <v>33080.92354048813</v>
       </c>
       <c r="C32" t="n">
-        <v>21338.98098994368</v>
+        <v>21047.4644942528</v>
       </c>
       <c r="D32" t="n">
         <v>6891.437929709256</v>
       </c>
       <c r="E32" t="n">
-        <v>8612.885040283203</v>
+        <v>8841.093695878983</v>
       </c>
       <c r="F32" t="n">
-        <v>11521.65587937832</v>
+        <v>11022.8922713995</v>
       </c>
     </row>
     <row r="33">
@@ -5035,16 +5035,16 @@
         <v>37075.69038319773</v>
       </c>
       <c r="C33" t="n">
-        <v>24912.49484534605</v>
+        <v>24634.14252892585</v>
       </c>
       <c r="D33" t="n">
         <v>11225.52198028152</v>
       </c>
       <c r="E33" t="n">
-        <v>8454.527319729328</v>
+        <v>9306.773185193539</v>
       </c>
       <c r="F33" t="n">
-        <v>10024.86486172676</v>
+        <v>10341.49178057909</v>
       </c>
     </row>
     <row r="34">
@@ -5055,16 +5055,16 @@
         <v>41794.01585406331</v>
       </c>
       <c r="C34" t="n">
-        <v>28827.1704796101</v>
+        <v>28425.59288355899</v>
       </c>
       <c r="D34" t="n">
         <v>14991.45784198569</v>
       </c>
       <c r="E34" t="n">
-        <v>9142.141557216644</v>
+        <v>8983.133241057396</v>
       </c>
       <c r="F34" t="n">
-        <v>10439.99814319611</v>
+        <v>11419.41954988241</v>
       </c>
     </row>
     <row r="35">
@@ -5075,16 +5075,16 @@
         <v>45927.86091708546</v>
       </c>
       <c r="C35" t="n">
-        <v>32787.79711585079</v>
+        <v>32245.94552910663</v>
       </c>
       <c r="D35" t="n">
         <v>19839.62288491453</v>
       </c>
       <c r="E35" t="n">
-        <v>9636.606249451637</v>
+        <v>9355.147589743137</v>
       </c>
       <c r="F35" t="n">
-        <v>10805.51942741871</v>
+        <v>10598.53548657894</v>
       </c>
     </row>
     <row r="36">
@@ -5095,16 +5095,16 @@
         <v>38939.52466479897</v>
       </c>
       <c r="C36" t="n">
-        <v>26615.16273601057</v>
+        <v>26241.30900164179</v>
       </c>
       <c r="D36" t="n">
         <v>12731.61582631851</v>
       </c>
       <c r="E36" t="n">
-        <v>9656.774713218212</v>
+        <v>9719.542148947716</v>
       </c>
       <c r="F36" t="n">
-        <v>12013.15808409452</v>
+        <v>11963.20832717419</v>
       </c>
     </row>
     <row r="37">
@@ -5115,16 +5115,16 @@
         <v>32948.93144974244</v>
       </c>
       <c r="C37" t="n">
-        <v>21781.06622293617</v>
+        <v>21571.53203371033</v>
       </c>
       <c r="D37" t="n">
         <v>8127.890938154369</v>
       </c>
       <c r="E37" t="n">
-        <v>9698.016630411148</v>
+        <v>10035.75567746162</v>
       </c>
       <c r="F37" t="n">
-        <v>11791.9770642519</v>
+        <v>12506.89998781681</v>
       </c>
     </row>
     <row r="38">
@@ -5135,16 +5135,16 @@
         <v>37329.3364902729</v>
       </c>
       <c r="C38" t="n">
-        <v>24603.18006663763</v>
+        <v>24342.09858434091</v>
       </c>
       <c r="D38" t="n">
         <v>9212.158812765581</v>
       </c>
       <c r="E38" t="n">
-        <v>10046.78830069304</v>
+        <v>11198.57199251652</v>
       </c>
       <c r="F38" t="n">
-        <v>13080.22168028355</v>
+        <v>12415.76073950529</v>
       </c>
     </row>
     <row r="39">
@@ -5155,16 +5155,16 @@
         <v>40877.58643171906</v>
       </c>
       <c r="C39" t="n">
-        <v>27311.61430632122</v>
+        <v>27051.67671392647</v>
       </c>
       <c r="D39" t="n">
         <v>10191.64995863509</v>
       </c>
       <c r="E39" t="n">
-        <v>14608.06080472469</v>
+        <v>14925.0993950367</v>
       </c>
       <c r="F39" t="n">
-        <v>16349.17324733734</v>
+        <v>16401.41341018677</v>
       </c>
     </row>
   </sheetData>
